--- a/BackTest/2020-01-19 BackTest XMR.xlsx
+++ b/BackTest/2020-01-19 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77650</v>
+        <v>77700</v>
       </c>
       <c r="C2" t="n">
-        <v>77650</v>
+        <v>77700</v>
       </c>
       <c r="D2" t="n">
-        <v>77650</v>
+        <v>77700</v>
       </c>
       <c r="E2" t="n">
-        <v>77650</v>
+        <v>77700</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4641</v>
+        <v>1.098</v>
       </c>
       <c r="G2" t="n">
-        <v>78701.66666666667</v>
+        <v>78732.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>77450</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="n">
-        <v>77900</v>
+        <v>77650</v>
       </c>
       <c r="D3" t="n">
-        <v>77900</v>
+        <v>77650</v>
       </c>
       <c r="E3" t="n">
-        <v>77450</v>
+        <v>77650</v>
       </c>
       <c r="F3" t="n">
-        <v>9.7864</v>
+        <v>0.4641</v>
       </c>
       <c r="G3" t="n">
-        <v>78665</v>
+        <v>78701.66666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>77350</v>
+        <v>77450</v>
       </c>
       <c r="C4" t="n">
-        <v>77350</v>
+        <v>77900</v>
       </c>
       <c r="D4" t="n">
-        <v>77350</v>
+        <v>77900</v>
       </c>
       <c r="E4" t="n">
-        <v>77350</v>
+        <v>77450</v>
       </c>
       <c r="F4" t="n">
-        <v>1.3639</v>
+        <v>9.7864</v>
       </c>
       <c r="G4" t="n">
-        <v>78619.16666666667</v>
+        <v>78665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>77250</v>
+        <v>77350</v>
       </c>
       <c r="C5" t="n">
-        <v>77050</v>
+        <v>77350</v>
       </c>
       <c r="D5" t="n">
-        <v>77250</v>
+        <v>77350</v>
       </c>
       <c r="E5" t="n">
-        <v>77050</v>
+        <v>77350</v>
       </c>
       <c r="F5" t="n">
-        <v>7.6082</v>
+        <v>1.3639</v>
       </c>
       <c r="G5" t="n">
-        <v>78560.83333333333</v>
+        <v>78619.16666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77650</v>
+        <v>77250</v>
       </c>
       <c r="C6" t="n">
-        <v>78350</v>
+        <v>77050</v>
       </c>
       <c r="D6" t="n">
-        <v>78350</v>
+        <v>77250</v>
       </c>
       <c r="E6" t="n">
-        <v>77650</v>
+        <v>77050</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7465</v>
+        <v>7.6082</v>
       </c>
       <c r="G6" t="n">
-        <v>78533.33333333333</v>
+        <v>78560.83333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77350</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="n">
-        <v>76900</v>
+        <v>78350</v>
       </c>
       <c r="D7" t="n">
-        <v>77350</v>
+        <v>78350</v>
       </c>
       <c r="E7" t="n">
-        <v>76900</v>
+        <v>77650</v>
       </c>
       <c r="F7" t="n">
-        <v>21.6776</v>
+        <v>1.7465</v>
       </c>
       <c r="G7" t="n">
-        <v>78481.66666666667</v>
+        <v>78533.33333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>76750</v>
+        <v>77350</v>
       </c>
       <c r="C8" t="n">
-        <v>76750</v>
+        <v>76900</v>
       </c>
       <c r="D8" t="n">
-        <v>76750</v>
+        <v>77350</v>
       </c>
       <c r="E8" t="n">
-        <v>76750</v>
+        <v>76900</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2716</v>
+        <v>21.6776</v>
       </c>
       <c r="G8" t="n">
-        <v>78437.5</v>
+        <v>78481.66666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76650</v>
+        <v>76750</v>
       </c>
       <c r="C9" t="n">
-        <v>76400</v>
+        <v>76750</v>
       </c>
       <c r="D9" t="n">
-        <v>76650</v>
+        <v>76750</v>
       </c>
       <c r="E9" t="n">
-        <v>76400</v>
+        <v>76750</v>
       </c>
       <c r="F9" t="n">
-        <v>8.185</v>
+        <v>0.2716</v>
       </c>
       <c r="G9" t="n">
-        <v>78387.5</v>
+        <v>78437.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76900</v>
+        <v>76650</v>
       </c>
       <c r="C10" t="n">
-        <v>76900</v>
+        <v>76400</v>
       </c>
       <c r="D10" t="n">
-        <v>76900</v>
+        <v>76650</v>
       </c>
       <c r="E10" t="n">
-        <v>76900</v>
+        <v>76400</v>
       </c>
       <c r="F10" t="n">
-        <v>3.4</v>
+        <v>8.185</v>
       </c>
       <c r="G10" t="n">
-        <v>78358.33333333333</v>
+        <v>78387.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>76900</v>
       </c>
       <c r="C11" t="n">
-        <v>77400</v>
+        <v>76900</v>
       </c>
       <c r="D11" t="n">
-        <v>77400</v>
+        <v>76900</v>
       </c>
       <c r="E11" t="n">
         <v>76900</v>
       </c>
       <c r="F11" t="n">
-        <v>14.4793</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>78337.5</v>
+        <v>78358.33333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77500</v>
+        <v>76900</v>
       </c>
       <c r="C12" t="n">
-        <v>77500</v>
+        <v>77400</v>
       </c>
       <c r="D12" t="n">
-        <v>77500</v>
+        <v>77400</v>
       </c>
       <c r="E12" t="n">
-        <v>77500</v>
+        <v>76900</v>
       </c>
       <c r="F12" t="n">
-        <v>1.66</v>
+        <v>14.4793</v>
       </c>
       <c r="G12" t="n">
-        <v>78310.83333333333</v>
+        <v>78337.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>77550</v>
+        <v>77500</v>
       </c>
       <c r="C13" t="n">
-        <v>77550</v>
+        <v>77500</v>
       </c>
       <c r="D13" t="n">
-        <v>77550</v>
+        <v>77500</v>
       </c>
       <c r="E13" t="n">
-        <v>77550</v>
+        <v>77500</v>
       </c>
       <c r="F13" t="n">
-        <v>1.4029</v>
+        <v>1.66</v>
       </c>
       <c r="G13" t="n">
-        <v>78295</v>
+        <v>78310.83333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>78000</v>
+        <v>77550</v>
       </c>
       <c r="C14" t="n">
-        <v>78000</v>
+        <v>77550</v>
       </c>
       <c r="D14" t="n">
-        <v>78000</v>
+        <v>77550</v>
       </c>
       <c r="E14" t="n">
-        <v>78000</v>
+        <v>77550</v>
       </c>
       <c r="F14" t="n">
-        <v>6.3789</v>
+        <v>1.4029</v>
       </c>
       <c r="G14" t="n">
-        <v>78285</v>
+        <v>78295</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>77900</v>
+        <v>78000</v>
       </c>
       <c r="C15" t="n">
-        <v>77900</v>
+        <v>78000</v>
       </c>
       <c r="D15" t="n">
-        <v>77900</v>
+        <v>78000</v>
       </c>
       <c r="E15" t="n">
-        <v>77900</v>
+        <v>78000</v>
       </c>
       <c r="F15" t="n">
-        <v>1.327</v>
+        <v>6.3789</v>
       </c>
       <c r="G15" t="n">
-        <v>78282.5</v>
+        <v>78285</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,19 +923,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>78100</v>
+        <v>77900</v>
       </c>
       <c r="C16" t="n">
-        <v>78100</v>
+        <v>77900</v>
       </c>
       <c r="D16" t="n">
-        <v>78100</v>
+        <v>77900</v>
       </c>
       <c r="E16" t="n">
-        <v>78100</v>
+        <v>77900</v>
       </c>
       <c r="F16" t="n">
-        <v>17.1814</v>
+        <v>1.327</v>
       </c>
       <c r="G16" t="n">
         <v>78282.5</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>77800</v>
+        <v>78100</v>
       </c>
       <c r="C17" t="n">
-        <v>77800</v>
+        <v>78100</v>
       </c>
       <c r="D17" t="n">
-        <v>77800</v>
+        <v>78100</v>
       </c>
       <c r="E17" t="n">
-        <v>77800</v>
+        <v>78100</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8126</v>
+        <v>17.1814</v>
       </c>
       <c r="G17" t="n">
-        <v>78275.83333333333</v>
+        <v>78282.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>77950</v>
+        <v>77800</v>
       </c>
       <c r="C18" t="n">
-        <v>77950</v>
+        <v>77800</v>
       </c>
       <c r="D18" t="n">
-        <v>77950</v>
+        <v>77800</v>
       </c>
       <c r="E18" t="n">
-        <v>77950</v>
+        <v>77800</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1286</v>
+        <v>0.8126</v>
       </c>
       <c r="G18" t="n">
-        <v>78275</v>
+        <v>78275.83333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>77700</v>
+        <v>77950</v>
       </c>
       <c r="C19" t="n">
-        <v>78150</v>
+        <v>77950</v>
       </c>
       <c r="D19" t="n">
-        <v>78150</v>
+        <v>77950</v>
       </c>
       <c r="E19" t="n">
-        <v>77700</v>
+        <v>77950</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0134</v>
+        <v>0.1286</v>
       </c>
       <c r="G19" t="n">
-        <v>78277.5</v>
+        <v>78275</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>78200</v>
+        <v>77700</v>
       </c>
       <c r="C20" t="n">
-        <v>78200</v>
+        <v>78150</v>
       </c>
       <c r="D20" t="n">
-        <v>78200</v>
+        <v>78150</v>
       </c>
       <c r="E20" t="n">
-        <v>78200</v>
+        <v>77700</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0549</v>
+        <v>0.0134</v>
       </c>
       <c r="G20" t="n">
-        <v>78280.83333333333</v>
+        <v>78277.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>78200</v>
       </c>
       <c r="F21" t="n">
-        <v>4.9358</v>
+        <v>0.0549</v>
       </c>
       <c r="G21" t="n">
-        <v>78270.83333333333</v>
+        <v>78280.83333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>78050</v>
+        <v>78200</v>
       </c>
       <c r="C22" t="n">
-        <v>78050</v>
+        <v>78200</v>
       </c>
       <c r="D22" t="n">
-        <v>78050</v>
+        <v>78200</v>
       </c>
       <c r="E22" t="n">
-        <v>78050</v>
+        <v>78200</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9989</v>
+        <v>4.9358</v>
       </c>
       <c r="G22" t="n">
-        <v>78243.33333333333</v>
+        <v>78270.83333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>78100</v>
+        <v>78050</v>
       </c>
       <c r="C23" t="n">
-        <v>78100</v>
+        <v>78050</v>
       </c>
       <c r="D23" t="n">
-        <v>78100</v>
+        <v>78050</v>
       </c>
       <c r="E23" t="n">
-        <v>78100</v>
+        <v>78050</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6002</v>
+        <v>0.9989</v>
       </c>
       <c r="G23" t="n">
-        <v>78216.66666666667</v>
+        <v>78243.33333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>78050</v>
+        <v>78100</v>
       </c>
       <c r="C24" t="n">
-        <v>78050</v>
+        <v>78100</v>
       </c>
       <c r="D24" t="n">
-        <v>78050</v>
+        <v>78100</v>
       </c>
       <c r="E24" t="n">
-        <v>78050</v>
+        <v>78100</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2701</v>
+        <v>0.6002</v>
       </c>
       <c r="G24" t="n">
-        <v>78193.33333333333</v>
+        <v>78216.66666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>78100</v>
+        <v>78050</v>
       </c>
       <c r="C25" t="n">
-        <v>78100</v>
+        <v>78050</v>
       </c>
       <c r="D25" t="n">
-        <v>78100</v>
+        <v>78050</v>
       </c>
       <c r="E25" t="n">
-        <v>78100</v>
+        <v>78050</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5132</v>
+        <v>0.2701</v>
       </c>
       <c r="G25" t="n">
-        <v>78172.5</v>
+        <v>78193.33333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>78200</v>
+        <v>78100</v>
       </c>
       <c r="C26" t="n">
-        <v>78150</v>
+        <v>78100</v>
       </c>
       <c r="D26" t="n">
-        <v>78200</v>
+        <v>78100</v>
       </c>
       <c r="E26" t="n">
-        <v>78150</v>
+        <v>78100</v>
       </c>
       <c r="F26" t="n">
-        <v>10.1469</v>
+        <v>0.5132</v>
       </c>
       <c r="G26" t="n">
-        <v>78152.5</v>
+        <v>78172.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>78200</v>
       </c>
       <c r="C27" t="n">
-        <v>78200</v>
+        <v>78150</v>
       </c>
       <c r="D27" t="n">
         <v>78200</v>
       </c>
       <c r="E27" t="n">
-        <v>78200</v>
+        <v>78150</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0065</v>
+        <v>10.1469</v>
       </c>
       <c r="G27" t="n">
-        <v>78133.33333333333</v>
+        <v>78152.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>78250</v>
+        <v>78200</v>
       </c>
       <c r="C28" t="n">
-        <v>78450</v>
+        <v>78200</v>
       </c>
       <c r="D28" t="n">
-        <v>78450</v>
+        <v>78200</v>
       </c>
       <c r="E28" t="n">
-        <v>78250</v>
+        <v>78200</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0194</v>
+        <v>0.0065</v>
       </c>
       <c r="G28" t="n">
-        <v>78121.66666666667</v>
+        <v>78133.33333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>78450</v>
+        <v>78250</v>
       </c>
       <c r="C29" t="n">
         <v>78450</v>
       </c>
       <c r="D29" t="n">
-        <v>78500</v>
+        <v>78450</v>
       </c>
       <c r="E29" t="n">
-        <v>78450</v>
+        <v>78250</v>
       </c>
       <c r="F29" t="n">
-        <v>16.5092</v>
+        <v>0.0194</v>
       </c>
       <c r="G29" t="n">
-        <v>78112.5</v>
+        <v>78121.66666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>78450</v>
       </c>
       <c r="D30" t="n">
-        <v>78450</v>
+        <v>78500</v>
       </c>
       <c r="E30" t="n">
         <v>78450</v>
       </c>
       <c r="F30" t="n">
-        <v>41.8155</v>
+        <v>16.5092</v>
       </c>
       <c r="G30" t="n">
-        <v>78104.16666666667</v>
+        <v>78112.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>78450</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>41.8155</v>
       </c>
       <c r="G31" t="n">
-        <v>78095.83333333333</v>
+        <v>78104.16666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>78450</v>
       </c>
       <c r="C32" t="n">
-        <v>78050</v>
+        <v>78450</v>
       </c>
       <c r="D32" t="n">
         <v>78450</v>
       </c>
       <c r="E32" t="n">
-        <v>78050</v>
+        <v>78450</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>78080.83333333333</v>
+        <v>78095.83333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>77750</v>
+        <v>78450</v>
       </c>
       <c r="C33" t="n">
-        <v>77750</v>
+        <v>78050</v>
       </c>
       <c r="D33" t="n">
-        <v>77750</v>
+        <v>78450</v>
       </c>
       <c r="E33" t="n">
-        <v>77750</v>
+        <v>78050</v>
       </c>
       <c r="F33" t="n">
-        <v>40.097</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>78060.83333333333</v>
+        <v>78080.83333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>77750</v>
       </c>
       <c r="F34" t="n">
-        <v>37.9003</v>
+        <v>40.097</v>
       </c>
       <c r="G34" t="n">
-        <v>78035</v>
+        <v>78060.83333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>77650</v>
+        <v>77750</v>
       </c>
       <c r="C35" t="n">
-        <v>77850</v>
+        <v>77750</v>
       </c>
       <c r="D35" t="n">
-        <v>77850</v>
+        <v>77750</v>
       </c>
       <c r="E35" t="n">
-        <v>77500</v>
+        <v>77750</v>
       </c>
       <c r="F35" t="n">
-        <v>7.545357996146</v>
+        <v>37.9003</v>
       </c>
       <c r="G35" t="n">
-        <v>78007.5</v>
+        <v>78035</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>77900</v>
+        <v>77650</v>
       </c>
       <c r="C36" t="n">
-        <v>77900</v>
+        <v>77850</v>
       </c>
       <c r="D36" t="n">
-        <v>77900</v>
+        <v>77850</v>
       </c>
       <c r="E36" t="n">
-        <v>77900</v>
+        <v>77500</v>
       </c>
       <c r="F36" t="n">
-        <v>1.6195</v>
+        <v>7.545357996146</v>
       </c>
       <c r="G36" t="n">
-        <v>77980</v>
+        <v>78007.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>77600</v>
+        <v>77900</v>
       </c>
       <c r="C37" t="n">
-        <v>77600</v>
+        <v>77900</v>
       </c>
       <c r="D37" t="n">
-        <v>77600</v>
+        <v>77900</v>
       </c>
       <c r="E37" t="n">
-        <v>77600</v>
+        <v>77900</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9833</v>
+        <v>1.6195</v>
       </c>
       <c r="G37" t="n">
-        <v>77950</v>
+        <v>77980</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77850</v>
+        <v>77600</v>
       </c>
       <c r="C38" t="n">
-        <v>77900</v>
+        <v>77600</v>
       </c>
       <c r="D38" t="n">
-        <v>77900</v>
+        <v>77600</v>
       </c>
       <c r="E38" t="n">
-        <v>77850</v>
+        <v>77600</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>0.9833</v>
       </c>
       <c r="G38" t="n">
-        <v>77928.33333333333</v>
+        <v>77950</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>77500</v>
+        <v>77850</v>
       </c>
       <c r="C39" t="n">
-        <v>77500</v>
+        <v>77900</v>
       </c>
       <c r="D39" t="n">
-        <v>77500</v>
+        <v>77900</v>
       </c>
       <c r="E39" t="n">
-        <v>77500</v>
+        <v>77850</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7992</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>77904.16666666667</v>
+        <v>77928.33333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>77500</v>
       </c>
       <c r="C40" t="n">
-        <v>77450</v>
+        <v>77500</v>
       </c>
       <c r="D40" t="n">
         <v>77500</v>
       </c>
       <c r="E40" t="n">
-        <v>77450</v>
+        <v>77500</v>
       </c>
       <c r="F40" t="n">
-        <v>2.2861</v>
+        <v>0.7992</v>
       </c>
       <c r="G40" t="n">
-        <v>77861.66666666667</v>
+        <v>77904.16666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>77050</v>
+        <v>77500</v>
       </c>
       <c r="C41" t="n">
-        <v>76900</v>
+        <v>77450</v>
       </c>
       <c r="D41" t="n">
-        <v>77050</v>
+        <v>77500</v>
       </c>
       <c r="E41" t="n">
-        <v>76900</v>
+        <v>77450</v>
       </c>
       <c r="F41" t="n">
-        <v>26.468</v>
+        <v>2.2861</v>
       </c>
       <c r="G41" t="n">
-        <v>77799.16666666667</v>
+        <v>77861.66666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>77400</v>
+        <v>77050</v>
       </c>
       <c r="C42" t="n">
-        <v>76950</v>
+        <v>76900</v>
       </c>
       <c r="D42" t="n">
-        <v>77450</v>
+        <v>77050</v>
       </c>
       <c r="E42" t="n">
-        <v>76950</v>
+        <v>76900</v>
       </c>
       <c r="F42" t="n">
-        <v>13.204437830858</v>
+        <v>26.468</v>
       </c>
       <c r="G42" t="n">
-        <v>77765</v>
+        <v>77799.16666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>77300</v>
+        <v>77400</v>
       </c>
       <c r="C43" t="n">
-        <v>77300</v>
+        <v>76950</v>
       </c>
       <c r="D43" t="n">
-        <v>77300</v>
+        <v>77450</v>
       </c>
       <c r="E43" t="n">
-        <v>77300</v>
+        <v>76950</v>
       </c>
       <c r="F43" t="n">
-        <v>1.336</v>
+        <v>13.204437830858</v>
       </c>
       <c r="G43" t="n">
-        <v>77735.83333333333</v>
+        <v>77765</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>77300</v>
       </c>
       <c r="C44" t="n">
-        <v>77350</v>
+        <v>77300</v>
       </c>
       <c r="D44" t="n">
-        <v>77350</v>
+        <v>77300</v>
       </c>
       <c r="E44" t="n">
         <v>77300</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7069</v>
+        <v>1.336</v>
       </c>
       <c r="G44" t="n">
-        <v>77707.5</v>
+        <v>77735.83333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>77150</v>
+        <v>77300</v>
       </c>
       <c r="C45" t="n">
-        <v>77500</v>
+        <v>77350</v>
       </c>
       <c r="D45" t="n">
-        <v>77500</v>
+        <v>77350</v>
       </c>
       <c r="E45" t="n">
-        <v>77150</v>
+        <v>77300</v>
       </c>
       <c r="F45" t="n">
-        <v>80.2504</v>
+        <v>0.7069</v>
       </c>
       <c r="G45" t="n">
-        <v>77681.66666666667</v>
+        <v>77707.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>77500</v>
+        <v>77150</v>
       </c>
       <c r="C46" t="n">
         <v>77500</v>
@@ -1982,13 +1982,13 @@
         <v>77500</v>
       </c>
       <c r="E46" t="n">
-        <v>77500</v>
+        <v>77150</v>
       </c>
       <c r="F46" t="n">
-        <v>10.4012</v>
+        <v>80.2504</v>
       </c>
       <c r="G46" t="n">
-        <v>77664.16666666667</v>
+        <v>77681.66666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>77500</v>
       </c>
       <c r="C47" t="n">
-        <v>77800</v>
+        <v>77500</v>
       </c>
       <c r="D47" t="n">
-        <v>77800</v>
+        <v>77500</v>
       </c>
       <c r="E47" t="n">
         <v>77500</v>
       </c>
       <c r="F47" t="n">
-        <v>10.1889</v>
+        <v>10.4012</v>
       </c>
       <c r="G47" t="n">
-        <v>77665</v>
+        <v>77664.16666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>77650</v>
+        <v>77500</v>
       </c>
       <c r="C48" t="n">
         <v>77800</v>
@@ -2052,13 +2052,13 @@
         <v>77800</v>
       </c>
       <c r="E48" t="n">
-        <v>77650</v>
+        <v>77500</v>
       </c>
       <c r="F48" t="n">
-        <v>6.4597</v>
+        <v>10.1889</v>
       </c>
       <c r="G48" t="n">
-        <v>77660</v>
+        <v>77665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>77800</v>
+        <v>77650</v>
       </c>
       <c r="C49" t="n">
         <v>77800</v>
@@ -2087,13 +2087,13 @@
         <v>77800</v>
       </c>
       <c r="E49" t="n">
-        <v>77800</v>
+        <v>77650</v>
       </c>
       <c r="F49" t="n">
-        <v>7.2592</v>
+        <v>6.4597</v>
       </c>
       <c r="G49" t="n">
-        <v>77662.5</v>
+        <v>77660</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>77750</v>
+        <v>77800</v>
       </c>
       <c r="C50" t="n">
-        <v>77750</v>
+        <v>77800</v>
       </c>
       <c r="D50" t="n">
-        <v>77750</v>
+        <v>77800</v>
       </c>
       <c r="E50" t="n">
-        <v>77750</v>
+        <v>77800</v>
       </c>
       <c r="F50" t="n">
-        <v>1.1849</v>
+        <v>7.2592</v>
       </c>
       <c r="G50" t="n">
-        <v>77671.66666666667</v>
+        <v>77662.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>77800</v>
+        <v>77750</v>
       </c>
       <c r="C51" t="n">
-        <v>77900</v>
+        <v>77750</v>
       </c>
       <c r="D51" t="n">
-        <v>77900</v>
+        <v>77750</v>
       </c>
       <c r="E51" t="n">
-        <v>77800</v>
+        <v>77750</v>
       </c>
       <c r="F51" t="n">
-        <v>0.396</v>
+        <v>1.1849</v>
       </c>
       <c r="G51" t="n">
-        <v>77683.33333333333</v>
+        <v>77671.66666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>77600</v>
+        <v>77800</v>
       </c>
       <c r="C52" t="n">
-        <v>77600</v>
+        <v>77900</v>
       </c>
       <c r="D52" t="n">
-        <v>77600</v>
+        <v>77900</v>
       </c>
       <c r="E52" t="n">
-        <v>77600</v>
+        <v>77800</v>
       </c>
       <c r="F52" t="n">
-        <v>1.6013</v>
+        <v>0.396</v>
       </c>
       <c r="G52" t="n">
-        <v>77720</v>
+        <v>77683.33333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>77900</v>
+        <v>77600</v>
       </c>
       <c r="C53" t="n">
-        <v>78100</v>
+        <v>77600</v>
       </c>
       <c r="D53" t="n">
-        <v>78100</v>
+        <v>77600</v>
       </c>
       <c r="E53" t="n">
-        <v>77900</v>
+        <v>77600</v>
       </c>
       <c r="F53" t="n">
-        <v>1.5301</v>
+        <v>1.6013</v>
       </c>
       <c r="G53" t="n">
-        <v>77740.83333333333</v>
+        <v>77720</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>77900</v>
+      </c>
+      <c r="C54" t="n">
         <v>78100</v>
       </c>
-      <c r="C54" t="n">
-        <v>79000</v>
-      </c>
       <c r="D54" t="n">
-        <v>79000</v>
+        <v>78100</v>
       </c>
       <c r="E54" t="n">
-        <v>78100</v>
+        <v>77900</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6313621691420001</v>
+        <v>1.5301</v>
       </c>
       <c r="G54" t="n">
-        <v>77760.83333333333</v>
+        <v>77740.83333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>78700</v>
+        <v>78100</v>
       </c>
       <c r="C55" t="n">
-        <v>78700</v>
+        <v>79000</v>
       </c>
       <c r="D55" t="n">
-        <v>78700</v>
+        <v>79000</v>
       </c>
       <c r="E55" t="n">
-        <v>78700</v>
+        <v>78100</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1</v>
+        <v>0.6313621691420001</v>
       </c>
       <c r="G55" t="n">
-        <v>77785.83333333333</v>
+        <v>77760.83333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>78700</v>
       </c>
       <c r="F56" t="n">
-        <v>1.8205</v>
+        <v>0.1</v>
       </c>
       <c r="G56" t="n">
-        <v>77806.66666666667</v>
+        <v>77785.83333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>78450</v>
+        <v>78700</v>
       </c>
       <c r="C57" t="n">
-        <v>78450</v>
+        <v>78700</v>
       </c>
       <c r="D57" t="n">
-        <v>78450</v>
+        <v>78700</v>
       </c>
       <c r="E57" t="n">
-        <v>78450</v>
+        <v>78700</v>
       </c>
       <c r="F57" t="n">
-        <v>24</v>
+        <v>1.8205</v>
       </c>
       <c r="G57" t="n">
-        <v>77823.33333333333</v>
+        <v>77806.66666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>78250</v>
+        <v>78450</v>
       </c>
       <c r="C58" t="n">
-        <v>78250</v>
+        <v>78450</v>
       </c>
       <c r="D58" t="n">
-        <v>78250</v>
+        <v>78450</v>
       </c>
       <c r="E58" t="n">
-        <v>78250</v>
+        <v>78450</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2</v>
+        <v>24</v>
       </c>
       <c r="G58" t="n">
-        <v>77829.16666666667</v>
+        <v>77823.33333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>78250</v>
       </c>
       <c r="F59" t="n">
-        <v>39.5029</v>
+        <v>0.2</v>
       </c>
       <c r="G59" t="n">
         <v>77829.16666666667</v>
@@ -2466,19 +2466,19 @@
         <v>78250</v>
       </c>
       <c r="C60" t="n">
-        <v>78350</v>
+        <v>78250</v>
       </c>
       <c r="D60" t="n">
-        <v>79000</v>
+        <v>78250</v>
       </c>
       <c r="E60" t="n">
         <v>78250</v>
       </c>
       <c r="F60" t="n">
-        <v>167.4728</v>
+        <v>39.5029</v>
       </c>
       <c r="G60" t="n">
-        <v>77830.83333333333</v>
+        <v>77829.16666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>78300</v>
+        <v>78250</v>
       </c>
       <c r="C61" t="n">
-        <v>78300</v>
+        <v>78350</v>
       </c>
       <c r="D61" t="n">
-        <v>78300</v>
+        <v>79000</v>
       </c>
       <c r="E61" t="n">
-        <v>78300</v>
+        <v>78250</v>
       </c>
       <c r="F61" t="n">
-        <v>69.0501</v>
+        <v>167.4728</v>
       </c>
       <c r="G61" t="n">
-        <v>77840.83333333333</v>
+        <v>77830.83333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>78350</v>
+        <v>78300</v>
       </c>
       <c r="C62" t="n">
-        <v>78650</v>
+        <v>78300</v>
       </c>
       <c r="D62" t="n">
-        <v>78750</v>
+        <v>78300</v>
       </c>
       <c r="E62" t="n">
-        <v>78350</v>
+        <v>78300</v>
       </c>
       <c r="F62" t="n">
-        <v>100.8932</v>
+        <v>69.0501</v>
       </c>
       <c r="G62" t="n">
-        <v>77857.5</v>
+        <v>77840.83333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>78200</v>
+        <v>78350</v>
       </c>
       <c r="C63" t="n">
-        <v>78100</v>
+        <v>78650</v>
       </c>
       <c r="D63" t="n">
-        <v>78200</v>
+        <v>78750</v>
       </c>
       <c r="E63" t="n">
-        <v>78100</v>
+        <v>78350</v>
       </c>
       <c r="F63" t="n">
-        <v>7.7681</v>
+        <v>100.8932</v>
       </c>
       <c r="G63" t="n">
-        <v>77860.83333333333</v>
+        <v>77857.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>78100</v>
+        <v>78200</v>
       </c>
       <c r="C64" t="n">
         <v>78100</v>
       </c>
       <c r="D64" t="n">
-        <v>78100</v>
+        <v>78200</v>
       </c>
       <c r="E64" t="n">
         <v>78100</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>7.7681</v>
       </c>
       <c r="G64" t="n">
-        <v>77873.33333333333</v>
+        <v>77860.83333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>77500</v>
+        <v>78100</v>
       </c>
       <c r="C65" t="n">
-        <v>77400</v>
+        <v>78100</v>
       </c>
       <c r="D65" t="n">
-        <v>77500</v>
+        <v>78100</v>
       </c>
       <c r="E65" t="n">
-        <v>77400</v>
+        <v>78100</v>
       </c>
       <c r="F65" t="n">
-        <v>56.8505</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>77879.16666666667</v>
+        <v>77873.33333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>77350</v>
+        <v>77500</v>
       </c>
       <c r="C66" t="n">
-        <v>77300</v>
+        <v>77400</v>
       </c>
       <c r="D66" t="n">
-        <v>77350</v>
+        <v>77500</v>
       </c>
       <c r="E66" t="n">
-        <v>77300</v>
+        <v>77400</v>
       </c>
       <c r="F66" t="n">
-        <v>1.7465</v>
+        <v>56.8505</v>
       </c>
       <c r="G66" t="n">
-        <v>77861.66666666667</v>
+        <v>77879.16666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>77950</v>
+        <v>77350</v>
       </c>
       <c r="C67" t="n">
-        <v>77950</v>
+        <v>77300</v>
       </c>
       <c r="D67" t="n">
-        <v>77950</v>
+        <v>77350</v>
       </c>
       <c r="E67" t="n">
-        <v>77950</v>
+        <v>77300</v>
       </c>
       <c r="F67" t="n">
-        <v>0.10974983964</v>
+        <v>1.7465</v>
       </c>
       <c r="G67" t="n">
-        <v>77879.16666666667</v>
+        <v>77861.66666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>77550</v>
+        <v>77950</v>
       </c>
       <c r="C68" t="n">
-        <v>77550</v>
+        <v>77950</v>
       </c>
       <c r="D68" t="n">
-        <v>77550</v>
+        <v>77950</v>
       </c>
       <c r="E68" t="n">
-        <v>77550</v>
+        <v>77950</v>
       </c>
       <c r="F68" t="n">
-        <v>0.025</v>
+        <v>0.10974983964</v>
       </c>
       <c r="G68" t="n">
-        <v>77892.5</v>
+        <v>77879.16666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>77700</v>
+        <v>77550</v>
       </c>
       <c r="C69" t="n">
-        <v>77700</v>
+        <v>77550</v>
       </c>
       <c r="D69" t="n">
-        <v>77700</v>
+        <v>77550</v>
       </c>
       <c r="E69" t="n">
-        <v>77700</v>
+        <v>77550</v>
       </c>
       <c r="F69" t="n">
-        <v>0.057194337194</v>
+        <v>0.025</v>
       </c>
       <c r="G69" t="n">
-        <v>77914.16666666667</v>
+        <v>77892.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,19 +2813,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>77100</v>
+        <v>77700</v>
       </c>
       <c r="C70" t="n">
-        <v>76900</v>
+        <v>77700</v>
       </c>
       <c r="D70" t="n">
-        <v>77100</v>
+        <v>77700</v>
       </c>
       <c r="E70" t="n">
-        <v>76900</v>
+        <v>77700</v>
       </c>
       <c r="F70" t="n">
-        <v>2.4868</v>
+        <v>0.057194337194</v>
       </c>
       <c r="G70" t="n">
         <v>77914.16666666667</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>76850</v>
+        <v>77100</v>
       </c>
       <c r="C71" t="n">
-        <v>76650</v>
+        <v>76900</v>
       </c>
       <c r="D71" t="n">
-        <v>76850</v>
+        <v>77100</v>
       </c>
       <c r="E71" t="n">
-        <v>76650</v>
+        <v>76900</v>
       </c>
       <c r="F71" t="n">
-        <v>474.9285</v>
+        <v>2.4868</v>
       </c>
       <c r="G71" t="n">
-        <v>77901.66666666667</v>
+        <v>77914.16666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>76900</v>
+        <v>76850</v>
       </c>
       <c r="C72" t="n">
-        <v>76900</v>
+        <v>76650</v>
       </c>
       <c r="D72" t="n">
-        <v>76900</v>
+        <v>76850</v>
       </c>
       <c r="E72" t="n">
-        <v>76900</v>
+        <v>76650</v>
       </c>
       <c r="F72" t="n">
-        <v>27.3322</v>
+        <v>474.9285</v>
       </c>
       <c r="G72" t="n">
-        <v>77891.66666666667</v>
+        <v>77901.66666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>77500</v>
+        <v>76900</v>
       </c>
       <c r="C73" t="n">
-        <v>77500</v>
+        <v>76900</v>
       </c>
       <c r="D73" t="n">
-        <v>77500</v>
+        <v>76900</v>
       </c>
       <c r="E73" t="n">
-        <v>77500</v>
+        <v>76900</v>
       </c>
       <c r="F73" t="n">
-        <v>1.6946</v>
+        <v>27.3322</v>
       </c>
       <c r="G73" t="n">
-        <v>77890.83333333333</v>
+        <v>77891.66666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>77450</v>
+        <v>77500</v>
       </c>
       <c r="C74" t="n">
-        <v>77450</v>
+        <v>77500</v>
       </c>
       <c r="D74" t="n">
-        <v>77450</v>
+        <v>77500</v>
       </c>
       <c r="E74" t="n">
-        <v>77450</v>
+        <v>77500</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9772999999999999</v>
+        <v>1.6946</v>
       </c>
       <c r="G74" t="n">
-        <v>77881.66666666667</v>
+        <v>77890.83333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>77350</v>
+        <v>77450</v>
       </c>
       <c r="C75" t="n">
-        <v>77400</v>
+        <v>77450</v>
       </c>
       <c r="D75" t="n">
-        <v>77400</v>
+        <v>77450</v>
       </c>
       <c r="E75" t="n">
-        <v>77350</v>
+        <v>77450</v>
       </c>
       <c r="F75" t="n">
-        <v>12.73</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>77873.33333333333</v>
+        <v>77881.66666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>77350</v>
       </c>
       <c r="C76" t="n">
-        <v>77350</v>
+        <v>77400</v>
       </c>
       <c r="D76" t="n">
-        <v>77350</v>
+        <v>77400</v>
       </c>
       <c r="E76" t="n">
         <v>77350</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8106</v>
+        <v>12.73</v>
       </c>
       <c r="G76" t="n">
-        <v>77860.83333333333</v>
+        <v>77873.33333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>77050</v>
+        <v>77350</v>
       </c>
       <c r="C77" t="n">
-        <v>77050</v>
+        <v>77350</v>
       </c>
       <c r="D77" t="n">
-        <v>77050</v>
+        <v>77350</v>
       </c>
       <c r="E77" t="n">
-        <v>77050</v>
+        <v>77350</v>
       </c>
       <c r="F77" t="n">
-        <v>1.0367</v>
+        <v>0.8106</v>
       </c>
       <c r="G77" t="n">
-        <v>77848.33333333333</v>
+        <v>77860.83333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>77000</v>
+        <v>77050</v>
       </c>
       <c r="C78" t="n">
-        <v>77000</v>
+        <v>77050</v>
       </c>
       <c r="D78" t="n">
-        <v>77000</v>
+        <v>77050</v>
       </c>
       <c r="E78" t="n">
-        <v>77000</v>
+        <v>77050</v>
       </c>
       <c r="F78" t="n">
-        <v>7.3072</v>
+        <v>1.0367</v>
       </c>
       <c r="G78" t="n">
-        <v>77832.5</v>
+        <v>77848.33333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>76950</v>
+        <v>77000</v>
       </c>
       <c r="C79" t="n">
-        <v>76950</v>
+        <v>77000</v>
       </c>
       <c r="D79" t="n">
         <v>77000</v>
       </c>
       <c r="E79" t="n">
-        <v>76950</v>
+        <v>77000</v>
       </c>
       <c r="F79" t="n">
-        <v>7.9266</v>
+        <v>7.3072</v>
       </c>
       <c r="G79" t="n">
-        <v>77812.5</v>
+        <v>77832.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>77250</v>
+        <v>76950</v>
       </c>
       <c r="C80" t="n">
-        <v>77250</v>
+        <v>76950</v>
       </c>
       <c r="D80" t="n">
-        <v>77250</v>
+        <v>77000</v>
       </c>
       <c r="E80" t="n">
-        <v>77250</v>
+        <v>76950</v>
       </c>
       <c r="F80" t="n">
-        <v>10.003</v>
+        <v>7.9266</v>
       </c>
       <c r="G80" t="n">
-        <v>77796.66666666667</v>
+        <v>77812.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>76850</v>
+        <v>77250</v>
       </c>
       <c r="C81" t="n">
-        <v>76800</v>
+        <v>77250</v>
       </c>
       <c r="D81" t="n">
-        <v>76850</v>
+        <v>77250</v>
       </c>
       <c r="E81" t="n">
-        <v>76800</v>
+        <v>77250</v>
       </c>
       <c r="F81" t="n">
-        <v>5.6</v>
+        <v>10.003</v>
       </c>
       <c r="G81" t="n">
-        <v>77773.33333333333</v>
+        <v>77796.66666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>76800</v>
+        <v>76850</v>
       </c>
       <c r="C82" t="n">
         <v>76800</v>
       </c>
       <c r="D82" t="n">
-        <v>76800</v>
+        <v>76850</v>
       </c>
       <c r="E82" t="n">
         <v>76800</v>
       </c>
       <c r="F82" t="n">
-        <v>6.0646</v>
+        <v>5.6</v>
       </c>
       <c r="G82" t="n">
-        <v>77752.5</v>
+        <v>77773.33333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>76650</v>
+        <v>76800</v>
       </c>
       <c r="C83" t="n">
-        <v>76650</v>
+        <v>76800</v>
       </c>
       <c r="D83" t="n">
-        <v>76650</v>
+        <v>76800</v>
       </c>
       <c r="E83" t="n">
-        <v>76650</v>
+        <v>76800</v>
       </c>
       <c r="F83" t="n">
-        <v>1.3146</v>
+        <v>6.0646</v>
       </c>
       <c r="G83" t="n">
-        <v>77728.33333333333</v>
+        <v>77752.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>76650</v>
       </c>
       <c r="F84" t="n">
-        <v>0.977</v>
+        <v>1.3146</v>
       </c>
       <c r="G84" t="n">
-        <v>77705</v>
+        <v>77728.33333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>76600</v>
+        <v>76650</v>
       </c>
       <c r="C85" t="n">
-        <v>76350</v>
+        <v>76650</v>
       </c>
       <c r="D85" t="n">
-        <v>76600</v>
+        <v>76650</v>
       </c>
       <c r="E85" t="n">
-        <v>76350</v>
+        <v>76650</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3837</v>
+        <v>0.977</v>
       </c>
       <c r="G85" t="n">
-        <v>77675.83333333333</v>
+        <v>77705</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>76300</v>
+        <v>76600</v>
       </c>
       <c r="C86" t="n">
-        <v>76200</v>
+        <v>76350</v>
       </c>
       <c r="D86" t="n">
-        <v>76300</v>
+        <v>76600</v>
       </c>
       <c r="E86" t="n">
-        <v>76200</v>
+        <v>76350</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1385</v>
+        <v>0.3837</v>
       </c>
       <c r="G86" t="n">
-        <v>77643.33333333333</v>
+        <v>77675.83333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>75550</v>
+        <v>76300</v>
       </c>
       <c r="C87" t="n">
-        <v>75550</v>
+        <v>76200</v>
       </c>
       <c r="D87" t="n">
-        <v>75550</v>
+        <v>76300</v>
       </c>
       <c r="E87" t="n">
-        <v>75550</v>
+        <v>76200</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1</v>
+        <v>0.1385</v>
       </c>
       <c r="G87" t="n">
-        <v>77599.16666666667</v>
+        <v>77643.33333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>75400</v>
+        <v>75550</v>
       </c>
       <c r="C88" t="n">
-        <v>75400</v>
+        <v>75550</v>
       </c>
       <c r="D88" t="n">
-        <v>75400</v>
+        <v>75550</v>
       </c>
       <c r="E88" t="n">
-        <v>75400</v>
+        <v>75550</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4776</v>
+        <v>0.1</v>
       </c>
       <c r="G88" t="n">
-        <v>77548.33333333333</v>
+        <v>77599.16666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>75850</v>
+        <v>75400</v>
       </c>
       <c r="C89" t="n">
-        <v>75850</v>
+        <v>75400</v>
       </c>
       <c r="D89" t="n">
-        <v>75850</v>
+        <v>75400</v>
       </c>
       <c r="E89" t="n">
-        <v>75850</v>
+        <v>75400</v>
       </c>
       <c r="F89" t="n">
-        <v>1.257494660514</v>
+        <v>0.4776</v>
       </c>
       <c r="G89" t="n">
-        <v>77505</v>
+        <v>77548.33333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>75850</v>
       </c>
       <c r="F90" t="n">
-        <v>11.6725</v>
+        <v>1.257494660514</v>
       </c>
       <c r="G90" t="n">
-        <v>77461.66666666667</v>
+        <v>77505</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>75750</v>
+        <v>75850</v>
       </c>
       <c r="C91" t="n">
-        <v>75750</v>
+        <v>75850</v>
       </c>
       <c r="D91" t="n">
-        <v>75750</v>
+        <v>75850</v>
       </c>
       <c r="E91" t="n">
-        <v>75750</v>
+        <v>75850</v>
       </c>
       <c r="F91" t="n">
-        <v>35.9261</v>
+        <v>11.6725</v>
       </c>
       <c r="G91" t="n">
-        <v>77416.66666666667</v>
+        <v>77461.66666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>75250</v>
+        <v>75750</v>
       </c>
       <c r="C92" t="n">
-        <v>75050</v>
+        <v>75750</v>
       </c>
       <c r="D92" t="n">
-        <v>75250</v>
+        <v>75750</v>
       </c>
       <c r="E92" t="n">
-        <v>75050</v>
+        <v>75750</v>
       </c>
       <c r="F92" t="n">
-        <v>10.1321</v>
+        <v>35.9261</v>
       </c>
       <c r="G92" t="n">
-        <v>77366.66666666667</v>
+        <v>77416.66666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>74900</v>
+        <v>75250</v>
       </c>
       <c r="C93" t="n">
-        <v>75150</v>
+        <v>75050</v>
       </c>
       <c r="D93" t="n">
-        <v>75150</v>
+        <v>75250</v>
       </c>
       <c r="E93" t="n">
-        <v>74900</v>
+        <v>75050</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>10.1321</v>
       </c>
       <c r="G93" t="n">
-        <v>77323.33333333333</v>
+        <v>77366.66666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>74900</v>
+      </c>
+      <c r="C94" t="n">
         <v>75150</v>
-      </c>
-      <c r="C94" t="n">
-        <v>75100</v>
       </c>
       <c r="D94" t="n">
         <v>75150</v>
       </c>
       <c r="E94" t="n">
-        <v>75100</v>
+        <v>74900</v>
       </c>
       <c r="F94" t="n">
-        <v>0.848</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>77279.16666666667</v>
+        <v>77323.33333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>75050</v>
+        <v>75150</v>
       </c>
       <c r="C95" t="n">
-        <v>75050</v>
+        <v>75100</v>
       </c>
       <c r="D95" t="n">
-        <v>75050</v>
+        <v>75150</v>
       </c>
       <c r="E95" t="n">
-        <v>75050</v>
+        <v>75100</v>
       </c>
       <c r="F95" t="n">
-        <v>11.75</v>
+        <v>0.848</v>
       </c>
       <c r="G95" t="n">
-        <v>77232.5</v>
+        <v>77279.16666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>74850</v>
+        <v>75050</v>
       </c>
       <c r="C96" t="n">
-        <v>74800</v>
+        <v>75050</v>
       </c>
       <c r="D96" t="n">
-        <v>74850</v>
+        <v>75050</v>
       </c>
       <c r="E96" t="n">
-        <v>74800</v>
+        <v>75050</v>
       </c>
       <c r="F96" t="n">
         <v>11.75</v>
       </c>
       <c r="G96" t="n">
-        <v>77180.83333333333</v>
+        <v>77232.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,35 +3758,31 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>75050</v>
+        <v>74850</v>
       </c>
       <c r="C97" t="n">
-        <v>75050</v>
+        <v>74800</v>
       </c>
       <c r="D97" t="n">
-        <v>75050</v>
+        <v>74850</v>
       </c>
       <c r="E97" t="n">
-        <v>75050</v>
+        <v>74800</v>
       </c>
       <c r="F97" t="n">
-        <v>1.1105</v>
+        <v>11.75</v>
       </c>
       <c r="G97" t="n">
-        <v>77138.33333333333</v>
+        <v>77180.83333333333</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>74800</v>
-      </c>
-      <c r="K97" t="n">
-        <v>74800</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
@@ -3797,118 +3793,114 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>75050</v>
+      </c>
+      <c r="C98" t="n">
+        <v>75050</v>
+      </c>
+      <c r="D98" t="n">
+        <v>75050</v>
+      </c>
+      <c r="E98" t="n">
+        <v>75050</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.1105</v>
+      </c>
+      <c r="G98" t="n">
+        <v>77138.33333333333</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
         <v>74750</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C99" t="n">
         <v>74750</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D99" t="n">
         <v>74750</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E99" t="n">
         <v>74750</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F99" t="n">
         <v>0.0412</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G99" t="n">
         <v>77085.83333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>74800</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>75050</v>
+      </c>
+      <c r="K99" t="n">
+        <v>75050</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>75100</v>
+      </c>
+      <c r="C100" t="n">
+        <v>75100</v>
+      </c>
+      <c r="D100" t="n">
+        <v>75100</v>
+      </c>
+      <c r="E100" t="n">
+        <v>75100</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.0379</v>
+      </c>
+      <c r="G100" t="n">
+        <v>77045.83333333333</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>74750</v>
+      </c>
+      <c r="K100" t="n">
+        <v>75050</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>75100</v>
-      </c>
-      <c r="C99" t="n">
-        <v>75100</v>
-      </c>
-      <c r="D99" t="n">
-        <v>75100</v>
-      </c>
-      <c r="E99" t="n">
-        <v>75100</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1.0379</v>
-      </c>
-      <c r="G99" t="n">
-        <v>77045.83333333333</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>74800</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>75150</v>
-      </c>
-      <c r="C100" t="n">
-        <v>75150</v>
-      </c>
-      <c r="D100" t="n">
-        <v>75150</v>
-      </c>
-      <c r="E100" t="n">
-        <v>75150</v>
-      </c>
-      <c r="F100" t="n">
-        <v>9.250400000000001</v>
-      </c>
-      <c r="G100" t="n">
-        <v>77007.5</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K100" t="n">
-        <v>75100</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3930,10 +3922,10 @@
         <v>75150</v>
       </c>
       <c r="F101" t="n">
-        <v>3.1047</v>
+        <v>9.250400000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>76978.33333333333</v>
+        <v>77007.5</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -3942,10 +3934,10 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>75150</v>
+        <v>75100</v>
       </c>
       <c r="K101" t="n">
-        <v>75100</v>
+        <v>75050</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -3973,10 +3965,10 @@
         <v>75150</v>
       </c>
       <c r="F102" t="n">
-        <v>4.3827</v>
+        <v>3.1047</v>
       </c>
       <c r="G102" t="n">
-        <v>76948.33333333333</v>
+        <v>76978.33333333333</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -3988,52 +3980,52 @@
         <v>75150</v>
       </c>
       <c r="K102" t="n">
-        <v>75100</v>
-      </c>
-      <c r="L102" t="inlineStr">
+        <v>75150</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>75150</v>
+      </c>
+      <c r="C103" t="n">
+        <v>75150</v>
+      </c>
+      <c r="D103" t="n">
+        <v>75150</v>
+      </c>
+      <c r="E103" t="n">
+        <v>75150</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4.3827</v>
+      </c>
+      <c r="G103" t="n">
+        <v>76948.33333333333</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>75150</v>
+      </c>
+      <c r="K103" t="n">
+        <v>75150</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>75200</v>
-      </c>
-      <c r="C103" t="n">
-        <v>75200</v>
-      </c>
-      <c r="D103" t="n">
-        <v>75200</v>
-      </c>
-      <c r="E103" t="n">
-        <v>75200</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3.7796</v>
-      </c>
-      <c r="G103" t="n">
-        <v>76913.33333333333</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>75150</v>
-      </c>
-      <c r="K103" t="n">
-        <v>75150</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4043,22 +4035,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>75250</v>
+        <v>75200</v>
       </c>
       <c r="C104" t="n">
-        <v>75250</v>
+        <v>75200</v>
       </c>
       <c r="D104" t="n">
-        <v>75250</v>
+        <v>75200</v>
       </c>
       <c r="E104" t="n">
-        <v>75250</v>
+        <v>75200</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9472</v>
+        <v>3.7796</v>
       </c>
       <c r="G104" t="n">
-        <v>76878.33333333333</v>
+        <v>76913.33333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4084,73 +4076,79 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>75250</v>
+      </c>
+      <c r="C105" t="n">
+        <v>75250</v>
+      </c>
+      <c r="D105" t="n">
+        <v>75250</v>
+      </c>
+      <c r="E105" t="n">
+        <v>75250</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9472</v>
+      </c>
+      <c r="G105" t="n">
+        <v>76878.33333333333</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>75200</v>
+      </c>
+      <c r="K105" t="n">
+        <v>75200</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
         <v>75800</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C106" t="n">
         <v>75950</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D106" t="n">
         <v>75950</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E106" t="n">
         <v>75800</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F106" t="n">
         <v>1.7298</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G106" t="n">
         <v>76852.5</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>75150</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>75250</v>
+      </c>
+      <c r="K106" t="n">
+        <v>75200</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>76200</v>
-      </c>
-      <c r="C106" t="n">
-        <v>76200</v>
-      </c>
-      <c r="D106" t="n">
-        <v>76200</v>
-      </c>
-      <c r="E106" t="n">
-        <v>76200</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.058320209973</v>
-      </c>
-      <c r="G106" t="n">
-        <v>76830.83333333333</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4172,20 +4170,28 @@
         <v>76200</v>
       </c>
       <c r="F107" t="n">
-        <v>0.941679790027</v>
+        <v>0.058320209973</v>
       </c>
       <c r="G107" t="n">
-        <v>76804.16666666667</v>
+        <v>76830.83333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>75950</v>
+      </c>
+      <c r="K107" t="n">
+        <v>75200</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4207,10 +4213,10 @@
         <v>76200</v>
       </c>
       <c r="F108" t="n">
-        <v>61</v>
+        <v>0.941679790027</v>
       </c>
       <c r="G108" t="n">
-        <v>76777.5</v>
+        <v>76804.16666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4233,19 +4239,19 @@
         <v>76200</v>
       </c>
       <c r="C109" t="n">
-        <v>76150</v>
+        <v>76200</v>
       </c>
       <c r="D109" t="n">
         <v>76200</v>
       </c>
       <c r="E109" t="n">
-        <v>76150</v>
+        <v>76200</v>
       </c>
       <c r="F109" t="n">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="G109" t="n">
-        <v>76750</v>
+        <v>76777.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4265,22 +4271,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>76650</v>
+        <v>76200</v>
       </c>
       <c r="C110" t="n">
-        <v>76650</v>
+        <v>76150</v>
       </c>
       <c r="D110" t="n">
-        <v>76650</v>
+        <v>76200</v>
       </c>
       <c r="E110" t="n">
-        <v>76650</v>
+        <v>76150</v>
       </c>
       <c r="F110" t="n">
-        <v>17.5493</v>
+        <v>122</v>
       </c>
       <c r="G110" t="n">
-        <v>76731.66666666667</v>
+        <v>76750</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4300,22 +4306,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>76300</v>
+        <v>76650</v>
       </c>
       <c r="C111" t="n">
-        <v>76200</v>
+        <v>76650</v>
       </c>
       <c r="D111" t="n">
-        <v>76300</v>
+        <v>76650</v>
       </c>
       <c r="E111" t="n">
-        <v>76200</v>
+        <v>76650</v>
       </c>
       <c r="F111" t="n">
-        <v>121</v>
+        <v>17.5493</v>
       </c>
       <c r="G111" t="n">
-        <v>76703.33333333333</v>
+        <v>76731.66666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4335,22 +4341,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>76250</v>
+        <v>76300</v>
       </c>
       <c r="C112" t="n">
         <v>76200</v>
       </c>
       <c r="D112" t="n">
-        <v>76250</v>
+        <v>76300</v>
       </c>
       <c r="E112" t="n">
         <v>76200</v>
       </c>
       <c r="F112" t="n">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="G112" t="n">
-        <v>76680</v>
+        <v>76703.33333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4370,22 +4376,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>76150</v>
+        <v>76250</v>
       </c>
       <c r="C113" t="n">
         <v>76200</v>
       </c>
       <c r="D113" t="n">
+        <v>76250</v>
+      </c>
+      <c r="E113" t="n">
         <v>76200</v>
       </c>
-      <c r="E113" t="n">
-        <v>76150</v>
-      </c>
       <c r="F113" t="n">
-        <v>275.1567</v>
+        <v>60</v>
       </c>
       <c r="G113" t="n">
-        <v>76648.33333333333</v>
+        <v>76680</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4405,22 +4411,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>76350</v>
+        <v>76150</v>
       </c>
       <c r="C114" t="n">
-        <v>75700</v>
+        <v>76200</v>
       </c>
       <c r="D114" t="n">
-        <v>76350</v>
+        <v>76200</v>
       </c>
       <c r="E114" t="n">
-        <v>75700</v>
+        <v>76150</v>
       </c>
       <c r="F114" t="n">
-        <v>6</v>
+        <v>275.1567</v>
       </c>
       <c r="G114" t="n">
-        <v>76593.33333333333</v>
+        <v>76648.33333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4440,22 +4446,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>76050</v>
+        <v>76350</v>
       </c>
       <c r="C115" t="n">
-        <v>76000</v>
+        <v>75700</v>
       </c>
       <c r="D115" t="n">
-        <v>76050</v>
+        <v>76350</v>
       </c>
       <c r="E115" t="n">
-        <v>76000</v>
+        <v>75700</v>
       </c>
       <c r="F115" t="n">
-        <v>55.1126</v>
+        <v>6</v>
       </c>
       <c r="G115" t="n">
-        <v>76548.33333333333</v>
+        <v>76593.33333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4475,22 +4481,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>76650</v>
+        <v>76050</v>
       </c>
       <c r="C116" t="n">
-        <v>76650</v>
+        <v>76000</v>
       </c>
       <c r="D116" t="n">
-        <v>76650</v>
+        <v>76050</v>
       </c>
       <c r="E116" t="n">
-        <v>76650</v>
+        <v>76000</v>
       </c>
       <c r="F116" t="n">
-        <v>3.9307</v>
+        <v>55.1126</v>
       </c>
       <c r="G116" t="n">
-        <v>76514.16666666667</v>
+        <v>76548.33333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4522,10 +4528,10 @@
         <v>76650</v>
       </c>
       <c r="F117" t="n">
-        <v>19.7774</v>
+        <v>3.9307</v>
       </c>
       <c r="G117" t="n">
-        <v>76484.16666666667</v>
+        <v>76514.16666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4545,22 +4551,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>76800</v>
+        <v>76650</v>
       </c>
       <c r="C118" t="n">
-        <v>76950</v>
+        <v>76650</v>
       </c>
       <c r="D118" t="n">
-        <v>76950</v>
+        <v>76650</v>
       </c>
       <c r="E118" t="n">
-        <v>76800</v>
+        <v>76650</v>
       </c>
       <c r="F118" t="n">
-        <v>35.4302</v>
+        <v>19.7774</v>
       </c>
       <c r="G118" t="n">
-        <v>76462.5</v>
+        <v>76484.16666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4580,22 +4586,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>77000</v>
+        <v>76800</v>
       </c>
       <c r="C119" t="n">
-        <v>77000</v>
+        <v>76950</v>
       </c>
       <c r="D119" t="n">
-        <v>77000</v>
+        <v>76950</v>
       </c>
       <c r="E119" t="n">
-        <v>77000</v>
+        <v>76800</v>
       </c>
       <c r="F119" t="n">
-        <v>0.013</v>
+        <v>35.4302</v>
       </c>
       <c r="G119" t="n">
-        <v>76441.66666666667</v>
+        <v>76462.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4627,10 +4633,10 @@
         <v>77000</v>
       </c>
       <c r="F120" t="n">
-        <v>6.6026</v>
+        <v>0.013</v>
       </c>
       <c r="G120" t="n">
-        <v>76419.16666666667</v>
+        <v>76441.66666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4662,10 +4668,10 @@
         <v>77000</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0001</v>
+        <v>6.6026</v>
       </c>
       <c r="G121" t="n">
-        <v>76397.5</v>
+        <v>76419.16666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4685,22 +4691,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>77050</v>
+        <v>77000</v>
       </c>
       <c r="C122" t="n">
-        <v>77050</v>
+        <v>77000</v>
       </c>
       <c r="D122" t="n">
-        <v>77050</v>
+        <v>77000</v>
       </c>
       <c r="E122" t="n">
-        <v>77050</v>
+        <v>77000</v>
       </c>
       <c r="F122" t="n">
-        <v>1.3594</v>
+        <v>0.0001</v>
       </c>
       <c r="G122" t="n">
-        <v>76370.83333333333</v>
+        <v>76397.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4732,10 +4738,10 @@
         <v>77050</v>
       </c>
       <c r="F123" t="n">
-        <v>9.2728</v>
+        <v>1.3594</v>
       </c>
       <c r="G123" t="n">
-        <v>76353.33333333333</v>
+        <v>76370.83333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4767,10 +4773,10 @@
         <v>77050</v>
       </c>
       <c r="F124" t="n">
-        <v>3.6881</v>
+        <v>9.2728</v>
       </c>
       <c r="G124" t="n">
-        <v>76335.83333333333</v>
+        <v>76353.33333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4802,10 +4808,10 @@
         <v>77050</v>
       </c>
       <c r="F125" t="n">
-        <v>2.2234</v>
+        <v>3.6881</v>
       </c>
       <c r="G125" t="n">
-        <v>76330</v>
+        <v>76335.83333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4825,22 +4831,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>77000</v>
+        <v>77050</v>
       </c>
       <c r="C126" t="n">
-        <v>77000</v>
+        <v>77050</v>
       </c>
       <c r="D126" t="n">
-        <v>77000</v>
+        <v>77050</v>
       </c>
       <c r="E126" t="n">
-        <v>77000</v>
+        <v>77050</v>
       </c>
       <c r="F126" t="n">
-        <v>1.318</v>
+        <v>2.2234</v>
       </c>
       <c r="G126" t="n">
-        <v>76325</v>
+        <v>76330</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4872,10 +4878,10 @@
         <v>77000</v>
       </c>
       <c r="F127" t="n">
-        <v>15.5983</v>
+        <v>1.318</v>
       </c>
       <c r="G127" t="n">
-        <v>76309.16666666667</v>
+        <v>76325</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4907,10 +4913,10 @@
         <v>77000</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6455</v>
+        <v>15.5983</v>
       </c>
       <c r="G128" t="n">
-        <v>76300</v>
+        <v>76309.16666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4930,22 +4936,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>77100</v>
+        <v>77000</v>
       </c>
       <c r="C129" t="n">
-        <v>77100</v>
+        <v>77000</v>
       </c>
       <c r="D129" t="n">
-        <v>77100</v>
+        <v>77000</v>
       </c>
       <c r="E129" t="n">
-        <v>77100</v>
+        <v>77000</v>
       </c>
       <c r="F129" t="n">
-        <v>39.5493</v>
+        <v>0.6455</v>
       </c>
       <c r="G129" t="n">
-        <v>76290</v>
+        <v>76300</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4965,22 +4971,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>77400</v>
+        <v>77100</v>
       </c>
       <c r="C130" t="n">
-        <v>77400</v>
+        <v>77100</v>
       </c>
       <c r="D130" t="n">
-        <v>77400</v>
+        <v>77100</v>
       </c>
       <c r="E130" t="n">
-        <v>77400</v>
+        <v>77100</v>
       </c>
       <c r="F130" t="n">
-        <v>16.7725</v>
+        <v>39.5493</v>
       </c>
       <c r="G130" t="n">
-        <v>76298.33333333333</v>
+        <v>76290</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5000,22 +5006,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>77100</v>
+        <v>77400</v>
       </c>
       <c r="C131" t="n">
-        <v>77050</v>
+        <v>77400</v>
       </c>
       <c r="D131" t="n">
-        <v>77100</v>
+        <v>77400</v>
       </c>
       <c r="E131" t="n">
-        <v>77050</v>
+        <v>77400</v>
       </c>
       <c r="F131" t="n">
-        <v>11.5707</v>
+        <v>16.7725</v>
       </c>
       <c r="G131" t="n">
-        <v>76305</v>
+        <v>76298.33333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5035,22 +5041,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>77350</v>
+        <v>77100</v>
       </c>
       <c r="C132" t="n">
-        <v>77350</v>
+        <v>77050</v>
       </c>
       <c r="D132" t="n">
-        <v>77350</v>
+        <v>77100</v>
       </c>
       <c r="E132" t="n">
-        <v>77350</v>
+        <v>77050</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9959</v>
+        <v>11.5707</v>
       </c>
       <c r="G132" t="n">
-        <v>76312.5</v>
+        <v>76305</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5070,22 +5076,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>77550</v>
+        <v>77350</v>
       </c>
       <c r="C133" t="n">
-        <v>77700</v>
+        <v>77350</v>
       </c>
       <c r="D133" t="n">
-        <v>77700</v>
+        <v>77350</v>
       </c>
       <c r="E133" t="n">
-        <v>77550</v>
+        <v>77350</v>
       </c>
       <c r="F133" t="n">
-        <v>50.2919</v>
+        <v>0.9959</v>
       </c>
       <c r="G133" t="n">
-        <v>76315.83333333333</v>
+        <v>76312.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5105,22 +5111,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>77900</v>
+        <v>77550</v>
       </c>
       <c r="C134" t="n">
-        <v>77550</v>
+        <v>77700</v>
       </c>
       <c r="D134" t="n">
-        <v>78050</v>
+        <v>77700</v>
       </c>
       <c r="E134" t="n">
         <v>77550</v>
       </c>
       <c r="F134" t="n">
-        <v>62.5821</v>
+        <v>50.2919</v>
       </c>
       <c r="G134" t="n">
-        <v>76317.5</v>
+        <v>76315.83333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5140,22 +5146,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>77650</v>
+        <v>77900</v>
       </c>
       <c r="C135" t="n">
-        <v>77650</v>
+        <v>77550</v>
       </c>
       <c r="D135" t="n">
-        <v>77650</v>
+        <v>78050</v>
       </c>
       <c r="E135" t="n">
-        <v>77650</v>
+        <v>77550</v>
       </c>
       <c r="F135" t="n">
-        <v>49.7995</v>
+        <v>62.5821</v>
       </c>
       <c r="G135" t="n">
-        <v>76321.66666666667</v>
+        <v>76317.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5175,22 +5181,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>78050</v>
+        <v>77650</v>
       </c>
       <c r="C136" t="n">
-        <v>78300</v>
+        <v>77650</v>
       </c>
       <c r="D136" t="n">
-        <v>78300</v>
+        <v>77650</v>
       </c>
       <c r="E136" t="n">
-        <v>78050</v>
+        <v>77650</v>
       </c>
       <c r="F136" t="n">
-        <v>18.5429</v>
+        <v>49.7995</v>
       </c>
       <c r="G136" t="n">
-        <v>76337.5</v>
+        <v>76321.66666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5210,7 +5216,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>78300</v>
+        <v>78050</v>
       </c>
       <c r="C137" t="n">
         <v>78300</v>
@@ -5219,13 +5225,13 @@
         <v>78300</v>
       </c>
       <c r="E137" t="n">
-        <v>78300</v>
+        <v>78050</v>
       </c>
       <c r="F137" t="n">
-        <v>6.7374</v>
+        <v>18.5429</v>
       </c>
       <c r="G137" t="n">
-        <v>76358.33333333333</v>
+        <v>76337.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5245,22 +5251,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>78050</v>
+        <v>78300</v>
       </c>
       <c r="C138" t="n">
-        <v>78050</v>
+        <v>78300</v>
       </c>
       <c r="D138" t="n">
-        <v>78050</v>
+        <v>78300</v>
       </c>
       <c r="E138" t="n">
-        <v>78050</v>
+        <v>78300</v>
       </c>
       <c r="F138" t="n">
-        <v>0.08</v>
+        <v>6.7374</v>
       </c>
       <c r="G138" t="n">
-        <v>76375.83333333333</v>
+        <v>76358.33333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5280,22 +5286,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>77700</v>
+        <v>78050</v>
       </c>
       <c r="C139" t="n">
-        <v>77700</v>
+        <v>78050</v>
       </c>
       <c r="D139" t="n">
-        <v>77700</v>
+        <v>78050</v>
       </c>
       <c r="E139" t="n">
-        <v>77700</v>
+        <v>78050</v>
       </c>
       <c r="F139" t="n">
-        <v>19.2944</v>
+        <v>0.08</v>
       </c>
       <c r="G139" t="n">
-        <v>76388.33333333333</v>
+        <v>76375.83333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5315,22 +5321,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>78000</v>
+        <v>77700</v>
       </c>
       <c r="C140" t="n">
-        <v>78000</v>
+        <v>77700</v>
       </c>
       <c r="D140" t="n">
-        <v>78000</v>
+        <v>77700</v>
       </c>
       <c r="E140" t="n">
-        <v>78000</v>
+        <v>77700</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0128</v>
+        <v>19.2944</v>
       </c>
       <c r="G140" t="n">
-        <v>76400.83333333333</v>
+        <v>76388.33333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5350,28 +5356,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>77600</v>
+        <v>78000</v>
       </c>
       <c r="C141" t="n">
-        <v>77600</v>
+        <v>78000</v>
       </c>
       <c r="D141" t="n">
-        <v>77600</v>
+        <v>78000</v>
       </c>
       <c r="E141" t="n">
-        <v>77600</v>
+        <v>78000</v>
       </c>
       <c r="F141" t="n">
-        <v>12.9453</v>
+        <v>0.0128</v>
       </c>
       <c r="G141" t="n">
-        <v>76414.16666666667</v>
+        <v>76400.83333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5388,19 +5394,19 @@
         <v>77600</v>
       </c>
       <c r="C142" t="n">
-        <v>78000</v>
+        <v>77600</v>
       </c>
       <c r="D142" t="n">
-        <v>78000</v>
+        <v>77600</v>
       </c>
       <c r="E142" t="n">
         <v>77600</v>
       </c>
       <c r="F142" t="n">
-        <v>132.6509</v>
+        <v>12.9453</v>
       </c>
       <c r="G142" t="n">
-        <v>76434.16666666667</v>
+        <v>76414.16666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5420,22 +5426,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>78050</v>
+        <v>77600</v>
       </c>
       <c r="C143" t="n">
-        <v>78400</v>
+        <v>78000</v>
       </c>
       <c r="D143" t="n">
-        <v>78400</v>
+        <v>78000</v>
       </c>
       <c r="E143" t="n">
-        <v>78050</v>
+        <v>77600</v>
       </c>
       <c r="F143" t="n">
-        <v>14.3497</v>
+        <v>132.6509</v>
       </c>
       <c r="G143" t="n">
-        <v>76463.33333333333</v>
+        <v>76434.16666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5455,22 +5461,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>78200</v>
+        <v>78050</v>
       </c>
       <c r="C144" t="n">
-        <v>78200</v>
+        <v>78400</v>
       </c>
       <c r="D144" t="n">
-        <v>78200</v>
+        <v>78400</v>
       </c>
       <c r="E144" t="n">
-        <v>78200</v>
+        <v>78050</v>
       </c>
       <c r="F144" t="n">
-        <v>1.1046</v>
+        <v>14.3497</v>
       </c>
       <c r="G144" t="n">
-        <v>76489.16666666667</v>
+        <v>76463.33333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5490,22 +5496,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>78600</v>
+        <v>78200</v>
       </c>
       <c r="C145" t="n">
-        <v>78600</v>
+        <v>78200</v>
       </c>
       <c r="D145" t="n">
-        <v>78600</v>
+        <v>78200</v>
       </c>
       <c r="E145" t="n">
-        <v>78600</v>
+        <v>78200</v>
       </c>
       <c r="F145" t="n">
-        <v>1.0335</v>
+        <v>1.1046</v>
       </c>
       <c r="G145" t="n">
-        <v>76526.66666666667</v>
+        <v>76489.16666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5537,10 +5543,10 @@
         <v>78600</v>
       </c>
       <c r="F146" t="n">
-        <v>1.3947</v>
+        <v>1.0335</v>
       </c>
       <c r="G146" t="n">
-        <v>76566.66666666667</v>
+        <v>76526.66666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5560,22 +5566,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>78550</v>
+        <v>78600</v>
       </c>
       <c r="C147" t="n">
-        <v>78550</v>
+        <v>78600</v>
       </c>
       <c r="D147" t="n">
-        <v>78550</v>
+        <v>78600</v>
       </c>
       <c r="E147" t="n">
-        <v>78550</v>
+        <v>78600</v>
       </c>
       <c r="F147" t="n">
-        <v>6.4522</v>
+        <v>1.3947</v>
       </c>
       <c r="G147" t="n">
-        <v>76616.66666666667</v>
+        <v>76566.66666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5595,22 +5601,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>78600</v>
+        <v>78550</v>
       </c>
       <c r="C148" t="n">
-        <v>78200</v>
+        <v>78550</v>
       </c>
       <c r="D148" t="n">
-        <v>78600</v>
+        <v>78550</v>
       </c>
       <c r="E148" t="n">
-        <v>78200</v>
+        <v>78550</v>
       </c>
       <c r="F148" t="n">
-        <v>57.5435</v>
+        <v>6.4522</v>
       </c>
       <c r="G148" t="n">
-        <v>76663.33333333333</v>
+        <v>76616.66666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5630,22 +5636,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>78550</v>
+        <v>78600</v>
       </c>
       <c r="C149" t="n">
-        <v>78850</v>
+        <v>78200</v>
       </c>
       <c r="D149" t="n">
-        <v>78850</v>
+        <v>78600</v>
       </c>
       <c r="E149" t="n">
-        <v>78550</v>
+        <v>78200</v>
       </c>
       <c r="F149" t="n">
-        <v>31.048</v>
+        <v>57.5435</v>
       </c>
       <c r="G149" t="n">
-        <v>76713.33333333333</v>
+        <v>76663.33333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5665,22 +5671,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>78950</v>
+        <v>78550</v>
       </c>
       <c r="C150" t="n">
-        <v>78950</v>
+        <v>78850</v>
       </c>
       <c r="D150" t="n">
-        <v>78950</v>
+        <v>78850</v>
       </c>
       <c r="E150" t="n">
-        <v>78950</v>
+        <v>78550</v>
       </c>
       <c r="F150" t="n">
-        <v>2.7462</v>
+        <v>31.048</v>
       </c>
       <c r="G150" t="n">
-        <v>76765</v>
+        <v>76713.33333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5700,22 +5706,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>79050</v>
+        <v>78950</v>
       </c>
       <c r="C151" t="n">
-        <v>79050</v>
+        <v>78950</v>
       </c>
       <c r="D151" t="n">
-        <v>79050</v>
+        <v>78950</v>
       </c>
       <c r="E151" t="n">
-        <v>79050</v>
+        <v>78950</v>
       </c>
       <c r="F151" t="n">
-        <v>0.71</v>
+        <v>2.7462</v>
       </c>
       <c r="G151" t="n">
-        <v>76820</v>
+        <v>76765</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5738,19 +5744,19 @@
         <v>79050</v>
       </c>
       <c r="C152" t="n">
-        <v>79100</v>
+        <v>79050</v>
       </c>
       <c r="D152" t="n">
-        <v>79150</v>
+        <v>79050</v>
       </c>
       <c r="E152" t="n">
         <v>79050</v>
       </c>
       <c r="F152" t="n">
-        <v>44.4186</v>
+        <v>0.71</v>
       </c>
       <c r="G152" t="n">
-        <v>76887.5</v>
+        <v>76820</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5770,22 +5776,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>79100</v>
+        <v>79050</v>
       </c>
       <c r="C153" t="n">
         <v>79100</v>
       </c>
       <c r="D153" t="n">
-        <v>79300</v>
+        <v>79150</v>
       </c>
       <c r="E153" t="n">
-        <v>79100</v>
+        <v>79050</v>
       </c>
       <c r="F153" t="n">
-        <v>118.4998</v>
+        <v>44.4186</v>
       </c>
       <c r="G153" t="n">
-        <v>76953.33333333333</v>
+        <v>76887.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5805,28 +5811,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>79150</v>
+        <v>79100</v>
       </c>
       <c r="C154" t="n">
-        <v>79150</v>
+        <v>79100</v>
       </c>
       <c r="D154" t="n">
-        <v>79200</v>
+        <v>79300</v>
       </c>
       <c r="E154" t="n">
         <v>79100</v>
       </c>
       <c r="F154" t="n">
-        <v>38.0985</v>
+        <v>118.4998</v>
       </c>
       <c r="G154" t="n">
-        <v>77020.83333333333</v>
+        <v>76953.33333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -5840,7 +5846,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>79200</v>
+        <v>79150</v>
       </c>
       <c r="C155" t="n">
         <v>79150</v>
@@ -5849,13 +5855,13 @@
         <v>79200</v>
       </c>
       <c r="E155" t="n">
-        <v>79150</v>
+        <v>79100</v>
       </c>
       <c r="F155" t="n">
-        <v>13.144</v>
+        <v>38.0985</v>
       </c>
       <c r="G155" t="n">
-        <v>77089.16666666667</v>
+        <v>77020.83333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5875,28 +5881,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>79250</v>
+        <v>79200</v>
       </c>
       <c r="C156" t="n">
+        <v>79150</v>
+      </c>
+      <c r="D156" t="n">
         <v>79200</v>
-      </c>
-      <c r="D156" t="n">
-        <v>79250</v>
       </c>
       <c r="E156" t="n">
         <v>79150</v>
       </c>
       <c r="F156" t="n">
-        <v>27.3564</v>
+        <v>13.144</v>
       </c>
       <c r="G156" t="n">
-        <v>77162.5</v>
+        <v>77089.16666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -5910,28 +5916,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>79200</v>
+        <v>79250</v>
       </c>
       <c r="C157" t="n">
         <v>79200</v>
       </c>
       <c r="D157" t="n">
-        <v>79200</v>
+        <v>79250</v>
       </c>
       <c r="E157" t="n">
-        <v>79200</v>
+        <v>79150</v>
       </c>
       <c r="F157" t="n">
-        <v>7.0594</v>
+        <v>27.3564</v>
       </c>
       <c r="G157" t="n">
-        <v>77231.66666666667</v>
+        <v>77162.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -5945,22 +5951,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>79250</v>
+        <v>79200</v>
       </c>
       <c r="C158" t="n">
-        <v>79300</v>
+        <v>79200</v>
       </c>
       <c r="D158" t="n">
-        <v>79300</v>
+        <v>79200</v>
       </c>
       <c r="E158" t="n">
-        <v>79250</v>
+        <v>79200</v>
       </c>
       <c r="F158" t="n">
-        <v>241.992</v>
+        <v>7.0594</v>
       </c>
       <c r="G158" t="n">
-        <v>77307.5</v>
+        <v>77231.66666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5980,28 +5986,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>79250</v>
+      </c>
+      <c r="C159" t="n">
         <v>79300</v>
       </c>
-      <c r="C159" t="n">
-        <v>79400</v>
-      </c>
       <c r="D159" t="n">
-        <v>79400</v>
+        <v>79300</v>
       </c>
       <c r="E159" t="n">
-        <v>79300</v>
+        <v>79250</v>
       </c>
       <c r="F159" t="n">
-        <v>14.3522</v>
+        <v>241.992</v>
       </c>
       <c r="G159" t="n">
-        <v>77379.16666666667</v>
+        <v>77307.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6015,22 +6021,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>79300</v>
+      </c>
+      <c r="C160" t="n">
         <v>79400</v>
       </c>
-      <c r="C160" t="n">
-        <v>79450</v>
-      </c>
       <c r="D160" t="n">
-        <v>79700</v>
+        <v>79400</v>
       </c>
       <c r="E160" t="n">
-        <v>79400</v>
+        <v>79300</v>
       </c>
       <c r="F160" t="n">
-        <v>48.8189</v>
+        <v>14.3522</v>
       </c>
       <c r="G160" t="n">
-        <v>77450.83333333333</v>
+        <v>77379.16666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6053,25 +6059,25 @@
         <v>79400</v>
       </c>
       <c r="C161" t="n">
-        <v>79400</v>
+        <v>79450</v>
       </c>
       <c r="D161" t="n">
-        <v>79400</v>
+        <v>79700</v>
       </c>
       <c r="E161" t="n">
         <v>79400</v>
       </c>
       <c r="F161" t="n">
-        <v>3.4</v>
+        <v>48.8189</v>
       </c>
       <c r="G161" t="n">
-        <v>77521.66666666667</v>
+        <v>77450.83333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6097,16 +6103,16 @@
         <v>79400</v>
       </c>
       <c r="F162" t="n">
-        <v>25.2272</v>
+        <v>3.4</v>
       </c>
       <c r="G162" t="n">
-        <v>77592.5</v>
+        <v>77521.66666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6132,10 +6138,10 @@
         <v>79400</v>
       </c>
       <c r="F163" t="n">
-        <v>24</v>
+        <v>25.2272</v>
       </c>
       <c r="G163" t="n">
-        <v>77662.5</v>
+        <v>77592.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6167,10 +6173,10 @@
         <v>79400</v>
       </c>
       <c r="F164" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G164" t="n">
-        <v>77731.66666666667</v>
+        <v>77662.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6202,10 +6208,10 @@
         <v>79400</v>
       </c>
       <c r="F165" t="n">
-        <v>0.5964</v>
+        <v>30</v>
       </c>
       <c r="G165" t="n">
-        <v>77789.16666666667</v>
+        <v>77731.66666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6237,10 +6243,10 @@
         <v>79400</v>
       </c>
       <c r="F166" t="n">
-        <v>4.8511</v>
+        <v>0.5964</v>
       </c>
       <c r="G166" t="n">
-        <v>77842.5</v>
+        <v>77789.16666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6272,10 +6278,10 @@
         <v>79400</v>
       </c>
       <c r="F167" t="n">
-        <v>3.3829</v>
+        <v>4.8511</v>
       </c>
       <c r="G167" t="n">
-        <v>77895.83333333333</v>
+        <v>77842.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6307,10 +6313,10 @@
         <v>79400</v>
       </c>
       <c r="F168" t="n">
-        <v>1.7759</v>
+        <v>3.3829</v>
       </c>
       <c r="G168" t="n">
-        <v>77949.16666666667</v>
+        <v>77895.83333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6342,10 +6348,10 @@
         <v>79400</v>
       </c>
       <c r="F169" t="n">
-        <v>46.9958</v>
+        <v>1.7759</v>
       </c>
       <c r="G169" t="n">
-        <v>78003.33333333333</v>
+        <v>77949.16666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6365,22 +6371,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>79150</v>
+        <v>79400</v>
       </c>
       <c r="C170" t="n">
-        <v>79100</v>
+        <v>79400</v>
       </c>
       <c r="D170" t="n">
-        <v>79150</v>
+        <v>79400</v>
       </c>
       <c r="E170" t="n">
-        <v>79100</v>
+        <v>79400</v>
       </c>
       <c r="F170" t="n">
-        <v>36.0544</v>
+        <v>46.9958</v>
       </c>
       <c r="G170" t="n">
-        <v>78044.16666666667</v>
+        <v>78003.33333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6400,22 +6406,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>79250</v>
+        <v>79150</v>
       </c>
       <c r="C171" t="n">
-        <v>79250</v>
+        <v>79100</v>
       </c>
       <c r="D171" t="n">
-        <v>79250</v>
+        <v>79150</v>
       </c>
       <c r="E171" t="n">
-        <v>79250</v>
+        <v>79100</v>
       </c>
       <c r="F171" t="n">
-        <v>9.363899999999999</v>
+        <v>36.0544</v>
       </c>
       <c r="G171" t="n">
-        <v>78095</v>
+        <v>78044.16666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6435,22 +6441,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>79650</v>
+        <v>79250</v>
       </c>
       <c r="C172" t="n">
-        <v>79750</v>
+        <v>79250</v>
       </c>
       <c r="D172" t="n">
-        <v>79750</v>
+        <v>79250</v>
       </c>
       <c r="E172" t="n">
-        <v>79650</v>
+        <v>79250</v>
       </c>
       <c r="F172" t="n">
-        <v>1.12</v>
+        <v>9.363899999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>78154.16666666667</v>
+        <v>78095</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6470,22 +6476,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>79650</v>
+      </c>
+      <c r="C173" t="n">
         <v>79750</v>
       </c>
-      <c r="C173" t="n">
-        <v>79800</v>
-      </c>
       <c r="D173" t="n">
-        <v>79800</v>
+        <v>79750</v>
       </c>
       <c r="E173" t="n">
-        <v>79750</v>
+        <v>79650</v>
       </c>
       <c r="F173" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="G173" t="n">
-        <v>78214.16666666667</v>
+        <v>78154.16666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6508,19 +6514,19 @@
         <v>79750</v>
       </c>
       <c r="C174" t="n">
-        <v>79700</v>
+        <v>79800</v>
       </c>
       <c r="D174" t="n">
+        <v>79800</v>
+      </c>
+      <c r="E174" t="n">
         <v>79750</v>
       </c>
-      <c r="E174" t="n">
-        <v>79700</v>
-      </c>
       <c r="F174" t="n">
-        <v>17.6381</v>
+        <v>1.15</v>
       </c>
       <c r="G174" t="n">
-        <v>78280.83333333333</v>
+        <v>78214.16666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6540,22 +6546,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>79700</v>
+        <v>79750</v>
       </c>
       <c r="C175" t="n">
         <v>79700</v>
       </c>
       <c r="D175" t="n">
-        <v>79700</v>
+        <v>79750</v>
       </c>
       <c r="E175" t="n">
         <v>79700</v>
       </c>
       <c r="F175" t="n">
-        <v>2.0001</v>
+        <v>17.6381</v>
       </c>
       <c r="G175" t="n">
-        <v>78342.5</v>
+        <v>78280.83333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6587,10 +6593,10 @@
         <v>79700</v>
       </c>
       <c r="F176" t="n">
-        <v>2.6949</v>
+        <v>2.0001</v>
       </c>
       <c r="G176" t="n">
-        <v>78393.33333333333</v>
+        <v>78342.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6610,22 +6616,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>79750</v>
+        <v>79700</v>
       </c>
       <c r="C177" t="n">
         <v>79700</v>
       </c>
       <c r="D177" t="n">
-        <v>79750</v>
+        <v>79700</v>
       </c>
       <c r="E177" t="n">
         <v>79700</v>
       </c>
       <c r="F177" t="n">
-        <v>20.4664</v>
+        <v>2.6949</v>
       </c>
       <c r="G177" t="n">
-        <v>78444.16666666667</v>
+        <v>78393.33333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6645,22 +6651,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>79700</v>
+        <v>79750</v>
       </c>
       <c r="C178" t="n">
         <v>79700</v>
       </c>
       <c r="D178" t="n">
-        <v>79700</v>
+        <v>79750</v>
       </c>
       <c r="E178" t="n">
         <v>79700</v>
       </c>
       <c r="F178" t="n">
-        <v>12.2242</v>
+        <v>20.4664</v>
       </c>
       <c r="G178" t="n">
-        <v>78490</v>
+        <v>78444.16666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6692,10 +6698,10 @@
         <v>79700</v>
       </c>
       <c r="F179" t="n">
-        <v>13.8668</v>
+        <v>12.2242</v>
       </c>
       <c r="G179" t="n">
-        <v>78535</v>
+        <v>78490</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6727,10 +6733,10 @@
         <v>79700</v>
       </c>
       <c r="F180" t="n">
-        <v>2.4927</v>
+        <v>13.8668</v>
       </c>
       <c r="G180" t="n">
-        <v>78580</v>
+        <v>78535</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6750,22 +6756,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>79800</v>
+        <v>79700</v>
       </c>
       <c r="C181" t="n">
-        <v>79800</v>
+        <v>79700</v>
       </c>
       <c r="D181" t="n">
-        <v>79800</v>
+        <v>79700</v>
       </c>
       <c r="E181" t="n">
-        <v>79800</v>
+        <v>79700</v>
       </c>
       <c r="F181" t="n">
-        <v>1.2011</v>
+        <v>2.4927</v>
       </c>
       <c r="G181" t="n">
-        <v>78626.66666666667</v>
+        <v>78580</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6785,22 +6791,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>79650</v>
+        <v>79800</v>
       </c>
       <c r="C182" t="n">
-        <v>79650</v>
+        <v>79800</v>
       </c>
       <c r="D182" t="n">
-        <v>79650</v>
+        <v>79800</v>
       </c>
       <c r="E182" t="n">
-        <v>79650</v>
+        <v>79800</v>
       </c>
       <c r="F182" t="n">
-        <v>0.4619</v>
+        <v>1.2011</v>
       </c>
       <c r="G182" t="n">
-        <v>78670</v>
+        <v>78626.66666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6820,22 +6826,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>79900</v>
+        <v>79650</v>
       </c>
       <c r="C183" t="n">
-        <v>79800</v>
+        <v>79650</v>
       </c>
       <c r="D183" t="n">
-        <v>79900</v>
+        <v>79650</v>
       </c>
       <c r="E183" t="n">
-        <v>79800</v>
+        <v>79650</v>
       </c>
       <c r="F183" t="n">
-        <v>0.8151</v>
+        <v>0.4619</v>
       </c>
       <c r="G183" t="n">
-        <v>78715.83333333333</v>
+        <v>78670</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6855,22 +6861,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>79900</v>
+      </c>
+      <c r="C184" t="n">
         <v>79800</v>
       </c>
-      <c r="C184" t="n">
-        <v>79950</v>
-      </c>
       <c r="D184" t="n">
-        <v>79950</v>
+        <v>79900</v>
       </c>
       <c r="E184" t="n">
         <v>79800</v>
       </c>
       <c r="F184" t="n">
-        <v>4.0581</v>
+        <v>0.8151</v>
       </c>
       <c r="G184" t="n">
-        <v>78764.16666666667</v>
+        <v>78715.83333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6890,7 +6896,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>79950</v>
+        <v>79800</v>
       </c>
       <c r="C185" t="n">
         <v>79950</v>
@@ -6899,13 +6905,13 @@
         <v>79950</v>
       </c>
       <c r="E185" t="n">
-        <v>79950</v>
+        <v>79800</v>
       </c>
       <c r="F185" t="n">
-        <v>28.0987</v>
+        <v>4.0581</v>
       </c>
       <c r="G185" t="n">
-        <v>78812.5</v>
+        <v>78764.16666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6928,19 +6934,19 @@
         <v>79950</v>
       </c>
       <c r="C186" t="n">
-        <v>79800</v>
+        <v>79950</v>
       </c>
       <c r="D186" t="n">
         <v>79950</v>
       </c>
       <c r="E186" t="n">
-        <v>79800</v>
+        <v>79950</v>
       </c>
       <c r="F186" t="n">
-        <v>30.9364</v>
+        <v>28.0987</v>
       </c>
       <c r="G186" t="n">
-        <v>78859.16666666667</v>
+        <v>78812.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6960,22 +6966,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>80000</v>
+        <v>79950</v>
       </c>
       <c r="C187" t="n">
-        <v>80000</v>
+        <v>79800</v>
       </c>
       <c r="D187" t="n">
-        <v>80000</v>
+        <v>79950</v>
       </c>
       <c r="E187" t="n">
-        <v>80000</v>
+        <v>79800</v>
       </c>
       <c r="F187" t="n">
-        <v>4.5153</v>
+        <v>30.9364</v>
       </c>
       <c r="G187" t="n">
-        <v>78909.16666666667</v>
+        <v>78859.16666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7001,16 +7007,16 @@
         <v>80000</v>
       </c>
       <c r="D188" t="n">
-        <v>80050</v>
+        <v>80000</v>
       </c>
       <c r="E188" t="n">
         <v>80000</v>
       </c>
       <c r="F188" t="n">
-        <v>64.1671</v>
+        <v>4.5153</v>
       </c>
       <c r="G188" t="n">
-        <v>78959.16666666667</v>
+        <v>78909.16666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7036,16 +7042,16 @@
         <v>80000</v>
       </c>
       <c r="D189" t="n">
-        <v>80000</v>
+        <v>80050</v>
       </c>
       <c r="E189" t="n">
         <v>80000</v>
       </c>
       <c r="F189" t="n">
-        <v>0.8908</v>
+        <v>64.1671</v>
       </c>
       <c r="G189" t="n">
-        <v>79007.5</v>
+        <v>78959.16666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7065,22 +7071,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>80250</v>
+        <v>80000</v>
       </c>
       <c r="C190" t="n">
-        <v>80250</v>
+        <v>80000</v>
       </c>
       <c r="D190" t="n">
-        <v>80250</v>
+        <v>80000</v>
       </c>
       <c r="E190" t="n">
-        <v>80250</v>
+        <v>80000</v>
       </c>
       <c r="F190" t="n">
-        <v>49.8604</v>
+        <v>0.8908</v>
       </c>
       <c r="G190" t="n">
-        <v>79055</v>
+        <v>79007.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7103,19 +7109,19 @@
         <v>80250</v>
       </c>
       <c r="C191" t="n">
-        <v>80000</v>
+        <v>80250</v>
       </c>
       <c r="D191" t="n">
         <v>80250</v>
       </c>
       <c r="E191" t="n">
-        <v>80000</v>
+        <v>80250</v>
       </c>
       <c r="F191" t="n">
-        <v>43.33</v>
+        <v>49.8604</v>
       </c>
       <c r="G191" t="n">
-        <v>79104.16666666667</v>
+        <v>79055</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7135,22 +7141,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>80000</v>
+        <v>80250</v>
       </c>
       <c r="C192" t="n">
         <v>80000</v>
       </c>
       <c r="D192" t="n">
-        <v>80000</v>
+        <v>80250</v>
       </c>
       <c r="E192" t="n">
         <v>80000</v>
       </c>
       <c r="F192" t="n">
-        <v>0.08</v>
+        <v>43.33</v>
       </c>
       <c r="G192" t="n">
-        <v>79148.33333333333</v>
+        <v>79104.16666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7173,19 +7179,19 @@
         <v>80000</v>
       </c>
       <c r="C193" t="n">
-        <v>79600</v>
+        <v>80000</v>
       </c>
       <c r="D193" t="n">
         <v>80000</v>
       </c>
       <c r="E193" t="n">
-        <v>79600</v>
+        <v>80000</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="G193" t="n">
-        <v>79180</v>
+        <v>79148.33333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7205,22 +7211,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>80000</v>
+      </c>
+      <c r="C194" t="n">
         <v>79600</v>
       </c>
-      <c r="C194" t="n">
-        <v>79400</v>
-      </c>
       <c r="D194" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E194" t="n">
         <v>79600</v>
       </c>
-      <c r="E194" t="n">
-        <v>79400</v>
-      </c>
       <c r="F194" t="n">
-        <v>0.599</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>79210.83333333333</v>
+        <v>79180</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7240,22 +7246,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>79600</v>
+      </c>
+      <c r="C195" t="n">
         <v>79400</v>
       </c>
-      <c r="C195" t="n">
-        <v>79050</v>
-      </c>
       <c r="D195" t="n">
+        <v>79600</v>
+      </c>
+      <c r="E195" t="n">
         <v>79400</v>
       </c>
-      <c r="E195" t="n">
-        <v>79050</v>
-      </c>
       <c r="F195" t="n">
-        <v>3</v>
+        <v>0.599</v>
       </c>
       <c r="G195" t="n">
-        <v>79234.16666666667</v>
+        <v>79210.83333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7275,22 +7281,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>78950</v>
+        <v>79400</v>
       </c>
       <c r="C196" t="n">
-        <v>78950</v>
+        <v>79050</v>
       </c>
       <c r="D196" t="n">
-        <v>78950</v>
+        <v>79400</v>
       </c>
       <c r="E196" t="n">
-        <v>78950</v>
+        <v>79050</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0127</v>
+        <v>3</v>
       </c>
       <c r="G196" t="n">
-        <v>79245</v>
+        <v>79234.16666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7310,22 +7316,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>78650</v>
+        <v>78950</v>
       </c>
       <c r="C197" t="n">
-        <v>78900</v>
+        <v>78950</v>
       </c>
       <c r="D197" t="n">
-        <v>78900</v>
+        <v>78950</v>
       </c>
       <c r="E197" t="n">
-        <v>78000</v>
+        <v>78950</v>
       </c>
       <c r="F197" t="n">
-        <v>83.371</v>
+        <v>0.0127</v>
       </c>
       <c r="G197" t="n">
-        <v>79255</v>
+        <v>79245</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7345,19 +7351,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>78050</v>
+        <v>78650</v>
       </c>
       <c r="C198" t="n">
-        <v>78050</v>
+        <v>78900</v>
       </c>
       <c r="D198" t="n">
-        <v>78050</v>
+        <v>78900</v>
       </c>
       <c r="E198" t="n">
-        <v>78050</v>
+        <v>78000</v>
       </c>
       <c r="F198" t="n">
-        <v>9.987299999999999</v>
+        <v>83.371</v>
       </c>
       <c r="G198" t="n">
         <v>79255</v>
@@ -7380,22 +7386,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>78500</v>
+        <v>78050</v>
       </c>
       <c r="C199" t="n">
-        <v>78500</v>
+        <v>78050</v>
       </c>
       <c r="D199" t="n">
-        <v>78500</v>
+        <v>78050</v>
       </c>
       <c r="E199" t="n">
-        <v>78500</v>
+        <v>78050</v>
       </c>
       <c r="F199" t="n">
-        <v>0.5</v>
+        <v>9.987299999999999</v>
       </c>
       <c r="G199" t="n">
-        <v>79268.33333333333</v>
+        <v>79255</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7410,6 +7416,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>78500</v>
+      </c>
+      <c r="C200" t="n">
+        <v>78500</v>
+      </c>
+      <c r="D200" t="n">
+        <v>78500</v>
+      </c>
+      <c r="E200" t="n">
+        <v>78500</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G200" t="n">
+        <v>79268.33333333333</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest XMR.xlsx
+++ b/BackTest/2020-01-19 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1.098</v>
       </c>
       <c r="G2" t="n">
+        <v>77476.66666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>78732.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>0.4641</v>
       </c>
       <c r="G3" t="n">
+        <v>77470</v>
+      </c>
+      <c r="H3" t="n">
         <v>78701.66666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>9.7864</v>
       </c>
       <c r="G4" t="n">
+        <v>77456.66666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>78665</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1.3639</v>
       </c>
       <c r="G5" t="n">
+        <v>77436.66666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>78619.16666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>7.6082</v>
       </c>
       <c r="G6" t="n">
+        <v>77426.66666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>78560.83333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1.7465</v>
       </c>
       <c r="G7" t="n">
+        <v>77503.33333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>78533.33333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>21.6776</v>
       </c>
       <c r="G8" t="n">
+        <v>77603.33333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>78481.66666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>0.2716</v>
       </c>
       <c r="G9" t="n">
+        <v>77596.66666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>78437.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>8.185</v>
       </c>
       <c r="G10" t="n">
+        <v>77503.33333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>78387.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>3.4</v>
       </c>
       <c r="G11" t="n">
+        <v>77483.33333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>78358.33333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>14.4793</v>
       </c>
       <c r="G12" t="n">
+        <v>77480</v>
+      </c>
+      <c r="H12" t="n">
         <v>78337.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1.66</v>
       </c>
       <c r="G13" t="n">
+        <v>77483.33333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>78310.83333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1.4029</v>
       </c>
       <c r="G14" t="n">
+        <v>77460</v>
+      </c>
+      <c r="H14" t="n">
         <v>78295</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>6.3789</v>
       </c>
       <c r="G15" t="n">
+        <v>77443.33333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>78285</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1.327</v>
       </c>
       <c r="G16" t="n">
+        <v>77420</v>
+      </c>
+      <c r="H16" t="n">
         <v>78282.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>17.1814</v>
       </c>
       <c r="G17" t="n">
+        <v>77446.66666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>78282.5</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>0.8126</v>
       </c>
       <c r="G18" t="n">
+        <v>77456.66666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>78275.83333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>0.1286</v>
       </c>
       <c r="G19" t="n">
+        <v>77460</v>
+      </c>
+      <c r="H19" t="n">
         <v>78275</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>0.0134</v>
       </c>
       <c r="G20" t="n">
+        <v>77513.33333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>78277.5</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>0.0549</v>
       </c>
       <c r="G21" t="n">
+        <v>77590</v>
+      </c>
+      <c r="H21" t="n">
         <v>78280.83333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>4.9358</v>
       </c>
       <c r="G22" t="n">
+        <v>77580</v>
+      </c>
+      <c r="H22" t="n">
         <v>78270.83333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>0.9989</v>
       </c>
       <c r="G23" t="n">
+        <v>77656.66666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>78243.33333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>0.6002</v>
       </c>
       <c r="G24" t="n">
+        <v>77746.66666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>78216.66666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>0.2701</v>
       </c>
       <c r="G25" t="n">
+        <v>77856.66666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>78193.33333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>0.5132</v>
       </c>
       <c r="G26" t="n">
+        <v>77936.66666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>78172.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>10.1469</v>
       </c>
       <c r="G27" t="n">
+        <v>77986.66666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>78152.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>0.0065</v>
       </c>
       <c r="G28" t="n">
+        <v>78033.33333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>78133.33333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>0.0194</v>
       </c>
       <c r="G29" t="n">
+        <v>78093.33333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>78121.66666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>16.5092</v>
       </c>
       <c r="G30" t="n">
+        <v>78123.33333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>78112.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>41.8155</v>
       </c>
       <c r="G31" t="n">
+        <v>78160</v>
+      </c>
+      <c r="H31" t="n">
         <v>78104.16666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>2</v>
       </c>
       <c r="G32" t="n">
+        <v>78183.33333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>78095.83333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
+        <v>78200</v>
+      </c>
+      <c r="H33" t="n">
         <v>78080.83333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>40.097</v>
       </c>
       <c r="G34" t="n">
+        <v>78186.66666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>78060.83333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>37.9003</v>
       </c>
       <c r="G35" t="n">
+        <v>78160</v>
+      </c>
+      <c r="H35" t="n">
         <v>78035</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>7.545357996146</v>
       </c>
       <c r="G36" t="n">
+        <v>78136.66666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>78007.5</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1.6195</v>
       </c>
       <c r="G37" t="n">
+        <v>78116.66666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>77980</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>0.9833</v>
       </c>
       <c r="G38" t="n">
+        <v>78086.66666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>77950</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>4</v>
       </c>
       <c r="G39" t="n">
+        <v>78073.33333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>77928.33333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>0.7992</v>
       </c>
       <c r="G40" t="n">
+        <v>78036.66666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>77904.16666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>2.2861</v>
       </c>
       <c r="G41" t="n">
+        <v>77993.33333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>77861.66666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>26.468</v>
       </c>
       <c r="G42" t="n">
+        <v>77910</v>
+      </c>
+      <c r="H42" t="n">
         <v>77799.16666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>13.204437830858</v>
       </c>
       <c r="G43" t="n">
+        <v>77826.66666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>77765</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1.336</v>
       </c>
       <c r="G44" t="n">
+        <v>77750</v>
+      </c>
+      <c r="H44" t="n">
         <v>77735.83333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>0.7069</v>
       </c>
       <c r="G45" t="n">
+        <v>77676.66666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>77707.5</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>80.2504</v>
       </c>
       <c r="G46" t="n">
+        <v>77613.33333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>77681.66666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>10.4012</v>
       </c>
       <c r="G47" t="n">
+        <v>77550</v>
+      </c>
+      <c r="H47" t="n">
         <v>77664.16666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>10.1889</v>
       </c>
       <c r="G48" t="n">
+        <v>77533.33333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>77665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>6.4597</v>
       </c>
       <c r="G49" t="n">
+        <v>77536.66666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>77660</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>7.2592</v>
       </c>
       <c r="G50" t="n">
+        <v>77540</v>
+      </c>
+      <c r="H50" t="n">
         <v>77662.5</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1.1849</v>
       </c>
       <c r="G51" t="n">
+        <v>77533.33333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>77671.66666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>0.396</v>
       </c>
       <c r="G52" t="n">
+        <v>77533.33333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>77683.33333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>1.6013</v>
       </c>
       <c r="G53" t="n">
+        <v>77533.33333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>77720</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1.5301</v>
       </c>
       <c r="G54" t="n">
+        <v>77546.66666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>77740.83333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>0.6313621691420001</v>
       </c>
       <c r="G55" t="n">
+        <v>77646.66666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>77760.83333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>0.1</v>
       </c>
       <c r="G56" t="n">
+        <v>77730</v>
+      </c>
+      <c r="H56" t="n">
         <v>77785.83333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1.8205</v>
       </c>
       <c r="G57" t="n">
+        <v>77850</v>
+      </c>
+      <c r="H57" t="n">
         <v>77806.66666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>24</v>
       </c>
       <c r="G58" t="n">
+        <v>77950</v>
+      </c>
+      <c r="H58" t="n">
         <v>77823.33333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>0.2</v>
       </c>
       <c r="G59" t="n">
+        <v>78013.33333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>77829.16666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>39.5029</v>
       </c>
       <c r="G60" t="n">
+        <v>78073.33333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>77829.16666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>167.4728</v>
       </c>
       <c r="G61" t="n">
+        <v>78130</v>
+      </c>
+      <c r="H61" t="n">
         <v>77830.83333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>69.0501</v>
       </c>
       <c r="G62" t="n">
+        <v>78183.33333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>77840.83333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>100.8932</v>
       </c>
       <c r="G63" t="n">
+        <v>78240</v>
+      </c>
+      <c r="H63" t="n">
         <v>77857.5</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>7.7681</v>
       </c>
       <c r="G64" t="n">
+        <v>78260</v>
+      </c>
+      <c r="H64" t="n">
         <v>77860.83333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
+        <v>78280</v>
+      </c>
+      <c r="H65" t="n">
         <v>77873.33333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>56.8505</v>
       </c>
       <c r="G66" t="n">
+        <v>78256.66666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>77879.16666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>1.7465</v>
       </c>
       <c r="G67" t="n">
+        <v>78216.66666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>77861.66666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>0.10974983964</v>
       </c>
       <c r="G68" t="n">
+        <v>78240</v>
+      </c>
+      <c r="H68" t="n">
         <v>77879.16666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>0.025</v>
       </c>
       <c r="G69" t="n">
+        <v>78203.33333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>77892.5</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>0.057194337194</v>
       </c>
       <c r="G70" t="n">
+        <v>78116.66666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>77914.16666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>2.4868</v>
       </c>
       <c r="G71" t="n">
+        <v>77996.66666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>77914.16666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>474.9285</v>
       </c>
       <c r="G72" t="n">
+        <v>77860</v>
+      </c>
+      <c r="H72" t="n">
         <v>77901.66666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>27.3322</v>
       </c>
       <c r="G73" t="n">
+        <v>77756.66666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>77891.66666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1.6946</v>
       </c>
       <c r="G74" t="n">
+        <v>77706.66666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>77890.83333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>0.9772999999999999</v>
       </c>
       <c r="G75" t="n">
+        <v>77653.33333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>77881.66666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>12.73</v>
       </c>
       <c r="G76" t="n">
+        <v>77590</v>
+      </c>
+      <c r="H76" t="n">
         <v>77873.33333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>0.8106</v>
       </c>
       <c r="G77" t="n">
+        <v>77526.66666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>77860.83333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1.0367</v>
       </c>
       <c r="G78" t="n">
+        <v>77420</v>
+      </c>
+      <c r="H78" t="n">
         <v>77848.33333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>7.3072</v>
       </c>
       <c r="G79" t="n">
+        <v>77346.66666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>77832.5</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>7.9266</v>
       </c>
       <c r="G80" t="n">
+        <v>77270</v>
+      </c>
+      <c r="H80" t="n">
         <v>77812.5</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>10.003</v>
       </c>
       <c r="G81" t="n">
+        <v>77260</v>
+      </c>
+      <c r="H81" t="n">
         <v>77796.66666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>5.6</v>
       </c>
       <c r="G82" t="n">
+        <v>77226.66666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>77773.33333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>6.0646</v>
       </c>
       <c r="G83" t="n">
+        <v>77150</v>
+      </c>
+      <c r="H83" t="n">
         <v>77752.5</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>1.3146</v>
       </c>
       <c r="G84" t="n">
+        <v>77090</v>
+      </c>
+      <c r="H84" t="n">
         <v>77728.33333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>0.977</v>
       </c>
       <c r="G85" t="n">
+        <v>77020</v>
+      </c>
+      <c r="H85" t="n">
         <v>77705</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>0.3837</v>
       </c>
       <c r="G86" t="n">
+        <v>76983.33333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>77675.83333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>0.1385</v>
       </c>
       <c r="G87" t="n">
+        <v>76953.33333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>77643.33333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>0.1</v>
       </c>
       <c r="G88" t="n">
+        <v>76863.33333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>77599.16666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>0.4776</v>
       </c>
       <c r="G89" t="n">
+        <v>76723.33333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>77548.33333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>1.257494660514</v>
       </c>
       <c r="G90" t="n">
+        <v>76616.66666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>77505</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>11.6725</v>
       </c>
       <c r="G91" t="n">
+        <v>76513.33333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>77461.66666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>35.9261</v>
       </c>
       <c r="G92" t="n">
+        <v>76406.66666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>77416.66666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>10.1321</v>
       </c>
       <c r="G93" t="n">
+        <v>76273.33333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>77366.66666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,27 @@
         <v>2</v>
       </c>
       <c r="G94" t="n">
+        <v>76150</v>
+      </c>
+      <c r="H94" t="n">
         <v>77323.33333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>75050</v>
+      </c>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3993,27 @@
         <v>0.848</v>
       </c>
       <c r="G95" t="n">
+        <v>76026.66666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>77279.16666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>75150</v>
+      </c>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4037,27 @@
         <v>11.75</v>
       </c>
       <c r="G96" t="n">
+        <v>75880</v>
+      </c>
+      <c r="H96" t="n">
         <v>77232.5</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>75100</v>
+      </c>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4081,27 @@
         <v>11.75</v>
       </c>
       <c r="G97" t="n">
+        <v>75746.66666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>77180.83333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>75050</v>
+      </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4125,27 @@
         <v>1.1105</v>
       </c>
       <c r="G98" t="n">
+        <v>75630</v>
+      </c>
+      <c r="H98" t="n">
         <v>77138.33333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>74800</v>
+      </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,22 +4169,27 @@
         <v>0.0412</v>
       </c>
       <c r="G99" t="n">
+        <v>75503.33333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>77085.83333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>75050</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>75050</v>
       </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3882,26 +4213,27 @@
         <v>1.0379</v>
       </c>
       <c r="G100" t="n">
+        <v>75400</v>
+      </c>
+      <c r="H100" t="n">
         <v>77045.83333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
         <v>74750</v>
       </c>
-      <c r="K100" t="n">
-        <v>75050</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3925,26 +4257,27 @@
         <v>9.250400000000001</v>
       </c>
       <c r="G101" t="n">
+        <v>75320</v>
+      </c>
+      <c r="H101" t="n">
         <v>77007.5</v>
       </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
         <v>75100</v>
       </c>
-      <c r="K101" t="n">
-        <v>75050</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,22 +4301,27 @@
         <v>3.1047</v>
       </c>
       <c r="G102" t="n">
+        <v>75250</v>
+      </c>
+      <c r="H102" t="n">
         <v>76978.33333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>75150</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>75150</v>
       </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4007,26 +4345,27 @@
         <v>4.3827</v>
       </c>
       <c r="G103" t="n">
+        <v>75223.33333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>76948.33333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>75150</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
         <v>75150</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,24 +4389,27 @@
         <v>3.7796</v>
       </c>
       <c r="G104" t="n">
+        <v>75210</v>
+      </c>
+      <c r="H104" t="n">
         <v>76913.33333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="n">
         <v>75150</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,22 +4433,27 @@
         <v>0.9472</v>
       </c>
       <c r="G105" t="n">
+        <v>75170</v>
+      </c>
+      <c r="H105" t="n">
         <v>76878.33333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>75200</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
         <v>75200</v>
       </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,26 +4477,25 @@
         <v>1.7298</v>
       </c>
       <c r="G106" t="n">
+        <v>75176.66666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>76852.5</v>
       </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>75250</v>
-      </c>
-      <c r="K106" t="n">
-        <v>75200</v>
-      </c>
-      <c r="L106" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4173,26 +4519,25 @@
         <v>0.058320209973</v>
       </c>
       <c r="G107" t="n">
+        <v>75206.66666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>76830.83333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>75950</v>
-      </c>
-      <c r="K107" t="n">
-        <v>75200</v>
-      </c>
-      <c r="L107" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,18 +4561,25 @@
         <v>0.941679790027</v>
       </c>
       <c r="G108" t="n">
+        <v>75283.33333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>76804.16666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4251,18 +4603,25 @@
         <v>61</v>
       </c>
       <c r="G109" t="n">
+        <v>75353.33333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>76777.5</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,18 +4645,25 @@
         <v>122</v>
       </c>
       <c r="G110" t="n">
+        <v>75423.33333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>76750</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,18 +4687,25 @@
         <v>17.5493</v>
       </c>
       <c r="G111" t="n">
+        <v>75530</v>
+      </c>
+      <c r="H111" t="n">
         <v>76731.66666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,18 +4729,25 @@
         <v>121</v>
       </c>
       <c r="G112" t="n">
+        <v>75623.33333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>76703.33333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4391,18 +4771,25 @@
         <v>60</v>
       </c>
       <c r="G113" t="n">
+        <v>75700</v>
+      </c>
+      <c r="H113" t="n">
         <v>76680</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,18 +4813,25 @@
         <v>275.1567</v>
       </c>
       <c r="G114" t="n">
+        <v>75796.66666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>76648.33333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4461,18 +4855,25 @@
         <v>6</v>
       </c>
       <c r="G115" t="n">
+        <v>75836.66666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>76593.33333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,18 +4897,25 @@
         <v>55.1126</v>
       </c>
       <c r="G116" t="n">
+        <v>75893.33333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>76548.33333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4531,18 +4939,25 @@
         <v>3.9307</v>
       </c>
       <c r="G117" t="n">
+        <v>75993.33333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>76514.16666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4566,18 +4981,25 @@
         <v>19.7774</v>
       </c>
       <c r="G118" t="n">
+        <v>76093.33333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>76484.16666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4601,18 +5023,25 @@
         <v>35.4302</v>
       </c>
       <c r="G119" t="n">
+        <v>76210</v>
+      </c>
+      <c r="H119" t="n">
         <v>76462.5</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,18 +5065,25 @@
         <v>0.013</v>
       </c>
       <c r="G120" t="n">
+        <v>76326.66666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>76441.66666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4671,18 +5107,25 @@
         <v>6.6026</v>
       </c>
       <c r="G121" t="n">
+        <v>76396.66666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>76419.16666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,18 +5149,25 @@
         <v>0.0001</v>
       </c>
       <c r="G122" t="n">
+        <v>76450</v>
+      </c>
+      <c r="H122" t="n">
         <v>76397.5</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4741,18 +5191,25 @@
         <v>1.3594</v>
       </c>
       <c r="G123" t="n">
+        <v>76506.66666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>76370.83333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4776,18 +5233,25 @@
         <v>9.2728</v>
       </c>
       <c r="G124" t="n">
+        <v>76563.33333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>76353.33333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4811,18 +5275,25 @@
         <v>3.6881</v>
       </c>
       <c r="G125" t="n">
+        <v>76623.33333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>76335.83333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,18 +5317,25 @@
         <v>2.2234</v>
       </c>
       <c r="G126" t="n">
+        <v>76650</v>
+      </c>
+      <c r="H126" t="n">
         <v>76330</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4881,18 +5359,25 @@
         <v>1.318</v>
       </c>
       <c r="G127" t="n">
+        <v>76703.33333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>76325</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4916,18 +5401,25 @@
         <v>15.5983</v>
       </c>
       <c r="G128" t="n">
+        <v>76756.66666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>76309.16666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4951,18 +5443,25 @@
         <v>0.6455</v>
       </c>
       <c r="G129" t="n">
+        <v>76810</v>
+      </c>
+      <c r="H129" t="n">
         <v>76300</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4986,18 +5485,25 @@
         <v>39.5493</v>
       </c>
       <c r="G130" t="n">
+        <v>76903.33333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>76290</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5021,18 +5527,25 @@
         <v>16.7725</v>
       </c>
       <c r="G131" t="n">
+        <v>76996.66666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>76298.33333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5056,18 +5569,25 @@
         <v>11.5707</v>
       </c>
       <c r="G132" t="n">
+        <v>77023.33333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>76305</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5091,18 +5611,25 @@
         <v>0.9959</v>
       </c>
       <c r="G133" t="n">
+        <v>77070</v>
+      </c>
+      <c r="H133" t="n">
         <v>76312.5</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,18 +5653,25 @@
         <v>50.2919</v>
       </c>
       <c r="G134" t="n">
+        <v>77120</v>
+      </c>
+      <c r="H134" t="n">
         <v>76315.83333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5161,18 +5695,25 @@
         <v>62.5821</v>
       </c>
       <c r="G135" t="n">
+        <v>77156.66666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>76317.5</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5196,18 +5737,25 @@
         <v>49.7995</v>
       </c>
       <c r="G136" t="n">
+        <v>77200</v>
+      </c>
+      <c r="H136" t="n">
         <v>76321.66666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5231,18 +5779,25 @@
         <v>18.5429</v>
       </c>
       <c r="G137" t="n">
+        <v>77286.66666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>76337.5</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5266,18 +5821,25 @@
         <v>6.7374</v>
       </c>
       <c r="G138" t="n">
+        <v>77370</v>
+      </c>
+      <c r="H138" t="n">
         <v>76358.33333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5301,18 +5863,25 @@
         <v>0.08</v>
       </c>
       <c r="G139" t="n">
+        <v>77436.66666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>76375.83333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5336,18 +5905,25 @@
         <v>19.2944</v>
       </c>
       <c r="G140" t="n">
+        <v>77480</v>
+      </c>
+      <c r="H140" t="n">
         <v>76388.33333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5371,18 +5947,25 @@
         <v>0.0128</v>
       </c>
       <c r="G141" t="n">
+        <v>77543.33333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>76400.83333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5406,18 +5989,25 @@
         <v>12.9453</v>
       </c>
       <c r="G142" t="n">
+        <v>77583.33333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>76414.16666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5441,18 +6031,25 @@
         <v>132.6509</v>
       </c>
       <c r="G143" t="n">
+        <v>77650</v>
+      </c>
+      <c r="H143" t="n">
         <v>76434.16666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5476,18 +6073,25 @@
         <v>14.3497</v>
       </c>
       <c r="G144" t="n">
+        <v>77743.33333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>76463.33333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5511,18 +6115,25 @@
         <v>1.1046</v>
       </c>
       <c r="G145" t="n">
+        <v>77816.66666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>76489.16666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5546,18 +6157,25 @@
         <v>1.0335</v>
       </c>
       <c r="G146" t="n">
+        <v>77896.66666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>76526.66666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5581,18 +6199,25 @@
         <v>1.3947</v>
       </c>
       <c r="G147" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H147" t="n">
         <v>76566.66666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5616,18 +6241,25 @@
         <v>6.4522</v>
       </c>
       <c r="G148" t="n">
+        <v>78080</v>
+      </c>
+      <c r="H148" t="n">
         <v>76616.66666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5651,18 +6283,25 @@
         <v>57.5435</v>
       </c>
       <c r="G149" t="n">
+        <v>78113.33333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>76663.33333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5686,18 +6325,25 @@
         <v>31.048</v>
       </c>
       <c r="G150" t="n">
+        <v>78200</v>
+      </c>
+      <c r="H150" t="n">
         <v>76713.33333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5721,18 +6367,25 @@
         <v>2.7462</v>
       </c>
       <c r="G151" t="n">
+        <v>78286.66666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>76765</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5756,18 +6409,25 @@
         <v>0.71</v>
       </c>
       <c r="G152" t="n">
+        <v>78336.66666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>76820</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5791,18 +6451,25 @@
         <v>44.4186</v>
       </c>
       <c r="G153" t="n">
+        <v>78390</v>
+      </c>
+      <c r="H153" t="n">
         <v>76887.5</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5826,18 +6493,25 @@
         <v>118.4998</v>
       </c>
       <c r="G154" t="n">
+        <v>78460</v>
+      </c>
+      <c r="H154" t="n">
         <v>76953.33333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5861,18 +6535,25 @@
         <v>38.0985</v>
       </c>
       <c r="G155" t="n">
+        <v>78556.66666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>77020.83333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5896,18 +6577,25 @@
         <v>13.144</v>
       </c>
       <c r="G156" t="n">
+        <v>78633.33333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>77089.16666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5931,18 +6619,25 @@
         <v>27.3564</v>
       </c>
       <c r="G157" t="n">
+        <v>78740</v>
+      </c>
+      <c r="H157" t="n">
         <v>77162.5</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5966,18 +6661,25 @@
         <v>7.0594</v>
       </c>
       <c r="G158" t="n">
+        <v>78820</v>
+      </c>
+      <c r="H158" t="n">
         <v>77231.66666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6001,18 +6703,25 @@
         <v>241.992</v>
       </c>
       <c r="G159" t="n">
+        <v>78880</v>
+      </c>
+      <c r="H159" t="n">
         <v>77307.5</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6036,18 +6745,25 @@
         <v>14.3522</v>
       </c>
       <c r="G160" t="n">
+        <v>78960</v>
+      </c>
+      <c r="H160" t="n">
         <v>77379.16666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6071,18 +6787,25 @@
         <v>48.8189</v>
       </c>
       <c r="G161" t="n">
+        <v>79016.66666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>77450.83333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,20 +6829,25 @@
         <v>3.4</v>
       </c>
       <c r="G162" t="n">
+        <v>79070</v>
+      </c>
+      <c r="H162" t="n">
         <v>77521.66666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6141,18 +6869,21 @@
         <v>25.2272</v>
       </c>
       <c r="G163" t="n">
+        <v>79126.66666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>77592.5</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,18 +6907,21 @@
         <v>24</v>
       </c>
       <c r="G164" t="n">
+        <v>79206.66666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>77662.5</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,18 +6945,21 @@
         <v>30</v>
       </c>
       <c r="G165" t="n">
+        <v>79243.33333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>77731.66666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6246,18 +6983,21 @@
         <v>0.5964</v>
       </c>
       <c r="G166" t="n">
+        <v>79273.33333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>77789.16666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6281,18 +7021,21 @@
         <v>4.8511</v>
       </c>
       <c r="G167" t="n">
+        <v>79296.66666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>77842.5</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6316,18 +7059,21 @@
         <v>3.3829</v>
       </c>
       <c r="G168" t="n">
+        <v>79316.66666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>77895.83333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6351,18 +7097,21 @@
         <v>1.7759</v>
       </c>
       <c r="G169" t="n">
+        <v>79336.66666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>77949.16666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6386,18 +7135,21 @@
         <v>46.9958</v>
       </c>
       <c r="G170" t="n">
+        <v>79353.33333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>78003.33333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6421,18 +7173,21 @@
         <v>36.0544</v>
       </c>
       <c r="G171" t="n">
+        <v>79350</v>
+      </c>
+      <c r="H171" t="n">
         <v>78044.16666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6456,18 +7211,21 @@
         <v>9.363899999999999</v>
       </c>
       <c r="G172" t="n">
+        <v>79353.33333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>78095</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6491,18 +7249,21 @@
         <v>1.12</v>
       </c>
       <c r="G173" t="n">
+        <v>79390</v>
+      </c>
+      <c r="H173" t="n">
         <v>78154.16666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6526,18 +7287,21 @@
         <v>1.15</v>
       </c>
       <c r="G174" t="n">
+        <v>79423.33333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>78214.16666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6561,18 +7325,21 @@
         <v>17.6381</v>
       </c>
       <c r="G175" t="n">
+        <v>79443.33333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>78280.83333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6596,18 +7363,21 @@
         <v>2.0001</v>
       </c>
       <c r="G176" t="n">
+        <v>79460</v>
+      </c>
+      <c r="H176" t="n">
         <v>78342.5</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6631,18 +7401,21 @@
         <v>2.6949</v>
       </c>
       <c r="G177" t="n">
+        <v>79480</v>
+      </c>
+      <c r="H177" t="n">
         <v>78393.33333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6666,18 +7439,21 @@
         <v>20.4664</v>
       </c>
       <c r="G178" t="n">
+        <v>79500</v>
+      </c>
+      <c r="H178" t="n">
         <v>78444.16666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6701,18 +7477,21 @@
         <v>12.2242</v>
       </c>
       <c r="G179" t="n">
+        <v>79520</v>
+      </c>
+      <c r="H179" t="n">
         <v>78490</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6736,18 +7515,21 @@
         <v>13.8668</v>
       </c>
       <c r="G180" t="n">
+        <v>79540</v>
+      </c>
+      <c r="H180" t="n">
         <v>78535</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6771,18 +7553,21 @@
         <v>2.4927</v>
       </c>
       <c r="G181" t="n">
+        <v>79560</v>
+      </c>
+      <c r="H181" t="n">
         <v>78580</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6806,18 +7591,21 @@
         <v>1.2011</v>
       </c>
       <c r="G182" t="n">
+        <v>79586.66666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>78626.66666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6841,18 +7629,21 @@
         <v>0.4619</v>
       </c>
       <c r="G183" t="n">
+        <v>79603.33333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>78670</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6876,18 +7667,21 @@
         <v>0.8151</v>
       </c>
       <c r="G184" t="n">
+        <v>79630</v>
+      </c>
+      <c r="H184" t="n">
         <v>78715.83333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6911,18 +7705,21 @@
         <v>4.0581</v>
       </c>
       <c r="G185" t="n">
+        <v>79666.66666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>78764.16666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6946,18 +7743,21 @@
         <v>28.0987</v>
       </c>
       <c r="G186" t="n">
+        <v>79723.33333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>78812.5</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6981,18 +7781,21 @@
         <v>30.9364</v>
       </c>
       <c r="G187" t="n">
+        <v>79760</v>
+      </c>
+      <c r="H187" t="n">
         <v>78859.16666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7016,18 +7819,21 @@
         <v>4.5153</v>
       </c>
       <c r="G188" t="n">
+        <v>79776.66666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>78909.16666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7051,18 +7857,21 @@
         <v>64.1671</v>
       </c>
       <c r="G189" t="n">
+        <v>79790</v>
+      </c>
+      <c r="H189" t="n">
         <v>78959.16666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7086,18 +7895,21 @@
         <v>0.8908</v>
       </c>
       <c r="G190" t="n">
+        <v>79810</v>
+      </c>
+      <c r="H190" t="n">
         <v>79007.5</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7121,18 +7933,21 @@
         <v>49.8604</v>
       </c>
       <c r="G191" t="n">
+        <v>79846.66666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>79055</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7156,18 +7971,21 @@
         <v>43.33</v>
       </c>
       <c r="G192" t="n">
+        <v>79866.66666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>79104.16666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7191,18 +8009,21 @@
         <v>0.08</v>
       </c>
       <c r="G193" t="n">
+        <v>79886.66666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>79148.33333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7226,18 +8047,21 @@
         <v>1</v>
       </c>
       <c r="G194" t="n">
+        <v>79880</v>
+      </c>
+      <c r="H194" t="n">
         <v>79180</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7261,18 +8085,21 @@
         <v>0.599</v>
       </c>
       <c r="G195" t="n">
+        <v>79860</v>
+      </c>
+      <c r="H195" t="n">
         <v>79210.83333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7296,18 +8123,21 @@
         <v>3</v>
       </c>
       <c r="G196" t="n">
+        <v>79816.66666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>79234.16666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7331,18 +8161,21 @@
         <v>0.0127</v>
       </c>
       <c r="G197" t="n">
+        <v>79760</v>
+      </c>
+      <c r="H197" t="n">
         <v>79245</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7366,18 +8199,21 @@
         <v>83.371</v>
       </c>
       <c r="G198" t="n">
+        <v>79710</v>
+      </c>
+      <c r="H198" t="n">
         <v>79255</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7401,18 +8237,21 @@
         <v>9.987299999999999</v>
       </c>
       <c r="G199" t="n">
+        <v>79593.33333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>79255</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7436,18 +8275,401 @@
         <v>0.5</v>
       </c>
       <c r="G200" t="n">
+        <v>79496.66666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>79268.33333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>78050</v>
+      </c>
+      <c r="C201" t="n">
+        <v>78050</v>
+      </c>
+      <c r="D201" t="n">
+        <v>78050</v>
+      </c>
+      <c r="E201" t="n">
+        <v>78000</v>
+      </c>
+      <c r="F201" t="n">
+        <v>31.9058</v>
+      </c>
+      <c r="G201" t="n">
+        <v>79370</v>
+      </c>
+      <c r="H201" t="n">
+        <v>79269.16666666667</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>77900</v>
+      </c>
+      <c r="C202" t="n">
+        <v>77900</v>
+      </c>
+      <c r="D202" t="n">
+        <v>77900</v>
+      </c>
+      <c r="E202" t="n">
+        <v>77900</v>
+      </c>
+      <c r="F202" t="n">
+        <v>33.0246</v>
+      </c>
+      <c r="G202" t="n">
+        <v>79243.33333333333</v>
+      </c>
+      <c r="H202" t="n">
+        <v>79274.16666666667</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>78050</v>
+      </c>
+      <c r="C203" t="n">
+        <v>77700</v>
+      </c>
+      <c r="D203" t="n">
+        <v>78050</v>
+      </c>
+      <c r="E203" t="n">
+        <v>77700</v>
+      </c>
+      <c r="F203" t="n">
+        <v>48.6731</v>
+      </c>
+      <c r="G203" t="n">
+        <v>79090</v>
+      </c>
+      <c r="H203" t="n">
+        <v>79269.16666666667</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>77850</v>
+      </c>
+      <c r="C204" t="n">
+        <v>77850</v>
+      </c>
+      <c r="D204" t="n">
+        <v>77850</v>
+      </c>
+      <c r="E204" t="n">
+        <v>77850</v>
+      </c>
+      <c r="F204" t="n">
+        <v>22.7152</v>
+      </c>
+      <c r="G204" t="n">
+        <v>78946.66666666667</v>
+      </c>
+      <c r="H204" t="n">
+        <v>79260</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>77650</v>
+      </c>
+      <c r="C205" t="n">
+        <v>77650</v>
+      </c>
+      <c r="D205" t="n">
+        <v>77650</v>
+      </c>
+      <c r="E205" t="n">
+        <v>77650</v>
+      </c>
+      <c r="F205" t="n">
+        <v>16.7725</v>
+      </c>
+      <c r="G205" t="n">
+        <v>78790</v>
+      </c>
+      <c r="H205" t="n">
+        <v>79250.83333333333</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>78350</v>
+      </c>
+      <c r="C206" t="n">
+        <v>78350</v>
+      </c>
+      <c r="D206" t="n">
+        <v>78350</v>
+      </c>
+      <c r="E206" t="n">
+        <v>78350</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="G206" t="n">
+        <v>78663.33333333333</v>
+      </c>
+      <c r="H206" t="n">
+        <v>79246.66666666667</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>78500</v>
+      </c>
+      <c r="C207" t="n">
+        <v>78500</v>
+      </c>
+      <c r="D207" t="n">
+        <v>78500</v>
+      </c>
+      <c r="E207" t="n">
+        <v>78500</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.4444</v>
+      </c>
+      <c r="G207" t="n">
+        <v>78563.33333333333</v>
+      </c>
+      <c r="H207" t="n">
+        <v>79245</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>78650</v>
+      </c>
+      <c r="C208" t="n">
+        <v>78650</v>
+      </c>
+      <c r="D208" t="n">
+        <v>78650</v>
+      </c>
+      <c r="E208" t="n">
+        <v>78650</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.4959</v>
+      </c>
+      <c r="G208" t="n">
+        <v>78473.33333333333</v>
+      </c>
+      <c r="H208" t="n">
+        <v>79246.66666666667</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>78700</v>
+      </c>
+      <c r="C209" t="n">
+        <v>78700</v>
+      </c>
+      <c r="D209" t="n">
+        <v>78700</v>
+      </c>
+      <c r="E209" t="n">
+        <v>78700</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.4177</v>
+      </c>
+      <c r="G209" t="n">
+        <v>78413.33333333333</v>
+      </c>
+      <c r="H209" t="n">
+        <v>79255</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>78650</v>
+      </c>
+      <c r="C210" t="n">
+        <v>78650</v>
+      </c>
+      <c r="D210" t="n">
+        <v>78650</v>
+      </c>
+      <c r="E210" t="n">
+        <v>78650</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.5011</v>
+      </c>
+      <c r="G210" t="n">
+        <v>78363.33333333333</v>
+      </c>
+      <c r="H210" t="n">
+        <v>79251.66666666667</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest XMR.xlsx
+++ b/BackTest/2020-01-19 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N268"/>
+  <dimension ref="A1:M268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>557.7896179157387</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>557.7896179157387</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>603.4767179157387</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>475.7985179157387</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>475.7985179157387</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>445.7485179157387</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>428.9525179157388</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>428.9654179157388</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>3.922717915738758</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,22 +5236,15 @@
         <v>-511.9526799112815</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>75550</v>
-      </c>
-      <c r="K147" t="n">
-        <v>75550</v>
-      </c>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5716,26 +5269,15 @@
         <v>-510.6951852507675</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>75400</v>
-      </c>
-      <c r="K148" t="n">
-        <v>75550</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5760,26 +5302,15 @@
         <v>-510.6951852507675</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>75850</v>
-      </c>
-      <c r="K149" t="n">
-        <v>75550</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5804,22 +5335,15 @@
         <v>-546.6212852507674</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>75850</v>
-      </c>
-      <c r="K150" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5844,2658 +5368,2359 @@
         <v>-556.7533852507675</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>75750</v>
-      </c>
-      <c r="K151" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L151" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>74900</v>
+      </c>
+      <c r="C152" t="n">
+        <v>75150</v>
+      </c>
+      <c r="D152" t="n">
+        <v>75150</v>
+      </c>
+      <c r="E152" t="n">
+        <v>74900</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-554.7533852507675</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>75150</v>
+      </c>
+      <c r="C153" t="n">
+        <v>75100</v>
+      </c>
+      <c r="D153" t="n">
+        <v>75150</v>
+      </c>
+      <c r="E153" t="n">
+        <v>75100</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-555.6013852507674</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" t="n">
+        <v>75150</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>74900</v>
-      </c>
-      <c r="C152" t="n">
-        <v>75150</v>
-      </c>
-      <c r="D152" t="n">
-        <v>75150</v>
-      </c>
-      <c r="E152" t="n">
-        <v>74900</v>
-      </c>
-      <c r="F152" t="n">
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>75050</v>
+      </c>
+      <c r="C154" t="n">
+        <v>75050</v>
+      </c>
+      <c r="D154" t="n">
+        <v>75050</v>
+      </c>
+      <c r="E154" t="n">
+        <v>75050</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-567.3513852507674</v>
+      </c>
+      <c r="H154" t="n">
         <v>2</v>
       </c>
-      <c r="G152" t="n">
-        <v>-554.7533852507675</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>75050</v>
-      </c>
-      <c r="K152" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="I154" t="n">
+        <v>75100</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>75150</v>
-      </c>
-      <c r="C153" t="n">
-        <v>75100</v>
-      </c>
-      <c r="D153" t="n">
-        <v>75150</v>
-      </c>
-      <c r="E153" t="n">
-        <v>75100</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.848</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-555.6013852507674</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>75150</v>
-      </c>
-      <c r="K153" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>74850</v>
+      </c>
+      <c r="C155" t="n">
+        <v>74800</v>
+      </c>
+      <c r="D155" t="n">
+        <v>74850</v>
+      </c>
+      <c r="E155" t="n">
+        <v>74800</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-579.1013852507674</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>75050</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C156" t="n">
         <v>75050</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D156" t="n">
         <v>75050</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E156" t="n">
         <v>75050</v>
       </c>
-      <c r="F154" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-567.3513852507674</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K154" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="F156" t="n">
+        <v>1.1105</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-577.9908852507674</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>74850</v>
-      </c>
-      <c r="C155" t="n">
-        <v>74800</v>
-      </c>
-      <c r="D155" t="n">
-        <v>74850</v>
-      </c>
-      <c r="E155" t="n">
-        <v>74800</v>
-      </c>
-      <c r="F155" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-579.1013852507674</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>75050</v>
-      </c>
-      <c r="K155" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>74750</v>
+      </c>
+      <c r="C157" t="n">
+        <v>74750</v>
+      </c>
+      <c r="D157" t="n">
+        <v>74750</v>
+      </c>
+      <c r="E157" t="n">
+        <v>74750</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-578.0320852507674</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>75050</v>
-      </c>
-      <c r="C156" t="n">
-        <v>75050</v>
-      </c>
-      <c r="D156" t="n">
-        <v>75050</v>
-      </c>
-      <c r="E156" t="n">
-        <v>75050</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1.1105</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-577.9908852507674</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>74800</v>
-      </c>
-      <c r="K156" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>75100</v>
+      </c>
+      <c r="C158" t="n">
+        <v>75100</v>
+      </c>
+      <c r="D158" t="n">
+        <v>75100</v>
+      </c>
+      <c r="E158" t="n">
+        <v>75100</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.0379</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-576.9941852507674</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>74750</v>
-      </c>
-      <c r="C157" t="n">
-        <v>74750</v>
-      </c>
-      <c r="D157" t="n">
-        <v>74750</v>
-      </c>
-      <c r="E157" t="n">
-        <v>74750</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.0412</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-578.0320852507674</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>75050</v>
-      </c>
-      <c r="K157" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>75150</v>
+      </c>
+      <c r="C159" t="n">
+        <v>75150</v>
+      </c>
+      <c r="D159" t="n">
+        <v>75150</v>
+      </c>
+      <c r="E159" t="n">
+        <v>75150</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9.250400000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-567.7437852507674</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>75100</v>
-      </c>
-      <c r="C158" t="n">
-        <v>75100</v>
-      </c>
-      <c r="D158" t="n">
-        <v>75100</v>
-      </c>
-      <c r="E158" t="n">
-        <v>75100</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1.0379</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-576.9941852507674</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>74750</v>
-      </c>
-      <c r="K158" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>75150</v>
+      </c>
+      <c r="C160" t="n">
+        <v>75150</v>
+      </c>
+      <c r="D160" t="n">
+        <v>75150</v>
+      </c>
+      <c r="E160" t="n">
+        <v>75150</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3.1047</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-567.7437852507674</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>75150</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C161" t="n">
         <v>75150</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D161" t="n">
         <v>75150</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E161" t="n">
         <v>75150</v>
       </c>
-      <c r="F159" t="n">
-        <v>9.250400000000001</v>
-      </c>
-      <c r="G159" t="n">
+      <c r="F161" t="n">
+        <v>4.3827</v>
+      </c>
+      <c r="G161" t="n">
         <v>-567.7437852507674</v>
       </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K159" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>75150</v>
-      </c>
-      <c r="C160" t="n">
-        <v>75150</v>
-      </c>
-      <c r="D160" t="n">
-        <v>75150</v>
-      </c>
-      <c r="E160" t="n">
-        <v>75150</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3.1047</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-567.7437852507674</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>75150</v>
-      </c>
-      <c r="K160" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>75200</v>
+      </c>
+      <c r="C162" t="n">
+        <v>75200</v>
+      </c>
+      <c r="D162" t="n">
+        <v>75200</v>
+      </c>
+      <c r="E162" t="n">
+        <v>75200</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3.7796</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-563.9641852507674</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>75150</v>
-      </c>
-      <c r="C161" t="n">
-        <v>75150</v>
-      </c>
-      <c r="D161" t="n">
-        <v>75150</v>
-      </c>
-      <c r="E161" t="n">
-        <v>75150</v>
-      </c>
-      <c r="F161" t="n">
-        <v>4.3827</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-567.7437852507674</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>75150</v>
-      </c>
-      <c r="K161" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>75250</v>
+      </c>
+      <c r="C163" t="n">
+        <v>75250</v>
+      </c>
+      <c r="D163" t="n">
+        <v>75250</v>
+      </c>
+      <c r="E163" t="n">
+        <v>75250</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.9472</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-563.0169852507674</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>75200</v>
-      </c>
-      <c r="C162" t="n">
-        <v>75200</v>
-      </c>
-      <c r="D162" t="n">
-        <v>75200</v>
-      </c>
-      <c r="E162" t="n">
-        <v>75200</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3.7796</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-563.9641852507674</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>75150</v>
-      </c>
-      <c r="K162" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>75800</v>
+      </c>
+      <c r="C164" t="n">
+        <v>75950</v>
+      </c>
+      <c r="D164" t="n">
+        <v>75950</v>
+      </c>
+      <c r="E164" t="n">
+        <v>75800</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.7298</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-561.2871852507675</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>75250</v>
-      </c>
-      <c r="C163" t="n">
-        <v>75250</v>
-      </c>
-      <c r="D163" t="n">
-        <v>75250</v>
-      </c>
-      <c r="E163" t="n">
-        <v>75250</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.9472</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-563.0169852507674</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>75200</v>
-      </c>
-      <c r="K163" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>76200</v>
+      </c>
+      <c r="C165" t="n">
+        <v>76200</v>
+      </c>
+      <c r="D165" t="n">
+        <v>76200</v>
+      </c>
+      <c r="E165" t="n">
+        <v>76200</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.058320209973</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-561.2288650407945</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>75800</v>
-      </c>
-      <c r="C164" t="n">
-        <v>75950</v>
-      </c>
-      <c r="D164" t="n">
-        <v>75950</v>
-      </c>
-      <c r="E164" t="n">
-        <v>75800</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1.7298</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-561.2871852507675</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>75250</v>
-      </c>
-      <c r="K164" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>76200</v>
+      </c>
+      <c r="C166" t="n">
+        <v>76200</v>
+      </c>
+      <c r="D166" t="n">
+        <v>76200</v>
+      </c>
+      <c r="E166" t="n">
+        <v>76200</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.941679790027</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-561.2288650407945</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>76200</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C167" t="n">
         <v>76200</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D167" t="n">
         <v>76200</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E167" t="n">
         <v>76200</v>
       </c>
-      <c r="F165" t="n">
-        <v>0.058320209973</v>
-      </c>
-      <c r="G165" t="n">
+      <c r="F167" t="n">
+        <v>61</v>
+      </c>
+      <c r="G167" t="n">
         <v>-561.2288650407945</v>
       </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>75950</v>
-      </c>
-      <c r="K165" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
         <v>76200</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C168" t="n">
+        <v>76150</v>
+      </c>
+      <c r="D168" t="n">
         <v>76200</v>
       </c>
-      <c r="D166" t="n">
-        <v>76200</v>
-      </c>
-      <c r="E166" t="n">
-        <v>76200</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.941679790027</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-561.2288650407945</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="E168" t="n">
+        <v>76150</v>
+      </c>
+      <c r="F168" t="n">
+        <v>122</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-683.2288650407945</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>76200</v>
-      </c>
-      <c r="C167" t="n">
-        <v>76200</v>
-      </c>
-      <c r="D167" t="n">
-        <v>76200</v>
-      </c>
-      <c r="E167" t="n">
-        <v>76200</v>
-      </c>
-      <c r="F167" t="n">
-        <v>61</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-561.2288650407945</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>76650</v>
+      </c>
+      <c r="C169" t="n">
+        <v>76650</v>
+      </c>
+      <c r="D169" t="n">
+        <v>76650</v>
+      </c>
+      <c r="E169" t="n">
+        <v>76650</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17.5493</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-665.6795650407945</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>76300</v>
+      </c>
+      <c r="C170" t="n">
         <v>76200</v>
       </c>
-      <c r="C168" t="n">
-        <v>76150</v>
-      </c>
-      <c r="D168" t="n">
+      <c r="D170" t="n">
+        <v>76300</v>
+      </c>
+      <c r="E170" t="n">
         <v>76200</v>
       </c>
-      <c r="E168" t="n">
-        <v>76150</v>
-      </c>
-      <c r="F168" t="n">
-        <v>122</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-683.2288650407945</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="F170" t="n">
+        <v>121</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-786.6795650407945</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>76650</v>
-      </c>
-      <c r="C169" t="n">
-        <v>76650</v>
-      </c>
-      <c r="D169" t="n">
-        <v>76650</v>
-      </c>
-      <c r="E169" t="n">
-        <v>76650</v>
-      </c>
-      <c r="F169" t="n">
-        <v>17.5493</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-665.6795650407945</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>76250</v>
+      </c>
+      <c r="C171" t="n">
+        <v>76200</v>
+      </c>
+      <c r="D171" t="n">
+        <v>76250</v>
+      </c>
+      <c r="E171" t="n">
+        <v>76200</v>
+      </c>
+      <c r="F171" t="n">
+        <v>60</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-786.6795650407945</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>76300</v>
-      </c>
-      <c r="C170" t="n">
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>76150</v>
+      </c>
+      <c r="C172" t="n">
         <v>76200</v>
       </c>
-      <c r="D170" t="n">
-        <v>76300</v>
-      </c>
-      <c r="E170" t="n">
+      <c r="D172" t="n">
         <v>76200</v>
       </c>
-      <c r="F170" t="n">
-        <v>121</v>
-      </c>
-      <c r="G170" t="n">
+      <c r="E172" t="n">
+        <v>76150</v>
+      </c>
+      <c r="F172" t="n">
+        <v>275.1567</v>
+      </c>
+      <c r="G172" t="n">
         <v>-786.6795650407945</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>76250</v>
-      </c>
-      <c r="C171" t="n">
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>76350</v>
+      </c>
+      <c r="C173" t="n">
+        <v>75700</v>
+      </c>
+      <c r="D173" t="n">
+        <v>76350</v>
+      </c>
+      <c r="E173" t="n">
+        <v>75700</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-792.6795650407945</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+      <c r="I173" t="n">
         <v>76200</v>
       </c>
-      <c r="D171" t="n">
-        <v>76250</v>
-      </c>
-      <c r="E171" t="n">
-        <v>76200</v>
-      </c>
-      <c r="F171" t="n">
-        <v>60</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-786.6795650407945</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>76150</v>
-      </c>
-      <c r="C172" t="n">
-        <v>76200</v>
-      </c>
-      <c r="D172" t="n">
-        <v>76200</v>
-      </c>
-      <c r="E172" t="n">
-        <v>76150</v>
-      </c>
-      <c r="F172" t="n">
-        <v>275.1567</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-786.6795650407945</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>76050</v>
+      </c>
+      <c r="C174" t="n">
+        <v>76000</v>
+      </c>
+      <c r="D174" t="n">
+        <v>76050</v>
+      </c>
+      <c r="E174" t="n">
+        <v>76000</v>
+      </c>
+      <c r="F174" t="n">
+        <v>55.1126</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-737.5669650407945</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" t="n">
+        <v>75700</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>76350</v>
-      </c>
-      <c r="C173" t="n">
-        <v>75700</v>
-      </c>
-      <c r="D173" t="n">
-        <v>76350</v>
-      </c>
-      <c r="E173" t="n">
-        <v>75700</v>
-      </c>
-      <c r="F173" t="n">
-        <v>6</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-792.6795650407945</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>76650</v>
+      </c>
+      <c r="C175" t="n">
+        <v>76650</v>
+      </c>
+      <c r="D175" t="n">
+        <v>76650</v>
+      </c>
+      <c r="E175" t="n">
+        <v>76650</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3.9307</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-733.6362650407945</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" t="n">
+        <v>76000</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>76050</v>
-      </c>
-      <c r="C174" t="n">
-        <v>76000</v>
-      </c>
-      <c r="D174" t="n">
-        <v>76050</v>
-      </c>
-      <c r="E174" t="n">
-        <v>76000</v>
-      </c>
-      <c r="F174" t="n">
-        <v>55.1126</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-737.5669650407945</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>76650</v>
+      </c>
+      <c r="C176" t="n">
+        <v>76650</v>
+      </c>
+      <c r="D176" t="n">
+        <v>76650</v>
+      </c>
+      <c r="E176" t="n">
+        <v>76650</v>
+      </c>
+      <c r="F176" t="n">
+        <v>19.7774</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-733.6362650407945</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>76650</v>
-      </c>
-      <c r="C175" t="n">
-        <v>76650</v>
-      </c>
-      <c r="D175" t="n">
-        <v>76650</v>
-      </c>
-      <c r="E175" t="n">
-        <v>76650</v>
-      </c>
-      <c r="F175" t="n">
-        <v>3.9307</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-733.6362650407945</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>76800</v>
+      </c>
+      <c r="C177" t="n">
+        <v>76950</v>
+      </c>
+      <c r="D177" t="n">
+        <v>76950</v>
+      </c>
+      <c r="E177" t="n">
+        <v>76800</v>
+      </c>
+      <c r="F177" t="n">
+        <v>35.4302</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-698.2060650407944</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>76650</v>
-      </c>
-      <c r="C176" t="n">
-        <v>76650</v>
-      </c>
-      <c r="D176" t="n">
-        <v>76650</v>
-      </c>
-      <c r="E176" t="n">
-        <v>76650</v>
-      </c>
-      <c r="F176" t="n">
-        <v>19.7774</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-733.6362650407945</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>77000</v>
+      </c>
+      <c r="C178" t="n">
+        <v>77000</v>
+      </c>
+      <c r="D178" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E178" t="n">
+        <v>77000</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-698.1930650407944</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" t="n">
+        <v>76950</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>76800</v>
-      </c>
-      <c r="C177" t="n">
-        <v>76950</v>
-      </c>
-      <c r="D177" t="n">
-        <v>76950</v>
-      </c>
-      <c r="E177" t="n">
-        <v>76800</v>
-      </c>
-      <c r="F177" t="n">
-        <v>35.4302</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-698.2060650407944</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>77000</v>
+      </c>
+      <c r="C179" t="n">
+        <v>77000</v>
+      </c>
+      <c r="D179" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>77000</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6.6026</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-698.1930650407944</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
         <v>77000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C180" t="n">
         <v>77000</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D180" t="n">
         <v>77000</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E180" t="n">
         <v>77000</v>
       </c>
-      <c r="F178" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="G178" t="n">
+      <c r="F180" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G180" t="n">
         <v>-698.1930650407944</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>77050</v>
+      </c>
+      <c r="C181" t="n">
+        <v>77050</v>
+      </c>
+      <c r="D181" t="n">
+        <v>77050</v>
+      </c>
+      <c r="E181" t="n">
+        <v>77050</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.3594</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-696.8336650407944</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+      <c r="I181" t="n">
         <v>77000</v>
       </c>
-      <c r="C179" t="n">
-        <v>77000</v>
-      </c>
-      <c r="D179" t="n">
-        <v>77000</v>
-      </c>
-      <c r="E179" t="n">
-        <v>77000</v>
-      </c>
-      <c r="F179" t="n">
-        <v>6.6026</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-698.1930650407944</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>77000</v>
-      </c>
-      <c r="C180" t="n">
-        <v>77000</v>
-      </c>
-      <c r="D180" t="n">
-        <v>77000</v>
-      </c>
-      <c r="E180" t="n">
-        <v>77000</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-698.1930650407944</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>77050</v>
+      </c>
+      <c r="C182" t="n">
+        <v>77050</v>
+      </c>
+      <c r="D182" t="n">
+        <v>77050</v>
+      </c>
+      <c r="E182" t="n">
+        <v>77050</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9.2728</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-696.8336650407944</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
         <v>77050</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C183" t="n">
         <v>77050</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D183" t="n">
         <v>77050</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E183" t="n">
         <v>77050</v>
       </c>
-      <c r="F181" t="n">
-        <v>1.3594</v>
-      </c>
-      <c r="G181" t="n">
+      <c r="F183" t="n">
+        <v>3.6881</v>
+      </c>
+      <c r="G183" t="n">
         <v>-696.8336650407944</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
         <v>77050</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C184" t="n">
         <v>77050</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D184" t="n">
         <v>77050</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E184" t="n">
         <v>77050</v>
       </c>
-      <c r="F182" t="n">
-        <v>9.2728</v>
-      </c>
-      <c r="G182" t="n">
+      <c r="F184" t="n">
+        <v>2.2234</v>
+      </c>
+      <c r="G184" t="n">
         <v>-696.8336650407944</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+      <c r="I184" t="n">
+        <v>77050</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>77000</v>
+      </c>
+      <c r="C185" t="n">
+        <v>77000</v>
+      </c>
+      <c r="D185" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E185" t="n">
+        <v>77000</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.318</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-698.1516650407943</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+      <c r="I185" t="n">
         <v>77050</v>
       </c>
-      <c r="C183" t="n">
-        <v>77050</v>
-      </c>
-      <c r="D183" t="n">
-        <v>77050</v>
-      </c>
-      <c r="E183" t="n">
-        <v>77050</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3.6881</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-696.8336650407944</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>77050</v>
-      </c>
-      <c r="C184" t="n">
-        <v>77050</v>
-      </c>
-      <c r="D184" t="n">
-        <v>77050</v>
-      </c>
-      <c r="E184" t="n">
-        <v>77050</v>
-      </c>
-      <c r="F184" t="n">
-        <v>2.2234</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-696.8336650407944</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>77000</v>
+      </c>
+      <c r="C186" t="n">
+        <v>77000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E186" t="n">
+        <v>77000</v>
+      </c>
+      <c r="F186" t="n">
+        <v>15.5983</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-698.1516650407943</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+      <c r="I186" t="n">
+        <v>77000</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
         <v>77000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C187" t="n">
         <v>77000</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D187" t="n">
         <v>77000</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E187" t="n">
         <v>77000</v>
       </c>
-      <c r="F185" t="n">
-        <v>1.318</v>
-      </c>
-      <c r="G185" t="n">
+      <c r="F187" t="n">
+        <v>0.6455</v>
+      </c>
+      <c r="G187" t="n">
         <v>-698.1516650407943</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+      <c r="I187" t="n">
+        <v>77000</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>77100</v>
+      </c>
+      <c r="C188" t="n">
+        <v>77100</v>
+      </c>
+      <c r="D188" t="n">
+        <v>77100</v>
+      </c>
+      <c r="E188" t="n">
+        <v>77100</v>
+      </c>
+      <c r="F188" t="n">
+        <v>39.5493</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-658.6023650407943</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2</v>
+      </c>
+      <c r="I188" t="n">
         <v>77000</v>
       </c>
-      <c r="C186" t="n">
-        <v>77000</v>
-      </c>
-      <c r="D186" t="n">
-        <v>77000</v>
-      </c>
-      <c r="E186" t="n">
-        <v>77000</v>
-      </c>
-      <c r="F186" t="n">
-        <v>15.5983</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-698.1516650407943</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>77000</v>
-      </c>
-      <c r="C187" t="n">
-        <v>77000</v>
-      </c>
-      <c r="D187" t="n">
-        <v>77000</v>
-      </c>
-      <c r="E187" t="n">
-        <v>77000</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.6455</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-698.1516650407943</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>77400</v>
+      </c>
+      <c r="C189" t="n">
+        <v>77400</v>
+      </c>
+      <c r="D189" t="n">
+        <v>77400</v>
+      </c>
+      <c r="E189" t="n">
+        <v>77400</v>
+      </c>
+      <c r="F189" t="n">
+        <v>16.7725</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-641.8298650407943</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+      <c r="I189" t="n">
+        <v>77100</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
         <v>77100</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C190" t="n">
+        <v>77050</v>
+      </c>
+      <c r="D190" t="n">
         <v>77100</v>
       </c>
-      <c r="D188" t="n">
-        <v>77100</v>
-      </c>
-      <c r="E188" t="n">
-        <v>77100</v>
-      </c>
-      <c r="F188" t="n">
-        <v>39.5493</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-658.6023650407943</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="E190" t="n">
+        <v>77050</v>
+      </c>
+      <c r="F190" t="n">
+        <v>11.5707</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-653.4005650407943</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+      <c r="I190" t="n">
+        <v>77400</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>77400</v>
-      </c>
-      <c r="C189" t="n">
-        <v>77400</v>
-      </c>
-      <c r="D189" t="n">
-        <v>77400</v>
-      </c>
-      <c r="E189" t="n">
-        <v>77400</v>
-      </c>
-      <c r="F189" t="n">
-        <v>16.7725</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-641.8298650407943</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>77350</v>
+      </c>
+      <c r="C191" t="n">
+        <v>77350</v>
+      </c>
+      <c r="D191" t="n">
+        <v>77350</v>
+      </c>
+      <c r="E191" t="n">
+        <v>77350</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.9959</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-652.4046650407943</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" t="n">
+        <v>77050</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>77100</v>
-      </c>
-      <c r="C190" t="n">
-        <v>77050</v>
-      </c>
-      <c r="D190" t="n">
-        <v>77100</v>
-      </c>
-      <c r="E190" t="n">
-        <v>77050</v>
-      </c>
-      <c r="F190" t="n">
-        <v>11.5707</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-653.4005650407943</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>77550</v>
+      </c>
+      <c r="C192" t="n">
+        <v>77700</v>
+      </c>
+      <c r="D192" t="n">
+        <v>77700</v>
+      </c>
+      <c r="E192" t="n">
+        <v>77550</v>
+      </c>
+      <c r="F192" t="n">
+        <v>50.2919</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-602.1127650407943</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+      <c r="I192" t="n">
+        <v>77350</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>77350</v>
-      </c>
-      <c r="C191" t="n">
-        <v>77350</v>
-      </c>
-      <c r="D191" t="n">
-        <v>77350</v>
-      </c>
-      <c r="E191" t="n">
-        <v>77350</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.9959</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-652.4046650407943</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>77900</v>
+      </c>
+      <c r="C193" t="n">
+        <v>77550</v>
+      </c>
+      <c r="D193" t="n">
+        <v>78050</v>
+      </c>
+      <c r="E193" t="n">
+        <v>77550</v>
+      </c>
+      <c r="F193" t="n">
+        <v>62.5821</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-664.6948650407943</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+      <c r="I193" t="n">
+        <v>77700</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>77550</v>
-      </c>
-      <c r="C192" t="n">
-        <v>77700</v>
-      </c>
-      <c r="D192" t="n">
-        <v>77700</v>
-      </c>
-      <c r="E192" t="n">
-        <v>77550</v>
-      </c>
-      <c r="F192" t="n">
-        <v>50.2919</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-602.1127650407943</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>77650</v>
+      </c>
+      <c r="C194" t="n">
+        <v>77650</v>
+      </c>
+      <c r="D194" t="n">
+        <v>77650</v>
+      </c>
+      <c r="E194" t="n">
+        <v>77650</v>
+      </c>
+      <c r="F194" t="n">
+        <v>49.7995</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-614.8953650407943</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>77900</v>
-      </c>
-      <c r="C193" t="n">
-        <v>77550</v>
-      </c>
-      <c r="D193" t="n">
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
         <v>78050</v>
       </c>
-      <c r="E193" t="n">
-        <v>77550</v>
-      </c>
-      <c r="F193" t="n">
-        <v>62.5821</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-664.6948650407943</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="C195" t="n">
+        <v>78300</v>
+      </c>
+      <c r="D195" t="n">
+        <v>78300</v>
+      </c>
+      <c r="E195" t="n">
+        <v>78050</v>
+      </c>
+      <c r="F195" t="n">
+        <v>18.5429</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-596.3524650407943</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>77650</v>
-      </c>
-      <c r="C194" t="n">
-        <v>77650</v>
-      </c>
-      <c r="D194" t="n">
-        <v>77650</v>
-      </c>
-      <c r="E194" t="n">
-        <v>77650</v>
-      </c>
-      <c r="F194" t="n">
-        <v>49.7995</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-614.8953650407943</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>78300</v>
+      </c>
+      <c r="C196" t="n">
+        <v>78300</v>
+      </c>
+      <c r="D196" t="n">
+        <v>78300</v>
+      </c>
+      <c r="E196" t="n">
+        <v>78300</v>
+      </c>
+      <c r="F196" t="n">
+        <v>6.7374</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-596.3524650407943</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
         <v>78050</v>
       </c>
-      <c r="C195" t="n">
-        <v>78300</v>
-      </c>
-      <c r="D195" t="n">
-        <v>78300</v>
-      </c>
-      <c r="E195" t="n">
+      <c r="C197" t="n">
         <v>78050</v>
       </c>
-      <c r="F195" t="n">
-        <v>18.5429</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-596.3524650407943</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="D197" t="n">
+        <v>78050</v>
+      </c>
+      <c r="E197" t="n">
+        <v>78050</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-596.4324650407943</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>78300</v>
-      </c>
-      <c r="C196" t="n">
-        <v>78300</v>
-      </c>
-      <c r="D196" t="n">
-        <v>78300</v>
-      </c>
-      <c r="E196" t="n">
-        <v>78300</v>
-      </c>
-      <c r="F196" t="n">
-        <v>6.7374</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-596.3524650407943</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>77700</v>
+      </c>
+      <c r="C198" t="n">
+        <v>77700</v>
+      </c>
+      <c r="D198" t="n">
+        <v>77700</v>
+      </c>
+      <c r="E198" t="n">
+        <v>77700</v>
+      </c>
+      <c r="F198" t="n">
+        <v>19.2944</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-615.7268650407943</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>78050</v>
-      </c>
-      <c r="C197" t="n">
-        <v>78050</v>
-      </c>
-      <c r="D197" t="n">
-        <v>78050</v>
-      </c>
-      <c r="E197" t="n">
-        <v>78050</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-596.4324650407943</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>78000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D199" t="n">
+        <v>78000</v>
+      </c>
+      <c r="E199" t="n">
+        <v>78000</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.0128</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-615.7140650407944</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+      <c r="I199" t="n">
+        <v>77700</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>77700</v>
-      </c>
-      <c r="C198" t="n">
-        <v>77700</v>
-      </c>
-      <c r="D198" t="n">
-        <v>77700</v>
-      </c>
-      <c r="E198" t="n">
-        <v>77700</v>
-      </c>
-      <c r="F198" t="n">
-        <v>19.2944</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-615.7268650407943</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>77600</v>
+      </c>
+      <c r="C200" t="n">
+        <v>77600</v>
+      </c>
+      <c r="D200" t="n">
+        <v>77600</v>
+      </c>
+      <c r="E200" t="n">
+        <v>77600</v>
+      </c>
+      <c r="F200" t="n">
+        <v>12.9453</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-628.6593650407943</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+      <c r="I200" t="n">
+        <v>78000</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>77600</v>
+      </c>
+      <c r="C201" t="n">
         <v>78000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="D201" t="n">
         <v>78000</v>
       </c>
-      <c r="D199" t="n">
-        <v>78000</v>
-      </c>
-      <c r="E199" t="n">
-        <v>78000</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-615.7140650407944</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="E201" t="n">
+        <v>77600</v>
+      </c>
+      <c r="F201" t="n">
+        <v>132.6509</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-496.0084650407944</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+      <c r="I201" t="n">
+        <v>77600</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>77600</v>
-      </c>
-      <c r="C200" t="n">
-        <v>77600</v>
-      </c>
-      <c r="D200" t="n">
-        <v>77600</v>
-      </c>
-      <c r="E200" t="n">
-        <v>77600</v>
-      </c>
-      <c r="F200" t="n">
-        <v>12.9453</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-628.6593650407943</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>78050</v>
+      </c>
+      <c r="C202" t="n">
+        <v>78400</v>
+      </c>
+      <c r="D202" t="n">
+        <v>78400</v>
+      </c>
+      <c r="E202" t="n">
+        <v>78050</v>
+      </c>
+      <c r="F202" t="n">
+        <v>14.3497</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-481.6587650407944</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+      <c r="I202" t="n">
+        <v>78000</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>77600</v>
-      </c>
-      <c r="C201" t="n">
-        <v>78000</v>
-      </c>
-      <c r="D201" t="n">
-        <v>78000</v>
-      </c>
-      <c r="E201" t="n">
-        <v>77600</v>
-      </c>
-      <c r="F201" t="n">
-        <v>132.6509</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-496.0084650407944</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>78200</v>
+      </c>
+      <c r="C203" t="n">
+        <v>78200</v>
+      </c>
+      <c r="D203" t="n">
+        <v>78200</v>
+      </c>
+      <c r="E203" t="n">
+        <v>78200</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1.1046</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-482.7633650407944</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+      <c r="I203" t="n">
+        <v>78400</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>78050</v>
-      </c>
-      <c r="C202" t="n">
-        <v>78400</v>
-      </c>
-      <c r="D202" t="n">
-        <v>78400</v>
-      </c>
-      <c r="E202" t="n">
-        <v>78050</v>
-      </c>
-      <c r="F202" t="n">
-        <v>14.3497</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-481.6587650407944</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>78600</v>
+      </c>
+      <c r="C204" t="n">
+        <v>78600</v>
+      </c>
+      <c r="D204" t="n">
+        <v>78600</v>
+      </c>
+      <c r="E204" t="n">
+        <v>78600</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.0335</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-481.7298650407944</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2</v>
+      </c>
+      <c r="I204" t="n">
+        <v>78200</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>78200</v>
-      </c>
-      <c r="C203" t="n">
-        <v>78200</v>
-      </c>
-      <c r="D203" t="n">
-        <v>78200</v>
-      </c>
-      <c r="E203" t="n">
-        <v>78200</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1.1046</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-482.7633650407944</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>78600</v>
+      </c>
+      <c r="C205" t="n">
+        <v>78600</v>
+      </c>
+      <c r="D205" t="n">
+        <v>78600</v>
+      </c>
+      <c r="E205" t="n">
+        <v>78600</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.3947</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-481.7298650407944</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2</v>
+      </c>
+      <c r="I205" t="n">
+        <v>78600</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>78550</v>
+      </c>
+      <c r="C206" t="n">
+        <v>78550</v>
+      </c>
+      <c r="D206" t="n">
+        <v>78550</v>
+      </c>
+      <c r="E206" t="n">
+        <v>78550</v>
+      </c>
+      <c r="F206" t="n">
+        <v>6.4522</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-488.1820650407944</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+      <c r="I206" t="n">
         <v>78600</v>
       </c>
-      <c r="C204" t="n">
-        <v>78600</v>
-      </c>
-      <c r="D204" t="n">
-        <v>78600</v>
-      </c>
-      <c r="E204" t="n">
-        <v>78600</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1.0335</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-481.7298650407944</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
         <v>78600</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C207" t="n">
+        <v>78200</v>
+      </c>
+      <c r="D207" t="n">
         <v>78600</v>
       </c>
-      <c r="D205" t="n">
-        <v>78600</v>
-      </c>
-      <c r="E205" t="n">
-        <v>78600</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1.3947</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-481.7298650407944</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="E207" t="n">
+        <v>78200</v>
+      </c>
+      <c r="F207" t="n">
+        <v>57.5435</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-545.7255650407944</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2</v>
+      </c>
+      <c r="I207" t="n">
+        <v>78550</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
         <v>78550</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C208" t="n">
+        <v>78850</v>
+      </c>
+      <c r="D208" t="n">
+        <v>78850</v>
+      </c>
+      <c r="E208" t="n">
         <v>78550</v>
       </c>
-      <c r="D206" t="n">
-        <v>78550</v>
-      </c>
-      <c r="E206" t="n">
-        <v>78550</v>
-      </c>
-      <c r="F206" t="n">
-        <v>6.4522</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-488.1820650407944</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="F208" t="n">
+        <v>31.048</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-514.6775650407944</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>78600</v>
-      </c>
-      <c r="C207" t="n">
-        <v>78200</v>
-      </c>
-      <c r="D207" t="n">
-        <v>78600</v>
-      </c>
-      <c r="E207" t="n">
-        <v>78200</v>
-      </c>
-      <c r="F207" t="n">
-        <v>57.5435</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-545.7255650407944</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>78950</v>
+      </c>
+      <c r="C209" t="n">
+        <v>78950</v>
+      </c>
+      <c r="D209" t="n">
+        <v>78950</v>
+      </c>
+      <c r="E209" t="n">
+        <v>78950</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2.7462</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-511.9313650407944</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2</v>
+      </c>
+      <c r="I209" t="n">
+        <v>78850</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>78550</v>
-      </c>
-      <c r="C208" t="n">
-        <v>78850</v>
-      </c>
-      <c r="D208" t="n">
-        <v>78850</v>
-      </c>
-      <c r="E208" t="n">
-        <v>78550</v>
-      </c>
-      <c r="F208" t="n">
-        <v>31.048</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-514.6775650407944</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>79050</v>
+      </c>
+      <c r="C210" t="n">
+        <v>79050</v>
+      </c>
+      <c r="D210" t="n">
+        <v>79050</v>
+      </c>
+      <c r="E210" t="n">
+        <v>79050</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-511.2213650407945</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>78950</v>
-      </c>
-      <c r="C209" t="n">
-        <v>78950</v>
-      </c>
-      <c r="D209" t="n">
-        <v>78950</v>
-      </c>
-      <c r="E209" t="n">
-        <v>78950</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2.7462</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-511.9313650407944</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>79050</v>
+      </c>
+      <c r="C211" t="n">
+        <v>79100</v>
+      </c>
+      <c r="D211" t="n">
+        <v>79150</v>
+      </c>
+      <c r="E211" t="n">
+        <v>79050</v>
+      </c>
+      <c r="F211" t="n">
+        <v>44.4186</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-466.8027650407945</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>79050</v>
-      </c>
-      <c r="C210" t="n">
-        <v>79050</v>
-      </c>
-      <c r="D210" t="n">
-        <v>79050</v>
-      </c>
-      <c r="E210" t="n">
-        <v>79050</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-511.2213650407945</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>79100</v>
+      </c>
+      <c r="C212" t="n">
+        <v>79100</v>
+      </c>
+      <c r="D212" t="n">
+        <v>79300</v>
+      </c>
+      <c r="E212" t="n">
+        <v>79100</v>
+      </c>
+      <c r="F212" t="n">
+        <v>118.4998</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-466.8027650407945</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>79050</v>
-      </c>
-      <c r="C211" t="n">
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>79150</v>
+      </c>
+      <c r="C213" t="n">
+        <v>79150</v>
+      </c>
+      <c r="D213" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E213" t="n">
         <v>79100</v>
       </c>
-      <c r="D211" t="n">
-        <v>79150</v>
-      </c>
-      <c r="E211" t="n">
-        <v>79050</v>
-      </c>
-      <c r="F211" t="n">
-        <v>44.4186</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-466.8027650407945</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="F213" t="n">
+        <v>38.0985</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-428.7042650407945</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>79100</v>
-      </c>
-      <c r="C212" t="n">
-        <v>79100</v>
-      </c>
-      <c r="D212" t="n">
-        <v>79300</v>
-      </c>
-      <c r="E212" t="n">
-        <v>79100</v>
-      </c>
-      <c r="F212" t="n">
-        <v>118.4998</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-466.8027650407945</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>79150</v>
-      </c>
-      <c r="C213" t="n">
-        <v>79150</v>
-      </c>
-      <c r="D213" t="n">
-        <v>79200</v>
-      </c>
-      <c r="E213" t="n">
-        <v>79100</v>
-      </c>
-      <c r="F213" t="n">
-        <v>38.0985</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-428.7042650407945</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8520,24 +7745,17 @@
         <v>-428.7042650407945</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="K214" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8564,22 +7782,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8604,24 +7813,15 @@
         <v>-401.3478650407945</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8648,22 +7848,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8690,22 +7881,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8730,24 +7912,15 @@
         <v>-96.18476504079449</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8772,24 +7945,15 @@
         <v>-99.58476504079449</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8814,24 +7978,15 @@
         <v>-99.58476504079449</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8856,24 +8011,15 @@
         <v>-99.58476504079449</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8900,22 +8046,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8942,22 +8079,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8984,22 +8112,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9026,22 +8145,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9068,22 +8178,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9110,22 +8211,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9152,22 +8244,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9194,22 +8277,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9236,22 +8310,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9278,22 +8343,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9320,22 +8376,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9362,22 +8409,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9404,22 +8442,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9446,22 +8475,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9488,22 +8508,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9528,24 +8539,15 @@
         <v>-141.6433650407945</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9572,22 +8574,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9614,22 +8607,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9656,22 +8640,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9696,24 +8671,15 @@
         <v>-140.0890650407945</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9740,22 +8706,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9782,22 +8739,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9824,22 +8772,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9866,22 +8805,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9908,22 +8838,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9950,22 +8871,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9992,22 +8904,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10032,24 +8935,15 @@
         <v>-155.9216650407945</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10076,22 +8970,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10116,24 +9001,15 @@
         <v>-156.9216650407945</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10160,22 +9036,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10202,22 +9069,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10244,22 +9102,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10286,22 +9135,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10328,22 +9168,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10370,22 +9201,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10412,22 +9234,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10454,22 +9267,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10496,22 +9300,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10538,22 +9333,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10580,22 +9366,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10622,22 +9399,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10664,22 +9432,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10706,22 +9465,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10748,22 +9498,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10790,24 +9531,15 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>75850</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest XMR.xlsx
+++ b/BackTest/2020-01-19 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>557.7896179157387</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>557.7896179157387</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>603.4767179157387</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>475.7985179157387</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>475.7985179157387</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>445.7485179157387</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>445.7485179157387</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>424.1094179157387</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>424.1094179157387</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>424.1164179157387</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>407.7259179157388</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>420.4658179157387</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>411.0202179157387</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>417.1327179157387</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>417.5776179157388</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>389.1301179157388</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>389.1301179157388</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>389.1301179157388</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>428.9525179157388</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>428.9654179157388</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>335.1131179157388</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3.922717915738758</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>5.915817915738758</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>9.915817915738758</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>11.00741791573876</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>9.056417915738759</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-90.94358208426124</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-90.09988208426124</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-88.33918208426124</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-95.77618208426124</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-94.75038208426123</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-94.75038208426123</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-94.75038208426123</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-100.3636820842612</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-102.9358820842612</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-102.2558820842612</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-113.8555820842612</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-115.7055820842612</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -5401,11 +5401,17 @@
         <v>-554.7533852507675</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>75050</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,7 +5440,7 @@
         <v>-555.6013852507674</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>75150</v>
@@ -5442,7 +5448,7 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5473,7 +5479,7 @@
         <v>-567.3513852507674</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>75100</v>
@@ -5512,9 +5518,11 @@
         <v>-579.1013852507674</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>75050</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -5549,9 +5557,11 @@
         <v>-577.9908852507674</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>74800</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -5586,9 +5596,11 @@
         <v>-578.0320852507674</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>75050</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -5623,9 +5635,11 @@
         <v>-576.9941852507674</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>74750</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -5660,9 +5674,11 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>75100</v>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -5697,9 +5713,11 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>75150</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -5734,9 +5752,11 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>75150</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -5808,9 +5828,11 @@
         <v>-563.0169852507674</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>75200</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -5845,9 +5867,11 @@
         <v>-561.2871852507675</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>75250</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6178,11 +6202,9 @@
         <v>-792.6795650407945</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>76200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6217,11 +6239,9 @@
         <v>-737.5669650407945</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>75700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6256,11 +6276,9 @@
         <v>-733.6362650407945</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>76000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6369,11 +6387,9 @@
         <v>-698.1930650407944</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>76950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6482,11 +6498,9 @@
         <v>-696.8336650407944</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>77000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6595,11 +6609,9 @@
         <v>-696.8336650407944</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>77050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6634,11 +6646,9 @@
         <v>-698.1516650407943</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>77050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6673,11 +6683,9 @@
         <v>-698.1516650407943</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>77000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6712,11 +6720,9 @@
         <v>-698.1516650407943</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>77000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6751,11 +6757,9 @@
         <v>-658.6023650407943</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>77000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6790,11 +6794,9 @@
         <v>-641.8298650407943</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>77100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -6829,11 +6831,9 @@
         <v>-653.4005650407943</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>77400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -6868,11 +6868,9 @@
         <v>-652.4046650407943</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>77050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -6907,11 +6905,9 @@
         <v>-602.1127650407943</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>77350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -6946,11 +6942,9 @@
         <v>-664.6948650407943</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>77700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7170,11 +7164,9 @@
         <v>-615.7140650407944</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>77700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7209,11 +7201,9 @@
         <v>-628.6593650407943</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>78000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7248,11 +7238,9 @@
         <v>-496.0084650407944</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>77600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7287,11 +7275,9 @@
         <v>-481.6587650407944</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>78000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7326,11 +7312,9 @@
         <v>-482.7633650407944</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>78400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7365,11 +7349,9 @@
         <v>-481.7298650407944</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>78200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7404,11 +7386,9 @@
         <v>-481.7298650407944</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>78600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7443,11 +7423,9 @@
         <v>-488.1820650407944</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>78600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7482,11 +7460,9 @@
         <v>-545.7255650407944</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>78550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7558,11 +7534,9 @@
         <v>-511.9313650407944</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>78850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -7745,16 +7719,18 @@
         <v>-428.7042650407945</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L214" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
       <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
@@ -7784,7 +7760,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7813,11 +7793,15 @@
         <v>-401.3478650407945</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7850,7 +7834,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7883,7 +7871,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7912,11 +7904,15 @@
         <v>-96.18476504079449</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7945,11 +7941,15 @@
         <v>-99.58476504079449</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7978,11 +7978,15 @@
         <v>-99.58476504079449</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8011,11 +8015,15 @@
         <v>-99.58476504079449</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8048,7 +8056,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8081,7 +8093,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8114,7 +8130,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8147,7 +8167,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8180,7 +8204,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8213,7 +8241,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8246,7 +8278,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8279,7 +8315,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8312,7 +8352,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8345,7 +8389,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8378,7 +8426,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8411,7 +8463,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8444,7 +8500,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8477,7 +8537,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8510,7 +8574,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8539,11 +8607,15 @@
         <v>-141.6433650407945</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8576,7 +8648,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8609,7 +8685,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8642,7 +8722,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8671,11 +8755,15 @@
         <v>-140.0890650407945</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8708,7 +8796,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8741,7 +8833,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8774,7 +8870,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8807,7 +8907,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8840,7 +8944,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8873,7 +8981,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8906,7 +9018,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8935,11 +9051,15 @@
         <v>-155.9216650407945</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8972,7 +9092,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9001,11 +9125,15 @@
         <v>-156.9216650407945</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9038,7 +9166,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9071,7 +9203,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9104,7 +9240,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9137,7 +9277,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9170,7 +9314,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9203,7 +9351,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9236,7 +9388,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9269,7 +9425,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9302,7 +9462,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9335,7 +9499,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9368,7 +9536,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9401,7 +9573,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9434,7 +9610,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9467,7 +9647,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9500,7 +9684,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9533,13 +9721,17 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
       <c r="M268" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest XMR.xlsx
+++ b/BackTest/2020-01-19 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>557.7896179157387</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>557.7896179157387</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>603.4767179157387</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>475.7985179157387</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>475.7985179157387</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>445.7485179157387</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>445.7485179157387</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>424.1094179157387</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>424.1094179157387</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>424.1164179157387</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>407.7259179157388</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>420.4658179157387</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>411.0202179157387</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>417.1327179157387</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>417.5776179157388</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>389.1301179157388</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>428.9654179157388</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>335.1131179157388</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>5.915817915738758</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>9.915817915738758</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>11.00741791573876</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>9.056417915738759</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-90.94358208426124</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-90.09988208426124</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-88.33918208426124</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-95.77618208426124</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-94.75038208426123</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-94.75038208426123</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-94.75038208426123</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-100.3636820842612</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-102.9358820842612</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-102.2558820842612</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-113.8555820842612</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-115.7055820842612</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -5401,631 +5401,569 @@
         <v>-554.7533852507675</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>75150</v>
+      </c>
+      <c r="C153" t="n">
+        <v>75100</v>
+      </c>
+      <c r="D153" t="n">
+        <v>75150</v>
+      </c>
+      <c r="E153" t="n">
+        <v>75100</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-555.6013852507674</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
         <v>75050</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
+      <c r="C154" t="n">
+        <v>75050</v>
+      </c>
+      <c r="D154" t="n">
+        <v>75050</v>
+      </c>
+      <c r="E154" t="n">
+        <v>75050</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-567.3513852507674</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>74850</v>
+      </c>
+      <c r="C155" t="n">
+        <v>74800</v>
+      </c>
+      <c r="D155" t="n">
+        <v>74850</v>
+      </c>
+      <c r="E155" t="n">
+        <v>74800</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-579.1013852507674</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>75050</v>
+      </c>
+      <c r="C156" t="n">
+        <v>75050</v>
+      </c>
+      <c r="D156" t="n">
+        <v>75050</v>
+      </c>
+      <c r="E156" t="n">
+        <v>75050</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.1105</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-577.9908852507674</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>74750</v>
+      </c>
+      <c r="C157" t="n">
+        <v>74750</v>
+      </c>
+      <c r="D157" t="n">
+        <v>74750</v>
+      </c>
+      <c r="E157" t="n">
+        <v>74750</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-578.0320852507674</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>75100</v>
+      </c>
+      <c r="C158" t="n">
+        <v>75100</v>
+      </c>
+      <c r="D158" t="n">
+        <v>75100</v>
+      </c>
+      <c r="E158" t="n">
+        <v>75100</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.0379</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-576.9941852507674</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>75150</v>
+      </c>
+      <c r="C159" t="n">
+        <v>75150</v>
+      </c>
+      <c r="D159" t="n">
+        <v>75150</v>
+      </c>
+      <c r="E159" t="n">
+        <v>75150</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9.250400000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-567.7437852507674</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>75150</v>
+      </c>
+      <c r="C160" t="n">
+        <v>75150</v>
+      </c>
+      <c r="D160" t="n">
+        <v>75150</v>
+      </c>
+      <c r="E160" t="n">
+        <v>75150</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3.1047</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-567.7437852507674</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>75150</v>
+      </c>
+      <c r="C161" t="n">
+        <v>75150</v>
+      </c>
+      <c r="D161" t="n">
+        <v>75150</v>
+      </c>
+      <c r="E161" t="n">
+        <v>75150</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4.3827</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-567.7437852507674</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>75200</v>
+      </c>
+      <c r="C162" t="n">
+        <v>75200</v>
+      </c>
+      <c r="D162" t="n">
+        <v>75200</v>
+      </c>
+      <c r="E162" t="n">
+        <v>75200</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3.7796</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-563.9641852507674</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>75250</v>
+      </c>
+      <c r="C163" t="n">
+        <v>75250</v>
+      </c>
+      <c r="D163" t="n">
+        <v>75250</v>
+      </c>
+      <c r="E163" t="n">
+        <v>75250</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.9472</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-563.0169852507674</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>75800</v>
+      </c>
+      <c r="C164" t="n">
+        <v>75950</v>
+      </c>
+      <c r="D164" t="n">
+        <v>75950</v>
+      </c>
+      <c r="E164" t="n">
+        <v>75800</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.7298</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-561.2871852507675</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>75250</v>
+      </c>
+      <c r="J164" t="n">
+        <v>75250</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>76200</v>
+      </c>
+      <c r="C165" t="n">
+        <v>76200</v>
+      </c>
+      <c r="D165" t="n">
+        <v>76200</v>
+      </c>
+      <c r="E165" t="n">
+        <v>76200</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.058320209973</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-561.2288650407945</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>75950</v>
+      </c>
+      <c r="J165" t="n">
+        <v>75250</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>76200</v>
+      </c>
+      <c r="C166" t="n">
+        <v>76200</v>
+      </c>
+      <c r="D166" t="n">
+        <v>76200</v>
+      </c>
+      <c r="E166" t="n">
+        <v>76200</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.941679790027</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-561.2288650407945</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>76200</v>
+      </c>
+      <c r="J166" t="n">
+        <v>75250</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>76200</v>
+      </c>
+      <c r="C167" t="n">
+        <v>76200</v>
+      </c>
+      <c r="D167" t="n">
+        <v>76200</v>
+      </c>
+      <c r="E167" t="n">
+        <v>76200</v>
+      </c>
+      <c r="F167" t="n">
+        <v>61</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-561.2288650407945</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>76200</v>
+      </c>
+      <c r="J167" t="n">
+        <v>76200</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>76200</v>
+      </c>
+      <c r="C168" t="n">
+        <v>76150</v>
+      </c>
+      <c r="D168" t="n">
+        <v>76200</v>
+      </c>
+      <c r="E168" t="n">
+        <v>76150</v>
+      </c>
+      <c r="F168" t="n">
+        <v>122</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-683.2288650407945</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>76200</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>75150</v>
-      </c>
-      <c r="C153" t="n">
-        <v>75100</v>
-      </c>
-      <c r="D153" t="n">
-        <v>75150</v>
-      </c>
-      <c r="E153" t="n">
-        <v>75100</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.848</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-555.6013852507674</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>75150</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>75050</v>
-      </c>
-      <c r="C154" t="n">
-        <v>75050</v>
-      </c>
-      <c r="D154" t="n">
-        <v>75050</v>
-      </c>
-      <c r="E154" t="n">
-        <v>75050</v>
-      </c>
-      <c r="F154" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-567.3513852507674</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>75100</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>74850</v>
-      </c>
-      <c r="C155" t="n">
-        <v>74800</v>
-      </c>
-      <c r="D155" t="n">
-        <v>74850</v>
-      </c>
-      <c r="E155" t="n">
-        <v>74800</v>
-      </c>
-      <c r="F155" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-579.1013852507674</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>75050</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>75050</v>
-      </c>
-      <c r="C156" t="n">
-        <v>75050</v>
-      </c>
-      <c r="D156" t="n">
-        <v>75050</v>
-      </c>
-      <c r="E156" t="n">
-        <v>75050</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1.1105</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-577.9908852507674</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>74800</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>74750</v>
-      </c>
-      <c r="C157" t="n">
-        <v>74750</v>
-      </c>
-      <c r="D157" t="n">
-        <v>74750</v>
-      </c>
-      <c r="E157" t="n">
-        <v>74750</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.0412</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-578.0320852507674</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>75050</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>75100</v>
-      </c>
-      <c r="C158" t="n">
-        <v>75100</v>
-      </c>
-      <c r="D158" t="n">
-        <v>75100</v>
-      </c>
-      <c r="E158" t="n">
-        <v>75100</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1.0379</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-576.9941852507674</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>74750</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>75150</v>
-      </c>
-      <c r="C159" t="n">
-        <v>75150</v>
-      </c>
-      <c r="D159" t="n">
-        <v>75150</v>
-      </c>
-      <c r="E159" t="n">
-        <v>75150</v>
-      </c>
-      <c r="F159" t="n">
-        <v>9.250400000000001</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-567.7437852507674</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>75100</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>75150</v>
-      </c>
-      <c r="C160" t="n">
-        <v>75150</v>
-      </c>
-      <c r="D160" t="n">
-        <v>75150</v>
-      </c>
-      <c r="E160" t="n">
-        <v>75150</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3.1047</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-567.7437852507674</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>75150</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>75150</v>
-      </c>
-      <c r="C161" t="n">
-        <v>75150</v>
-      </c>
-      <c r="D161" t="n">
-        <v>75150</v>
-      </c>
-      <c r="E161" t="n">
-        <v>75150</v>
-      </c>
-      <c r="F161" t="n">
-        <v>4.3827</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-567.7437852507674</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>75150</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>75200</v>
-      </c>
-      <c r="C162" t="n">
-        <v>75200</v>
-      </c>
-      <c r="D162" t="n">
-        <v>75200</v>
-      </c>
-      <c r="E162" t="n">
-        <v>75200</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3.7796</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-563.9641852507674</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>75250</v>
-      </c>
-      <c r="C163" t="n">
-        <v>75250</v>
-      </c>
-      <c r="D163" t="n">
-        <v>75250</v>
-      </c>
-      <c r="E163" t="n">
-        <v>75250</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.9472</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-563.0169852507674</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>75200</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>75800</v>
-      </c>
-      <c r="C164" t="n">
-        <v>75950</v>
-      </c>
-      <c r="D164" t="n">
-        <v>75950</v>
-      </c>
-      <c r="E164" t="n">
-        <v>75800</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1.7298</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-561.2871852507675</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>75250</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>76200</v>
-      </c>
-      <c r="C165" t="n">
-        <v>76200</v>
-      </c>
-      <c r="D165" t="n">
-        <v>76200</v>
-      </c>
-      <c r="E165" t="n">
-        <v>76200</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.058320209973</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-561.2288650407945</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>76200</v>
-      </c>
-      <c r="C166" t="n">
-        <v>76200</v>
-      </c>
-      <c r="D166" t="n">
-        <v>76200</v>
-      </c>
-      <c r="E166" t="n">
-        <v>76200</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.941679790027</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-561.2288650407945</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>76200</v>
-      </c>
-      <c r="C167" t="n">
-        <v>76200</v>
-      </c>
-      <c r="D167" t="n">
-        <v>76200</v>
-      </c>
-      <c r="E167" t="n">
-        <v>76200</v>
-      </c>
-      <c r="F167" t="n">
-        <v>61</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-561.2288650407945</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>76200</v>
-      </c>
-      <c r="C168" t="n">
-        <v>76150</v>
-      </c>
-      <c r="D168" t="n">
-        <v>76200</v>
-      </c>
-      <c r="E168" t="n">
-        <v>76150</v>
-      </c>
-      <c r="F168" t="n">
-        <v>122</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-683.2288650407945</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6057,7 +5995,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>76200</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6094,7 +6034,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>76200</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6131,7 +6073,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>76200</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6168,7 +6112,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>76200</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,7 +6151,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>76200</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6242,7 +6190,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>76200</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6279,7 +6229,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>76200</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,7 +6268,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>76200</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6353,7 +6307,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>76200</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6390,7 +6346,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>76200</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6427,7 +6385,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>76200</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,7 +6424,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>76200</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6501,7 +6463,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>76200</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6538,7 +6502,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>76200</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6575,7 +6541,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>76200</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6612,7 +6580,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>76200</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6649,7 +6619,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>76200</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6686,7 +6658,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>76200</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6723,7 +6697,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>76200</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6760,7 +6736,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>76200</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6797,7 +6775,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>76200</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6834,7 +6814,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>76200</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6871,7 +6853,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>76200</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6908,7 +6892,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>76200</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6945,7 +6931,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>76200</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6982,7 +6970,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>76200</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7019,7 +7009,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>76200</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7056,7 +7048,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>76200</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7090,17 +7084,19 @@
         <v>-596.4324650407943</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>76200</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>1.019278215223097</v>
       </c>
       <c r="M197" t="inlineStr"/>
     </row>
@@ -7127,15 +7123,11 @@
         <v>-615.7268650407943</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7164,15 +7156,11 @@
         <v>-615.7140650407944</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7201,15 +7189,11 @@
         <v>-628.6593650407943</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7238,15 +7222,11 @@
         <v>-496.0084650407944</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7275,15 +7255,11 @@
         <v>-481.6587650407944</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7312,15 +7288,11 @@
         <v>-482.7633650407944</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7349,15 +7321,11 @@
         <v>-481.7298650407944</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7390,11 +7358,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7427,11 +7391,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7464,11 +7424,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7501,11 +7457,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7538,11 +7490,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7575,11 +7523,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7556,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7649,11 +7589,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7686,11 +7622,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7723,11 +7655,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7760,11 +7688,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7797,11 +7721,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7834,11 +7754,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7871,11 +7787,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7908,11 +7820,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7945,11 +7853,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7982,11 +7886,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8019,11 +7919,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8056,11 +7952,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8093,11 +7985,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8130,11 +8018,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8167,11 +8051,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8204,11 +8084,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8241,11 +8117,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8278,11 +8150,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8315,11 +8183,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8352,11 +8216,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8389,11 +8249,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8426,11 +8282,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8463,11 +8315,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8500,11 +8348,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8537,11 +8381,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8574,11 +8414,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8611,11 +8447,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8648,11 +8480,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8685,11 +8513,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8722,11 +8546,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8759,11 +8579,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8796,11 +8612,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8645,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8870,11 +8678,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8907,11 +8711,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8944,11 +8744,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8981,11 +8777,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9018,11 +8810,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9055,11 +8843,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9092,11 +8876,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9129,11 +8909,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9166,11 +8942,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9203,11 +8975,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9240,11 +9008,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9277,11 +9041,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9314,11 +9074,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9351,11 +9107,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9388,11 +9140,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9425,11 +9173,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9462,11 +9206,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9499,11 +9239,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9536,11 +9272,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9573,11 +9305,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9610,11 +9338,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9647,11 +9371,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9684,11 +9404,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9721,17 +9437,13 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
       <c r="M268" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest XMR.xlsx
+++ b/BackTest/2020-01-19 BackTest XMR.xlsx
@@ -748,7 +748,7 @@
         <v>424.1164179157387</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>407.7259179157388</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>420.4658179157387</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>417.1327179157387</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>417.5776179157388</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>389.1301179157388</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>428.9654179157388</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>428.9654179157388</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>356.1093179157388</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>335.1131179157388</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3.922717915738758</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-95.77618208426124</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -5467,10 +5467,14 @@
         <v>-567.3513852507674</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>75100</v>
+      </c>
+      <c r="J154" t="n">
+        <v>75100</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5500,11 +5504,19 @@
         <v>-579.1013852507674</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>75050</v>
+      </c>
+      <c r="J155" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5545,19 @@
         <v>-577.9908852507674</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>74800</v>
+      </c>
+      <c r="J156" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5586,19 @@
         <v>-578.0320852507674</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>75050</v>
+      </c>
+      <c r="J157" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5627,19 @@
         <v>-576.9941852507674</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>74750</v>
+      </c>
+      <c r="J158" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5668,19 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>75100</v>
+      </c>
+      <c r="J159" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5709,19 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>75150</v>
+      </c>
+      <c r="J160" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5750,19 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>75150</v>
+      </c>
+      <c r="J161" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5791,19 @@
         <v>-563.9641852507674</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>75150</v>
+      </c>
+      <c r="J162" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5832,19 @@
         <v>-563.0169852507674</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>75200</v>
+      </c>
+      <c r="J163" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5803,9 +5879,13 @@
         <v>75250</v>
       </c>
       <c r="J164" t="n">
-        <v>75250</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+        <v>75100</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5840,11 +5920,11 @@
         <v>75950</v>
       </c>
       <c r="J165" t="n">
-        <v>75250</v>
+        <v>75100</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -5875,17 +5955,15 @@
         <v>-561.2288650407945</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>76200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>75250</v>
+        <v>75100</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -5916,15 +5994,17 @@
         <v>-561.2288650407945</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>76200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>76200</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+        <v>75100</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5957,11 +6037,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L168" t="n">
@@ -5996,7 +6076,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6035,7 +6115,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6074,7 +6154,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6113,7 +6193,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6152,7 +6232,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6191,7 +6271,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6230,7 +6310,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6269,7 +6349,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6308,7 +6388,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6347,7 +6427,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6386,7 +6466,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6425,7 +6505,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6464,7 +6544,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6503,7 +6583,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6542,7 +6622,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6577,11 +6657,13 @@
         <v>-696.8336650407944</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>77050</v>
+      </c>
       <c r="J184" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6616,11 +6698,13 @@
         <v>-698.1516650407943</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>77050</v>
+      </c>
       <c r="J185" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6655,11 +6739,13 @@
         <v>-698.1516650407943</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>77000</v>
+      </c>
       <c r="J186" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6694,11 +6780,13 @@
         <v>-698.1516650407943</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>77000</v>
+      </c>
       <c r="J187" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6733,11 +6821,13 @@
         <v>-658.6023650407943</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>77000</v>
+      </c>
       <c r="J188" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6772,11 +6862,13 @@
         <v>-641.8298650407943</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>77100</v>
+      </c>
       <c r="J189" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6811,11 +6903,13 @@
         <v>-653.4005650407943</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>77400</v>
+      </c>
       <c r="J190" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6850,11 +6944,13 @@
         <v>-652.4046650407943</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>77050</v>
+      </c>
       <c r="J191" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6889,11 +6985,13 @@
         <v>-602.1127650407943</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>77350</v>
+      </c>
       <c r="J192" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6928,11 +7026,13 @@
         <v>-664.6948650407943</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>77700</v>
+      </c>
       <c r="J193" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6967,11 +7067,13 @@
         <v>-614.8953650407943</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>77550</v>
+      </c>
       <c r="J194" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7006,11 +7108,13 @@
         <v>-596.3524650407943</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>77650</v>
+      </c>
       <c r="J195" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7045,11 +7149,13 @@
         <v>-596.3524650407943</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>78300</v>
+      </c>
       <c r="J196" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7084,19 +7190,21 @@
         <v>-596.4324650407943</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>78300</v>
+      </c>
       <c r="J197" t="n">
-        <v>76200</v>
+        <v>75100</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.019278215223097</v>
+        <v>1</v>
       </c>
       <c r="M197" t="inlineStr"/>
     </row>
@@ -7123,11 +7231,19 @@
         <v>-615.7268650407943</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>78050</v>
+      </c>
+      <c r="J198" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7156,11 +7272,19 @@
         <v>-615.7140650407944</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>77700</v>
+      </c>
+      <c r="J199" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7189,11 +7313,19 @@
         <v>-628.6593650407943</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>78000</v>
+      </c>
+      <c r="J200" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7222,11 +7354,19 @@
         <v>-496.0084650407944</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>77600</v>
+      </c>
+      <c r="J201" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7255,11 +7395,19 @@
         <v>-481.6587650407944</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>78000</v>
+      </c>
+      <c r="J202" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7288,11 +7436,19 @@
         <v>-482.7633650407944</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>78400</v>
+      </c>
+      <c r="J203" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7321,11 +7477,19 @@
         <v>-481.7298650407944</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>78200</v>
+      </c>
+      <c r="J204" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7354,11 +7518,19 @@
         <v>-481.7298650407944</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>78600</v>
+      </c>
+      <c r="J205" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7387,11 +7559,19 @@
         <v>-488.1820650407944</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>78600</v>
+      </c>
+      <c r="J206" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7420,11 +7600,19 @@
         <v>-545.7255650407944</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>78550</v>
+      </c>
+      <c r="J207" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7453,11 +7641,19 @@
         <v>-514.6775650407944</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>78200</v>
+      </c>
+      <c r="J208" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7486,11 +7682,19 @@
         <v>-511.9313650407944</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>78850</v>
+      </c>
+      <c r="J209" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7519,11 +7723,19 @@
         <v>-511.2213650407945</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>78950</v>
+      </c>
+      <c r="J210" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7552,11 +7764,19 @@
         <v>-466.8027650407945</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>79050</v>
+      </c>
+      <c r="J211" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7585,11 +7805,19 @@
         <v>-466.8027650407945</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>79100</v>
+      </c>
+      <c r="J212" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7621,8 +7849,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7654,8 +7888,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7687,8 +7927,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7720,8 +7966,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7753,8 +8005,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7786,8 +8044,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7819,8 +8083,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7852,8 +8122,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7885,8 +8161,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7918,8 +8200,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7951,8 +8239,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7984,8 +8278,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8017,8 +8317,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8050,8 +8356,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8083,8 +8395,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8116,8 +8434,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8149,8 +8473,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8182,8 +8512,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8215,8 +8551,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8248,8 +8590,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8281,8 +8629,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8314,8 +8668,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8347,8 +8707,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8380,8 +8746,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8413,8 +8785,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8446,8 +8824,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8479,8 +8863,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8512,8 +8902,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8545,8 +8941,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8578,8 +8980,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8611,8 +9019,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8644,8 +9058,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8677,8 +9097,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8710,8 +9136,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8743,8 +9175,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8776,8 +9214,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8809,8 +9253,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8842,8 +9292,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8875,8 +9331,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8908,8 +9370,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8941,8 +9409,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8974,8 +9448,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9007,8 +9487,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9040,8 +9526,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9073,8 +9565,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9106,8 +9604,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9139,8 +9643,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9172,8 +9682,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9205,8 +9721,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9238,8 +9760,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9271,8 +9799,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9304,8 +9838,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9337,8 +9877,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9370,8 +9916,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9403,8 +9955,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9436,8 +9994,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>75100</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-19 BackTest XMR.xlsx
+++ b/BackTest/2020-01-19 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M268"/>
+  <dimension ref="A1:L268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>0.4345</v>
       </c>
       <c r="G2" t="n">
-        <v>557.7896179157387</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>21.639</v>
       </c>
       <c r="G3" t="n">
-        <v>557.7896179157387</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>45.6871</v>
       </c>
       <c r="G4" t="n">
-        <v>603.4767179157387</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>127.6782</v>
       </c>
       <c r="G5" t="n">
-        <v>475.7985179157387</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>6.54378329177</v>
       </c>
       <c r="G6" t="n">
-        <v>475.7985179157387</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>30.05</v>
       </c>
       <c r="G7" t="n">
-        <v>445.7485179157387</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>12.9662</v>
       </c>
       <c r="G8" t="n">
-        <v>445.7485179157387</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>21.6391</v>
       </c>
       <c r="G9" t="n">
-        <v>424.1094179157387</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>20.3762</v>
       </c>
       <c r="G10" t="n">
-        <v>424.1094179157387</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>0.007</v>
       </c>
       <c r="G11" t="n">
-        <v>424.1164179157387</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>16.3905</v>
       </c>
       <c r="G12" t="n">
-        <v>407.7259179157388</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>12.7399</v>
       </c>
       <c r="G13" t="n">
-        <v>420.4658179157387</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>9.445600000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>411.0202179157387</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>6.1125</v>
       </c>
       <c r="G15" t="n">
-        <v>417.1327179157387</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>0.4449</v>
       </c>
       <c r="G16" t="n">
-        <v>417.5776179157388</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>28.4475</v>
       </c>
       <c r="G17" t="n">
-        <v>389.1301179157388</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>31.4798</v>
       </c>
       <c r="G18" t="n">
-        <v>389.1301179157388</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>38.22</v>
       </c>
       <c r="G19" t="n">
-        <v>389.1301179157388</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>39.8224</v>
       </c>
       <c r="G20" t="n">
-        <v>428.9525179157388</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>0.0129</v>
       </c>
       <c r="G21" t="n">
-        <v>428.9654179157388</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>0.2011</v>
       </c>
       <c r="G22" t="n">
-        <v>428.9654179157388</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>72.8561</v>
       </c>
       <c r="G23" t="n">
-        <v>356.1093179157388</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>5.2562</v>
       </c>
       <c r="G24" t="n">
-        <v>350.8531179157388</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>18.5208</v>
       </c>
       <c r="G25" t="n">
-        <v>350.8531179157388</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>0.0252</v>
       </c>
       <c r="G26" t="n">
-        <v>350.8531179157388</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>15.74</v>
       </c>
       <c r="G27" t="n">
-        <v>335.1131179157388</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>331.1904</v>
       </c>
       <c r="G28" t="n">
-        <v>3.922717915738758</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2.4304</v>
       </c>
       <c r="G29" t="n">
-        <v>1.492317915738758</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>20.0219</v>
       </c>
       <c r="G30" t="n">
-        <v>1.492317915738758</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>25.6</v>
       </c>
       <c r="G31" t="n">
-        <v>1.492317915738758</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>11.2</v>
       </c>
       <c r="G32" t="n">
-        <v>1.492317915738758</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>4.4235</v>
       </c>
       <c r="G33" t="n">
-        <v>5.915817915738758</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>9.915817915738758</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1.0916</v>
       </c>
       <c r="G35" t="n">
-        <v>11.00741791573876</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>0.5657</v>
       </c>
       <c r="G36" t="n">
-        <v>10.44171791573876</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1.3853</v>
       </c>
       <c r="G37" t="n">
-        <v>9.056417915738759</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>-90.94358208426124</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>0.8437</v>
       </c>
       <c r="G39" t="n">
-        <v>-90.09988208426124</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1.7607</v>
       </c>
       <c r="G40" t="n">
-        <v>-88.33918208426124</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>7.437</v>
       </c>
       <c r="G41" t="n">
-        <v>-95.77618208426124</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1.0258</v>
       </c>
       <c r="G42" t="n">
-        <v>-94.75038208426123</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2.7207</v>
       </c>
       <c r="G43" t="n">
-        <v>-94.75038208426123</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>78.4046</v>
       </c>
       <c r="G44" t="n">
-        <v>-94.75038208426123</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>5.6133</v>
       </c>
       <c r="G45" t="n">
-        <v>-100.3636820842612</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2.5722</v>
       </c>
       <c r="G46" t="n">
-        <v>-102.9358820842612</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>0.68</v>
       </c>
       <c r="G47" t="n">
-        <v>-102.2558820842612</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>11.5997</v>
       </c>
       <c r="G48" t="n">
-        <v>-113.8555820842612</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1.85</v>
       </c>
       <c r="G49" t="n">
-        <v>-115.7055820842612</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>3.06</v>
       </c>
       <c r="G50" t="n">
-        <v>-115.7055820842612</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>100.6979</v>
       </c>
       <c r="G51" t="n">
-        <v>-216.4034820842612</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2.5293</v>
       </c>
       <c r="G52" t="n">
-        <v>-213.8741820842612</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>-211.8741820842612</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>6.7995</v>
       </c>
       <c r="G54" t="n">
-        <v>-218.6736820842612</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>0.0194</v>
       </c>
       <c r="G55" t="n">
-        <v>-218.6542820842612</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1.2126</v>
       </c>
       <c r="G56" t="n">
-        <v>-218.6542820842612</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>4.653</v>
       </c>
       <c r="G57" t="n">
-        <v>-214.0012820842612</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>0.0135</v>
       </c>
       <c r="G58" t="n">
-        <v>-213.9877820842612</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>0.0617</v>
       </c>
       <c r="G59" t="n">
-        <v>-213.9877820842612</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1.098</v>
       </c>
       <c r="G60" t="n">
-        <v>-215.0857820842612</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>0.4641</v>
       </c>
       <c r="G61" t="n">
-        <v>-215.5498820842612</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>9.7864</v>
       </c>
       <c r="G62" t="n">
-        <v>-205.7634820842612</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1.3639</v>
       </c>
       <c r="G63" t="n">
-        <v>-207.1273820842612</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>7.6082</v>
       </c>
       <c r="G64" t="n">
-        <v>-214.7355820842612</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1.7465</v>
       </c>
       <c r="G65" t="n">
-        <v>-212.9890820842612</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>21.6776</v>
       </c>
       <c r="G66" t="n">
-        <v>-234.6666820842613</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>0.2716</v>
       </c>
       <c r="G67" t="n">
-        <v>-234.9382820842613</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>8.185</v>
       </c>
       <c r="G68" t="n">
-        <v>-243.1232820842613</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>3.4</v>
       </c>
       <c r="G69" t="n">
-        <v>-239.7232820842613</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>14.4793</v>
       </c>
       <c r="G70" t="n">
-        <v>-225.2439820842613</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1.66</v>
       </c>
       <c r="G71" t="n">
-        <v>-223.5839820842613</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1.4029</v>
       </c>
       <c r="G72" t="n">
-        <v>-222.1810820842613</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>6.3789</v>
       </c>
       <c r="G73" t="n">
-        <v>-215.8021820842613</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1.327</v>
       </c>
       <c r="G74" t="n">
-        <v>-217.1291820842613</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>17.1814</v>
       </c>
       <c r="G75" t="n">
-        <v>-199.9477820842613</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>0.8126</v>
       </c>
       <c r="G76" t="n">
-        <v>-200.7603820842613</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>0.1286</v>
       </c>
       <c r="G77" t="n">
-        <v>-200.6317820842613</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>0.0134</v>
       </c>
       <c r="G78" t="n">
-        <v>-200.6183820842613</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>0.0549</v>
       </c>
       <c r="G79" t="n">
-        <v>-200.5634820842613</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>4.9358</v>
       </c>
       <c r="G80" t="n">
-        <v>-200.5634820842613</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>0.9989</v>
       </c>
       <c r="G81" t="n">
-        <v>-201.5623820842613</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>0.6002</v>
       </c>
       <c r="G82" t="n">
-        <v>-200.9621820842613</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>0.2701</v>
       </c>
       <c r="G83" t="n">
-        <v>-201.2322820842613</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>0.5132</v>
       </c>
       <c r="G84" t="n">
-        <v>-200.7190820842613</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>10.1469</v>
       </c>
       <c r="G85" t="n">
-        <v>-190.5721820842613</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>0.0065</v>
       </c>
       <c r="G86" t="n">
-        <v>-190.5656820842613</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>0.0194</v>
       </c>
       <c r="G87" t="n">
-        <v>-190.5462820842613</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>16.5092</v>
       </c>
       <c r="G88" t="n">
-        <v>-190.5462820842613</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>41.8155</v>
       </c>
       <c r="G89" t="n">
-        <v>-190.5462820842613</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>-190.5462820842613</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>-191.5462820842613</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>40.097</v>
       </c>
       <c r="G92" t="n">
-        <v>-231.6432820842613</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>37.9003</v>
       </c>
       <c r="G93" t="n">
-        <v>-231.6432820842613</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>7.545357996146</v>
       </c>
       <c r="G94" t="n">
-        <v>-224.0979240881153</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1.6195</v>
       </c>
       <c r="G95" t="n">
-        <v>-222.4784240881153</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>0.9833</v>
       </c>
       <c r="G96" t="n">
-        <v>-223.4617240881153</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>-219.4617240881153</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>0.7992</v>
       </c>
       <c r="G98" t="n">
-        <v>-220.2609240881154</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>2.2861</v>
       </c>
       <c r="G99" t="n">
-        <v>-222.5470240881154</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>26.468</v>
       </c>
       <c r="G100" t="n">
-        <v>-249.0150240881154</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>13.204437830858</v>
       </c>
       <c r="G101" t="n">
-        <v>-235.8105862572573</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>1.336</v>
       </c>
       <c r="G102" t="n">
-        <v>-234.4745862572573</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>0.7069</v>
       </c>
       <c r="G103" t="n">
-        <v>-233.7676862572573</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>80.2504</v>
       </c>
       <c r="G104" t="n">
-        <v>-153.5172862572574</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>10.4012</v>
       </c>
       <c r="G105" t="n">
-        <v>-153.5172862572574</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>10.1889</v>
       </c>
       <c r="G106" t="n">
-        <v>-143.3283862572574</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>6.4597</v>
       </c>
       <c r="G107" t="n">
-        <v>-143.3283862572574</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>7.2592</v>
       </c>
       <c r="G108" t="n">
-        <v>-143.3283862572574</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>1.1849</v>
       </c>
       <c r="G109" t="n">
-        <v>-144.5132862572574</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>0.396</v>
       </c>
       <c r="G110" t="n">
-        <v>-144.1172862572574</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>1.6013</v>
       </c>
       <c r="G111" t="n">
-        <v>-145.7185862572574</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>1.5301</v>
       </c>
       <c r="G112" t="n">
-        <v>-144.1884862572574</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>0.6313621691420001</v>
       </c>
       <c r="G113" t="n">
-        <v>-143.5571240881154</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>0.1</v>
       </c>
       <c r="G114" t="n">
-        <v>-143.6571240881154</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>1.8205</v>
       </c>
       <c r="G115" t="n">
-        <v>-143.6571240881154</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>24</v>
       </c>
       <c r="G116" t="n">
-        <v>-167.6571240881154</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>0.2</v>
       </c>
       <c r="G117" t="n">
-        <v>-167.8571240881154</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>39.5029</v>
       </c>
       <c r="G118" t="n">
-        <v>-167.8571240881154</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>167.4728</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.3843240881153633</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>69.0501</v>
       </c>
       <c r="G120" t="n">
-        <v>-69.43442408811536</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>100.8932</v>
       </c>
       <c r="G121" t="n">
-        <v>31.45877591188463</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>7.7681</v>
       </c>
       <c r="G122" t="n">
-        <v>23.69067591188463</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>23.69067591188463</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>56.8505</v>
       </c>
       <c r="G124" t="n">
-        <v>-33.15982408811537</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>1.7465</v>
       </c>
       <c r="G125" t="n">
-        <v>-34.90632408811537</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>0.10974983964</v>
       </c>
       <c r="G126" t="n">
-        <v>-34.79657424847537</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>0.025</v>
       </c>
       <c r="G127" t="n">
-        <v>-34.82157424847536</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>0.057194337194</v>
       </c>
       <c r="G128" t="n">
-        <v>-34.76437991128137</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>2.4868</v>
       </c>
       <c r="G129" t="n">
-        <v>-37.25117991128137</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>474.9285</v>
       </c>
       <c r="G130" t="n">
-        <v>-512.1796799112814</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>27.3322</v>
       </c>
       <c r="G131" t="n">
-        <v>-484.8474799112814</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1.6946</v>
       </c>
       <c r="G132" t="n">
-        <v>-483.1528799112814</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>0.9772999999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>-484.1301799112814</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>12.73</v>
       </c>
       <c r="G134" t="n">
-        <v>-496.8601799112814</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>0.8106</v>
       </c>
       <c r="G135" t="n">
-        <v>-497.6707799112814</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1.0367</v>
       </c>
       <c r="G136" t="n">
-        <v>-498.7074799112814</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>7.3072</v>
       </c>
       <c r="G137" t="n">
-        <v>-506.0146799112815</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>7.9266</v>
       </c>
       <c r="G138" t="n">
-        <v>-513.9412799112814</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>10.003</v>
       </c>
       <c r="G139" t="n">
-        <v>-503.9382799112814</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>5.6</v>
       </c>
       <c r="G140" t="n">
-        <v>-509.5382799112814</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>6.0646</v>
       </c>
       <c r="G141" t="n">
-        <v>-509.5382799112814</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>1.3146</v>
       </c>
       <c r="G142" t="n">
-        <v>-510.8528799112814</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>0.977</v>
       </c>
       <c r="G143" t="n">
-        <v>-510.8528799112814</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>0.3837</v>
       </c>
       <c r="G144" t="n">
-        <v>-511.2365799112814</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>0.1385</v>
       </c>
       <c r="G145" t="n">
-        <v>-511.3750799112814</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>0.1</v>
       </c>
       <c r="G146" t="n">
-        <v>-511.4750799112815</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>0.4776</v>
       </c>
       <c r="G147" t="n">
-        <v>-511.9526799112815</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>1.257494660514</v>
       </c>
       <c r="G148" t="n">
-        <v>-510.6951852507675</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>11.6725</v>
       </c>
       <c r="G149" t="n">
-        <v>-510.6951852507675</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>35.9261</v>
       </c>
       <c r="G150" t="n">
-        <v>-546.6212852507674</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>10.1321</v>
       </c>
       <c r="G151" t="n">
-        <v>-556.7533852507675</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>-554.7533852507675</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>0.848</v>
       </c>
       <c r="G153" t="n">
-        <v>-555.6013852507674</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,22 +5003,15 @@
         <v>11.75</v>
       </c>
       <c r="G154" t="n">
-        <v>-567.3513852507674</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>75100</v>
-      </c>
-      <c r="J154" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5501,26 +5033,21 @@
         <v>11.75</v>
       </c>
       <c r="G155" t="n">
-        <v>-579.1013852507674</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
         <v>75050</v>
       </c>
-      <c r="J155" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5542,26 +5069,21 @@
         <v>1.1105</v>
       </c>
       <c r="G156" t="n">
-        <v>-577.9908852507674</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
         <v>74800</v>
       </c>
-      <c r="J156" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5583,26 +5105,21 @@
         <v>0.0412</v>
       </c>
       <c r="G157" t="n">
-        <v>-578.0320852507674</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
         <v>75050</v>
       </c>
-      <c r="J157" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5624,26 +5141,21 @@
         <v>1.0379</v>
       </c>
       <c r="G158" t="n">
-        <v>-576.9941852507674</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
         <v>74750</v>
       </c>
-      <c r="J158" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5665,26 +5177,21 @@
         <v>9.250400000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>-567.7437852507674</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
         <v>75100</v>
       </c>
-      <c r="J159" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5706,26 +5213,21 @@
         <v>3.1047</v>
       </c>
       <c r="G160" t="n">
-        <v>-567.7437852507674</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
         <v>75150</v>
       </c>
-      <c r="J160" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5747,26 +5249,21 @@
         <v>4.3827</v>
       </c>
       <c r="G161" t="n">
-        <v>-567.7437852507674</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
         <v>75150</v>
       </c>
-      <c r="J161" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5788,26 +5285,21 @@
         <v>3.7796</v>
       </c>
       <c r="G162" t="n">
-        <v>-563.9641852507674</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
         <v>75150</v>
       </c>
-      <c r="J162" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5829,26 +5321,21 @@
         <v>0.9472</v>
       </c>
       <c r="G163" t="n">
-        <v>-563.0169852507674</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
         <v>75200</v>
       </c>
-      <c r="J163" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5870,26 +5357,21 @@
         <v>1.7298</v>
       </c>
       <c r="G164" t="n">
-        <v>-561.2871852507675</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
         <v>75250</v>
       </c>
-      <c r="J164" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5911,26 +5393,21 @@
         <v>0.058320209973</v>
       </c>
       <c r="G165" t="n">
-        <v>-561.2288650407945</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
         <v>75950</v>
       </c>
-      <c r="J165" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5952,24 +5429,19 @@
         <v>0.941679790027</v>
       </c>
       <c r="G166" t="n">
-        <v>-561.2288650407945</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5991,24 +5463,19 @@
         <v>61</v>
       </c>
       <c r="G167" t="n">
-        <v>-561.2288650407945</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6030,24 +5497,19 @@
         <v>122</v>
       </c>
       <c r="G168" t="n">
-        <v>-683.2288650407945</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6069,24 +5531,19 @@
         <v>17.5493</v>
       </c>
       <c r="G169" t="n">
-        <v>-665.6795650407945</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6108,24 +5565,19 @@
         <v>121</v>
       </c>
       <c r="G170" t="n">
-        <v>-786.6795650407945</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6147,24 +5599,19 @@
         <v>60</v>
       </c>
       <c r="G171" t="n">
-        <v>-786.6795650407945</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6186,24 +5633,19 @@
         <v>275.1567</v>
       </c>
       <c r="G172" t="n">
-        <v>-786.6795650407945</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6225,24 +5667,19 @@
         <v>6</v>
       </c>
       <c r="G173" t="n">
-        <v>-792.6795650407945</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6264,24 +5701,19 @@
         <v>55.1126</v>
       </c>
       <c r="G174" t="n">
-        <v>-737.5669650407945</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6303,24 +5735,19 @@
         <v>3.9307</v>
       </c>
       <c r="G175" t="n">
-        <v>-733.6362650407945</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6342,24 +5769,19 @@
         <v>19.7774</v>
       </c>
       <c r="G176" t="n">
-        <v>-733.6362650407945</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6381,24 +5803,19 @@
         <v>35.4302</v>
       </c>
       <c r="G177" t="n">
-        <v>-698.2060650407944</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6420,24 +5837,19 @@
         <v>0.013</v>
       </c>
       <c r="G178" t="n">
-        <v>-698.1930650407944</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6459,24 +5871,19 @@
         <v>6.6026</v>
       </c>
       <c r="G179" t="n">
-        <v>-698.1930650407944</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6498,24 +5905,19 @@
         <v>0.0001</v>
       </c>
       <c r="G180" t="n">
-        <v>-698.1930650407944</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6537,24 +5939,19 @@
         <v>1.3594</v>
       </c>
       <c r="G181" t="n">
-        <v>-696.8336650407944</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6576,24 +5973,19 @@
         <v>9.2728</v>
       </c>
       <c r="G182" t="n">
-        <v>-696.8336650407944</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6615,24 +6007,19 @@
         <v>3.6881</v>
       </c>
       <c r="G183" t="n">
-        <v>-696.8336650407944</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6654,26 +6041,19 @@
         <v>2.2234</v>
       </c>
       <c r="G184" t="n">
-        <v>-696.8336650407944</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>77050</v>
-      </c>
-      <c r="J184" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6695,26 +6075,19 @@
         <v>1.318</v>
       </c>
       <c r="G185" t="n">
-        <v>-698.1516650407943</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>77050</v>
-      </c>
-      <c r="J185" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6736,26 +6109,19 @@
         <v>15.5983</v>
       </c>
       <c r="G186" t="n">
-        <v>-698.1516650407943</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>77000</v>
-      </c>
-      <c r="J186" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6777,26 +6143,19 @@
         <v>0.6455</v>
       </c>
       <c r="G187" t="n">
-        <v>-698.1516650407943</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>77000</v>
-      </c>
-      <c r="J187" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6818,26 +6177,19 @@
         <v>39.5493</v>
       </c>
       <c r="G188" t="n">
-        <v>-658.6023650407943</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>77000</v>
-      </c>
-      <c r="J188" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6859,26 +6211,19 @@
         <v>16.7725</v>
       </c>
       <c r="G189" t="n">
-        <v>-641.8298650407943</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>77100</v>
-      </c>
-      <c r="J189" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6900,26 +6245,19 @@
         <v>11.5707</v>
       </c>
       <c r="G190" t="n">
-        <v>-653.4005650407943</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>77400</v>
-      </c>
-      <c r="J190" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6941,26 +6279,19 @@
         <v>0.9959</v>
       </c>
       <c r="G191" t="n">
-        <v>-652.4046650407943</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>77050</v>
-      </c>
-      <c r="J191" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6982,26 +6313,19 @@
         <v>50.2919</v>
       </c>
       <c r="G192" t="n">
-        <v>-602.1127650407943</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>77350</v>
-      </c>
-      <c r="J192" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7023,26 +6347,19 @@
         <v>62.5821</v>
       </c>
       <c r="G193" t="n">
-        <v>-664.6948650407943</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>77700</v>
-      </c>
-      <c r="J193" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7064,26 +6381,19 @@
         <v>49.7995</v>
       </c>
       <c r="G194" t="n">
-        <v>-614.8953650407943</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>77550</v>
-      </c>
-      <c r="J194" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7105,26 +6415,19 @@
         <v>18.5429</v>
       </c>
       <c r="G195" t="n">
-        <v>-596.3524650407943</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>77650</v>
-      </c>
-      <c r="J195" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7146,26 +6449,19 @@
         <v>6.7374</v>
       </c>
       <c r="G196" t="n">
-        <v>-596.3524650407943</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>78300</v>
-      </c>
-      <c r="J196" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7187,26 +6483,19 @@
         <v>0.08</v>
       </c>
       <c r="G197" t="n">
-        <v>-596.4324650407943</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>78300</v>
-      </c>
-      <c r="J197" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7228,26 +6517,19 @@
         <v>19.2944</v>
       </c>
       <c r="G198" t="n">
-        <v>-615.7268650407943</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>78050</v>
-      </c>
-      <c r="J198" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7269,26 +6551,19 @@
         <v>0.0128</v>
       </c>
       <c r="G199" t="n">
-        <v>-615.7140650407944</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>77700</v>
-      </c>
-      <c r="J199" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7310,26 +6585,19 @@
         <v>12.9453</v>
       </c>
       <c r="G200" t="n">
-        <v>-628.6593650407943</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>78000</v>
-      </c>
-      <c r="J200" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7351,26 +6619,19 @@
         <v>132.6509</v>
       </c>
       <c r="G201" t="n">
-        <v>-496.0084650407944</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>77600</v>
-      </c>
-      <c r="J201" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7392,26 +6653,19 @@
         <v>14.3497</v>
       </c>
       <c r="G202" t="n">
-        <v>-481.6587650407944</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>78000</v>
-      </c>
-      <c r="J202" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7433,26 +6687,19 @@
         <v>1.1046</v>
       </c>
       <c r="G203" t="n">
-        <v>-482.7633650407944</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>78400</v>
-      </c>
-      <c r="J203" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7474,26 +6721,19 @@
         <v>1.0335</v>
       </c>
       <c r="G204" t="n">
-        <v>-481.7298650407944</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>78200</v>
-      </c>
-      <c r="J204" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7515,26 +6755,19 @@
         <v>1.3947</v>
       </c>
       <c r="G205" t="n">
-        <v>-481.7298650407944</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>78600</v>
-      </c>
-      <c r="J205" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7556,26 +6789,19 @@
         <v>6.4522</v>
       </c>
       <c r="G206" t="n">
-        <v>-488.1820650407944</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>78600</v>
-      </c>
-      <c r="J206" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7597,26 +6823,19 @@
         <v>57.5435</v>
       </c>
       <c r="G207" t="n">
-        <v>-545.7255650407944</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>78550</v>
-      </c>
-      <c r="J207" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7638,26 +6857,19 @@
         <v>31.048</v>
       </c>
       <c r="G208" t="n">
-        <v>-514.6775650407944</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>78200</v>
-      </c>
-      <c r="J208" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7679,26 +6891,19 @@
         <v>2.7462</v>
       </c>
       <c r="G209" t="n">
-        <v>-511.9313650407944</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>78850</v>
-      </c>
-      <c r="J209" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7720,26 +6925,19 @@
         <v>0.71</v>
       </c>
       <c r="G210" t="n">
-        <v>-511.2213650407945</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>78950</v>
-      </c>
-      <c r="J210" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7761,26 +6959,19 @@
         <v>44.4186</v>
       </c>
       <c r="G211" t="n">
-        <v>-466.8027650407945</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>79050</v>
-      </c>
-      <c r="J211" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7802,26 +6993,19 @@
         <v>118.4998</v>
       </c>
       <c r="G212" t="n">
-        <v>-466.8027650407945</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>79100</v>
-      </c>
-      <c r="J212" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7843,24 +7027,19 @@
         <v>38.0985</v>
       </c>
       <c r="G213" t="n">
-        <v>-428.7042650407945</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7882,24 +7061,19 @@
         <v>13.144</v>
       </c>
       <c r="G214" t="n">
-        <v>-428.7042650407945</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7921,24 +7095,19 @@
         <v>27.3564</v>
       </c>
       <c r="G215" t="n">
-        <v>-401.3478650407945</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7960,24 +7129,19 @@
         <v>7.0594</v>
       </c>
       <c r="G216" t="n">
-        <v>-401.3478650407945</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7999,24 +7163,19 @@
         <v>241.992</v>
       </c>
       <c r="G217" t="n">
-        <v>-159.3558650407945</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8038,24 +7197,19 @@
         <v>14.3522</v>
       </c>
       <c r="G218" t="n">
-        <v>-145.0036650407945</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8077,24 +7231,19 @@
         <v>48.8189</v>
       </c>
       <c r="G219" t="n">
-        <v>-96.18476504079449</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8116,24 +7265,19 @@
         <v>3.4</v>
       </c>
       <c r="G220" t="n">
-        <v>-99.58476504079449</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8155,24 +7299,19 @@
         <v>25.2272</v>
       </c>
       <c r="G221" t="n">
-        <v>-99.58476504079449</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8194,24 +7333,19 @@
         <v>24</v>
       </c>
       <c r="G222" t="n">
-        <v>-99.58476504079449</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8233,24 +7367,19 @@
         <v>30</v>
       </c>
       <c r="G223" t="n">
-        <v>-99.58476504079449</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8272,24 +7401,19 @@
         <v>0.5964</v>
       </c>
       <c r="G224" t="n">
-        <v>-99.58476504079449</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8311,24 +7435,19 @@
         <v>4.8511</v>
       </c>
       <c r="G225" t="n">
-        <v>-99.58476504079449</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8350,24 +7469,19 @@
         <v>3.3829</v>
       </c>
       <c r="G226" t="n">
-        <v>-99.58476504079449</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8389,24 +7503,19 @@
         <v>1.7759</v>
       </c>
       <c r="G227" t="n">
-        <v>-99.58476504079449</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8428,24 +7537,19 @@
         <v>46.9958</v>
       </c>
       <c r="G228" t="n">
-        <v>-99.58476504079449</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8467,24 +7571,19 @@
         <v>36.0544</v>
       </c>
       <c r="G229" t="n">
-        <v>-135.6391650407945</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8506,24 +7605,19 @@
         <v>9.363899999999999</v>
       </c>
       <c r="G230" t="n">
-        <v>-126.2752650407945</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8545,24 +7639,19 @@
         <v>1.12</v>
       </c>
       <c r="G231" t="n">
-        <v>-125.1552650407945</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8584,24 +7673,19 @@
         <v>1.15</v>
       </c>
       <c r="G232" t="n">
-        <v>-124.0052650407945</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8623,24 +7707,19 @@
         <v>17.6381</v>
       </c>
       <c r="G233" t="n">
-        <v>-141.6433650407945</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8662,24 +7741,19 @@
         <v>2.0001</v>
       </c>
       <c r="G234" t="n">
-        <v>-141.6433650407945</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8701,24 +7775,19 @@
         <v>2.6949</v>
       </c>
       <c r="G235" t="n">
-        <v>-141.6433650407945</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8740,24 +7809,19 @@
         <v>20.4664</v>
       </c>
       <c r="G236" t="n">
-        <v>-141.6433650407945</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8779,24 +7843,19 @@
         <v>12.2242</v>
       </c>
       <c r="G237" t="n">
-        <v>-141.6433650407945</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8818,24 +7877,19 @@
         <v>13.8668</v>
       </c>
       <c r="G238" t="n">
-        <v>-141.6433650407945</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8857,24 +7911,19 @@
         <v>2.4927</v>
       </c>
       <c r="G239" t="n">
-        <v>-141.6433650407945</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8896,24 +7945,19 @@
         <v>1.2011</v>
       </c>
       <c r="G240" t="n">
-        <v>-140.4422650407945</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8935,24 +7979,19 @@
         <v>0.4619</v>
       </c>
       <c r="G241" t="n">
-        <v>-140.9041650407945</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8974,24 +8013,19 @@
         <v>0.8151</v>
       </c>
       <c r="G242" t="n">
-        <v>-140.0890650407945</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9013,24 +8047,19 @@
         <v>4.0581</v>
       </c>
       <c r="G243" t="n">
-        <v>-136.0309650407945</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9052,24 +8081,19 @@
         <v>28.0987</v>
       </c>
       <c r="G244" t="n">
-        <v>-136.0309650407945</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9091,24 +8115,19 @@
         <v>30.9364</v>
       </c>
       <c r="G245" t="n">
-        <v>-166.9673650407945</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9130,24 +8149,19 @@
         <v>4.5153</v>
       </c>
       <c r="G246" t="n">
-        <v>-162.4520650407945</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9169,24 +8183,19 @@
         <v>64.1671</v>
       </c>
       <c r="G247" t="n">
-        <v>-162.4520650407945</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9208,24 +8217,19 @@
         <v>0.8908</v>
       </c>
       <c r="G248" t="n">
-        <v>-162.4520650407945</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9247,24 +8251,19 @@
         <v>49.8604</v>
       </c>
       <c r="G249" t="n">
-        <v>-112.5916650407945</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9286,24 +8285,19 @@
         <v>43.33</v>
       </c>
       <c r="G250" t="n">
-        <v>-155.9216650407945</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9325,24 +8319,17 @@
         <v>0.08</v>
       </c>
       <c r="G251" t="n">
-        <v>-155.9216650407945</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9364,24 +8351,15 @@
         <v>1</v>
       </c>
       <c r="G252" t="n">
-        <v>-156.9216650407945</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9403,24 +8381,15 @@
         <v>0.599</v>
       </c>
       <c r="G253" t="n">
-        <v>-157.5206650407945</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9442,24 +8411,15 @@
         <v>3</v>
       </c>
       <c r="G254" t="n">
-        <v>-160.5206650407945</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9481,24 +8441,15 @@
         <v>0.0127</v>
       </c>
       <c r="G255" t="n">
-        <v>-160.5333650407945</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9520,24 +8471,15 @@
         <v>83.371</v>
       </c>
       <c r="G256" t="n">
-        <v>-243.9043650407945</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9559,24 +8501,15 @@
         <v>9.987299999999999</v>
       </c>
       <c r="G257" t="n">
-        <v>-253.8916650407945</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9598,24 +8531,15 @@
         <v>0.5</v>
       </c>
       <c r="G258" t="n">
-        <v>-253.3916650407945</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9637,24 +8561,15 @@
         <v>31.9058</v>
       </c>
       <c r="G259" t="n">
-        <v>-285.2974650407945</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9676,24 +8591,15 @@
         <v>33.0246</v>
       </c>
       <c r="G260" t="n">
-        <v>-318.3220650407945</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9715,24 +8621,15 @@
         <v>48.6731</v>
       </c>
       <c r="G261" t="n">
-        <v>-366.9951650407945</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9754,24 +8651,15 @@
         <v>22.7152</v>
       </c>
       <c r="G262" t="n">
-        <v>-344.2799650407945</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9793,24 +8681,15 @@
         <v>16.7725</v>
       </c>
       <c r="G263" t="n">
-        <v>-361.0524650407945</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9832,24 +8711,15 @@
         <v>0.994</v>
       </c>
       <c r="G264" t="n">
-        <v>-360.0584650407944</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9871,24 +8741,15 @@
         <v>1.4444</v>
       </c>
       <c r="G265" t="n">
-        <v>-358.6140650407945</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9910,24 +8771,15 @@
         <v>0.4959</v>
       </c>
       <c r="G266" t="n">
-        <v>-358.1181650407945</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9949,24 +8801,15 @@
         <v>0.4177</v>
       </c>
       <c r="G267" t="n">
-        <v>-357.7004650407944</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9988,24 +8831,15 @@
         <v>0.5011</v>
       </c>
       <c r="G268" t="n">
-        <v>-358.2015650407944</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
